--- a/municipal/სასტუმროები/სასტუმროების რაოდენობა და ფართობი/ქვემო ქართლი/თეთრიწყარო.xlsx
+++ b/municipal/სასტუმროები/სასტუმროების რაოდენობა და ფართობი/ქვემო ქართლი/თეთრიწყარო.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმროები\2 სასტუმროების რაოდენობა &amp; ფართობი\ქვემო ქართლი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სასტუმროები ქარ. EN\2 სასტუმროების რაოდენობა &amp; ფართობი\ქვემო ქართლი\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
-  <si>
-    <t>−</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
   <si>
     <t>რაოდენობა</t>
   </si>
@@ -36,6 +33,29 @@
   </si>
   <si>
     <t>ფართობი კვ.მ.</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>შენიშშვნა:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> „ ...“ მონაცემი არ არის ან კონფიდენციალურია</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -46,7 +66,7 @@
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +100,31 @@
       <color theme="1"/>
       <name val="Sylfaen"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -142,7 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -187,15 +232,20 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,32 +529,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="13" width="12.7109375" customWidth="1"/>
+    <col min="2" max="13" width="12.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>2</v>
+      <c r="A1" s="17" t="s">
+        <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -540,37 +588,37 @@
       <c r="B2" s="16">
         <v>2010</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>2011</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>2012</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>2013</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>2014</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>2015</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="16">
         <v>2016</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>2017</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="16">
         <v>2018</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="16">
         <v>2019</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="16">
         <v>2020</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="16">
         <v>2021</v>
       </c>
       <c r="N2" s="8"/>
@@ -605,19 +653,19 @@
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>
@@ -638,7 +686,7 @@
         <v>3</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3" s="3">
         <v>1</v>
@@ -675,19 +723,19 @@
     </row>
     <row r="4" spans="1:42" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="C4" s="12" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="12">
         <v>1400</v>
@@ -708,7 +756,7 @@
         <v>2100</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4" s="12">
         <v>240</v>
@@ -743,20 +791,22 @@
       <c r="AO4" s="14"/>
       <c r="AP4" s="14"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+    <row r="5" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -789,18 +839,18 @@
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -833,18 +883,18 @@
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -877,18 +927,18 @@
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -921,18 +971,18 @@
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -965,18 +1015,18 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1009,18 +1059,18 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1053,18 +1103,18 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1097,18 +1147,18 @@
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1141,18 +1191,18 @@
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1185,18 +1235,18 @@
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1229,18 +1279,18 @@
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1273,18 +1323,18 @@
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1317,18 +1367,18 @@
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1361,18 +1411,18 @@
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1405,18 +1455,18 @@
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1449,18 +1499,18 @@
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1493,18 +1543,18 @@
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1537,18 +1587,18 @@
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -1581,18 +1631,18 @@
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -1625,18 +1675,18 @@
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -1669,18 +1719,18 @@
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -1713,18 +1763,18 @@
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -1757,18 +1807,18 @@
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -1801,18 +1851,18 @@
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -1845,18 +1895,18 @@
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -1889,18 +1939,18 @@
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -1933,18 +1983,18 @@
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -1977,18 +2027,18 @@
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -2021,18 +2071,18 @@
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -2065,18 +2115,18 @@
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -2109,18 +2159,18 @@
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -2153,18 +2203,18 @@
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -2197,18 +2247,18 @@
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -2241,18 +2291,18 @@
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -2285,18 +2335,18 @@
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -2329,18 +2379,18 @@
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2373,18 +2423,18 @@
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -2417,18 +2467,18 @@
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -2461,18 +2511,18 @@
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -2505,18 +2555,18 @@
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -2549,18 +2599,18 @@
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -2593,18 +2643,18 @@
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -2637,18 +2687,18 @@
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
@@ -2681,18 +2731,18 @@
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -2725,18 +2775,18 @@
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
@@ -2769,18 +2819,18 @@
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
@@ -2813,18 +2863,18 @@
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -2857,18 +2907,18 @@
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -2901,18 +2951,18 @@
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
@@ -2945,18 +2995,18 @@
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
@@ -2989,18 +3039,18 @@
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
@@ -3033,18 +3083,18 @@
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
@@ -3077,18 +3127,18 @@
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
@@ -3121,18 +3171,18 @@
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
@@ -3165,18 +3215,18 @@
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -3209,18 +3259,18 @@
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
@@ -3253,18 +3303,18 @@
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
@@ -3297,18 +3347,18 @@
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
@@ -3341,18 +3391,18 @@
     </row>
     <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -3385,18 +3435,18 @@
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -3429,18 +3479,18 @@
     </row>
     <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -3473,18 +3523,18 @@
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -3517,18 +3567,18 @@
     </row>
     <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
@@ -3561,18 +3611,18 @@
     </row>
     <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -3605,18 +3655,18 @@
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -3649,18 +3699,18 @@
     </row>
     <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -3693,18 +3743,18 @@
     </row>
     <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
@@ -3737,18 +3787,18 @@
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
@@ -3781,18 +3831,18 @@
     </row>
     <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
@@ -3825,18 +3875,18 @@
     </row>
     <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
@@ -3869,18 +3919,18 @@
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
@@ -3913,18 +3963,18 @@
     </row>
     <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
@@ -3957,18 +4007,18 @@
     </row>
     <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
@@ -4001,18 +4051,18 @@
     </row>
     <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
@@ -4045,18 +4095,18 @@
     </row>
     <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
@@ -4089,18 +4139,18 @@
     </row>
     <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
@@ -4133,18 +4183,18 @@
     </row>
     <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
@@ -4177,18 +4227,18 @@
     </row>
     <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
@@ -4221,18 +4271,18 @@
     </row>
     <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
@@ -4265,18 +4315,18 @@
     </row>
     <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+      <c r="M85" s="20"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
@@ -4309,18 +4359,18 @@
     </row>
     <row r="86" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
@@ -4353,18 +4403,18 @@
     </row>
     <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="20"/>
+      <c r="M87" s="20"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
@@ -4397,18 +4447,18 @@
     </row>
     <row r="88" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
+      <c r="M88" s="20"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
@@ -4441,18 +4491,18 @@
     </row>
     <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="20"/>
+      <c r="M89" s="20"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
@@ -4485,18 +4535,18 @@
     </row>
     <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="20"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
@@ -4529,18 +4579,18 @@
     </row>
     <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
+      <c r="M91" s="20"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
@@ -4573,18 +4623,18 @@
     </row>
     <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="20"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
@@ -4617,18 +4667,18 @@
     </row>
     <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="20"/>
+      <c r="M93" s="20"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
@@ -4661,18 +4711,18 @@
     </row>
     <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
+      <c r="M94" s="20"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
@@ -4705,18 +4755,18 @@
     </row>
     <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="20"/>
+      <c r="K95" s="20"/>
+      <c r="L95" s="20"/>
+      <c r="M95" s="20"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
@@ -4749,18 +4799,18 @@
     </row>
     <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="20"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="20"/>
+      <c r="M96" s="20"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
@@ -4793,18 +4843,18 @@
     </row>
     <row r="97" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20"/>
+      <c r="M97" s="20"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
@@ -4837,18 +4887,18 @@
     </row>
     <row r="98" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="20"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="20"/>
+      <c r="M98" s="20"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
@@ -4881,18 +4931,18 @@
     </row>
     <row r="99" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20"/>
+      <c r="M99" s="20"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
@@ -4925,18 +4975,18 @@
     </row>
     <row r="100" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="20"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20"/>
+      <c r="M100" s="20"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
@@ -4969,18 +5019,18 @@
     </row>
     <row r="101" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="20"/>
+      <c r="K101" s="20"/>
+      <c r="L101" s="20"/>
+      <c r="M101" s="20"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
@@ -5013,18 +5063,18 @@
     </row>
     <row r="102" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
+      <c r="M102" s="20"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
@@ -5057,18 +5107,18 @@
     </row>
     <row r="103" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="20"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
@@ -5101,18 +5151,18 @@
     </row>
     <row r="104" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="20"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="20"/>
+      <c r="M104" s="20"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
@@ -5145,18 +5195,18 @@
     </row>
     <row r="105" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="20"/>
+      <c r="K105" s="20"/>
+      <c r="L105" s="20"/>
+      <c r="M105" s="20"/>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
@@ -5189,18 +5239,18 @@
     </row>
     <row r="106" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="20"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="20"/>
+      <c r="M106" s="20"/>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
@@ -5233,18 +5283,18 @@
     </row>
     <row r="107" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="20"/>
+      <c r="K107" s="20"/>
+      <c r="L107" s="20"/>
+      <c r="M107" s="20"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
@@ -5277,18 +5327,18 @@
     </row>
     <row r="108" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="20"/>
+      <c r="K108" s="20"/>
+      <c r="L108" s="20"/>
+      <c r="M108" s="20"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
@@ -5321,18 +5371,18 @@
     </row>
     <row r="109" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="20"/>
+      <c r="K109" s="20"/>
+      <c r="L109" s="20"/>
+      <c r="M109" s="20"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
@@ -5365,18 +5415,18 @@
     </row>
     <row r="110" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="20"/>
+      <c r="K110" s="20"/>
+      <c r="L110" s="20"/>
+      <c r="M110" s="20"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
@@ -5409,18 +5459,18 @@
     </row>
     <row r="111" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="20"/>
+      <c r="K111" s="20"/>
+      <c r="L111" s="20"/>
+      <c r="M111" s="20"/>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
@@ -5453,18 +5503,18 @@
     </row>
     <row r="112" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="20"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="20"/>
+      <c r="M112" s="20"/>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
@@ -5497,18 +5547,18 @@
     </row>
     <row r="113" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="20"/>
+      <c r="K113" s="20"/>
+      <c r="L113" s="20"/>
+      <c r="M113" s="20"/>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
@@ -5541,18 +5591,18 @@
     </row>
     <row r="114" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="20"/>
+      <c r="K114" s="20"/>
+      <c r="L114" s="20"/>
+      <c r="M114" s="20"/>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
@@ -5585,18 +5635,18 @@
     </row>
     <row r="115" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="20"/>
+      <c r="K115" s="20"/>
+      <c r="L115" s="20"/>
+      <c r="M115" s="20"/>
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
@@ -5629,18 +5679,18 @@
     </row>
     <row r="116" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="20"/>
+      <c r="K116" s="20"/>
+      <c r="L116" s="20"/>
+      <c r="M116" s="20"/>
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
@@ -5673,18 +5723,18 @@
     </row>
     <row r="117" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="20"/>
+      <c r="K117" s="20"/>
+      <c r="L117" s="20"/>
+      <c r="M117" s="20"/>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
@@ -5717,18 +5767,18 @@
     </row>
     <row r="118" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="20"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="20"/>
+      <c r="K118" s="20"/>
+      <c r="L118" s="20"/>
+      <c r="M118" s="20"/>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
@@ -5761,18 +5811,18 @@
     </row>
     <row r="119" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="20"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="20"/>
+      <c r="K119" s="20"/>
+      <c r="L119" s="20"/>
+      <c r="M119" s="20"/>
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
@@ -5805,18 +5855,18 @@
     </row>
     <row r="120" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="20"/>
+      <c r="K120" s="20"/>
+      <c r="L120" s="20"/>
+      <c r="M120" s="20"/>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
@@ -5849,18 +5899,18 @@
     </row>
     <row r="121" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="20"/>
+      <c r="K121" s="20"/>
+      <c r="L121" s="20"/>
+      <c r="M121" s="20"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
@@ -5893,18 +5943,18 @@
     </row>
     <row r="122" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="20"/>
+      <c r="K122" s="20"/>
+      <c r="L122" s="20"/>
+      <c r="M122" s="20"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
@@ -5937,18 +5987,18 @@
     </row>
     <row r="123" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
-      <c r="M123" s="1"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="20"/>
+      <c r="K123" s="20"/>
+      <c r="L123" s="20"/>
+      <c r="M123" s="20"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
@@ -5981,18 +6031,18 @@
     </row>
     <row r="124" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1"/>
-      <c r="M124" s="1"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="20"/>
+      <c r="K124" s="20"/>
+      <c r="L124" s="20"/>
+      <c r="M124" s="20"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
@@ -6025,18 +6075,18 @@
     </row>
     <row r="125" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
-      <c r="M125" s="1"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="20"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="20"/>
+      <c r="K125" s="20"/>
+      <c r="L125" s="20"/>
+      <c r="M125" s="20"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
@@ -6069,18 +6119,18 @@
     </row>
     <row r="126" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
-      <c r="M126" s="1"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="20"/>
+      <c r="K126" s="20"/>
+      <c r="L126" s="20"/>
+      <c r="M126" s="20"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
@@ -6113,18 +6163,18 @@
     </row>
     <row r="127" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
-      <c r="K127" s="1"/>
-      <c r="L127" s="1"/>
-      <c r="M127" s="1"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="20"/>
+      <c r="K127" s="20"/>
+      <c r="L127" s="20"/>
+      <c r="M127" s="20"/>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
@@ -6157,18 +6207,18 @@
     </row>
     <row r="128" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
-      <c r="K128" s="1"/>
-      <c r="L128" s="1"/>
-      <c r="M128" s="1"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="20"/>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="20"/>
+      <c r="K128" s="20"/>
+      <c r="L128" s="20"/>
+      <c r="M128" s="20"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
@@ -6201,18 +6251,18 @@
     </row>
     <row r="129" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
-      <c r="K129" s="1"/>
-      <c r="L129" s="1"/>
-      <c r="M129" s="1"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="20"/>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="20"/>
+      <c r="K129" s="20"/>
+      <c r="L129" s="20"/>
+      <c r="M129" s="20"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
@@ -6245,18 +6295,18 @@
     </row>
     <row r="130" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
-      <c r="L130" s="1"/>
-      <c r="M130" s="1"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="20"/>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="20"/>
+      <c r="K130" s="20"/>
+      <c r="L130" s="20"/>
+      <c r="M130" s="20"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
@@ -6289,18 +6339,18 @@
     </row>
     <row r="131" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
-      <c r="K131" s="1"/>
-      <c r="L131" s="1"/>
-      <c r="M131" s="1"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="20"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="20"/>
+      <c r="K131" s="20"/>
+      <c r="L131" s="20"/>
+      <c r="M131" s="20"/>
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
@@ -6333,18 +6383,18 @@
     </row>
     <row r="132" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="20"/>
+      <c r="K132" s="20"/>
+      <c r="L132" s="20"/>
+      <c r="M132" s="20"/>
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
@@ -6377,18 +6427,18 @@
     </row>
     <row r="133" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="20"/>
+      <c r="K133" s="20"/>
+      <c r="L133" s="20"/>
+      <c r="M133" s="20"/>
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
@@ -6421,18 +6471,18 @@
     </row>
     <row r="134" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
-      <c r="M134" s="1"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="20"/>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="20"/>
+      <c r="K134" s="20"/>
+      <c r="L134" s="20"/>
+      <c r="M134" s="20"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
@@ -6465,18 +6515,18 @@
     </row>
     <row r="135" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="20"/>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="20"/>
+      <c r="K135" s="20"/>
+      <c r="L135" s="20"/>
+      <c r="M135" s="20"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
@@ -6509,18 +6559,18 @@
     </row>
     <row r="136" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="20"/>
+      <c r="K136" s="20"/>
+      <c r="L136" s="20"/>
+      <c r="M136" s="20"/>
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
@@ -6553,18 +6603,18 @@
     </row>
     <row r="137" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="20"/>
+      <c r="H137" s="20"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="20"/>
+      <c r="K137" s="20"/>
+      <c r="L137" s="20"/>
+      <c r="M137" s="20"/>
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
@@ -6597,18 +6647,18 @@
     </row>
     <row r="138" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
-      <c r="K138" s="1"/>
-      <c r="L138" s="1"/>
-      <c r="M138" s="1"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="20"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="20"/>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="20"/>
+      <c r="K138" s="20"/>
+      <c r="L138" s="20"/>
+      <c r="M138" s="20"/>
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
@@ -6641,18 +6691,18 @@
     </row>
     <row r="139" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
-      <c r="K139" s="1"/>
-      <c r="L139" s="1"/>
-      <c r="M139" s="1"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="20"/>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="20"/>
+      <c r="K139" s="20"/>
+      <c r="L139" s="20"/>
+      <c r="M139" s="20"/>
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
@@ -6685,18 +6735,18 @@
     </row>
     <row r="140" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="20"/>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="20"/>
+      <c r="K140" s="20"/>
+      <c r="L140" s="20"/>
+      <c r="M140" s="20"/>
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
@@ -6729,18 +6779,18 @@
     </row>
     <row r="141" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
-      <c r="K141" s="1"/>
-      <c r="L141" s="1"/>
-      <c r="M141" s="1"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="20"/>
+      <c r="K141" s="20"/>
+      <c r="L141" s="20"/>
+      <c r="M141" s="20"/>
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
@@ -6773,18 +6823,18 @@
     </row>
     <row r="142" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
-      <c r="K142" s="1"/>
-      <c r="L142" s="1"/>
-      <c r="M142" s="1"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="20"/>
+      <c r="K142" s="20"/>
+      <c r="L142" s="20"/>
+      <c r="M142" s="20"/>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
@@ -6817,18 +6867,18 @@
     </row>
     <row r="143" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
-      <c r="K143" s="1"/>
-      <c r="L143" s="1"/>
-      <c r="M143" s="1"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="20"/>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="20"/>
+      <c r="K143" s="20"/>
+      <c r="L143" s="20"/>
+      <c r="M143" s="20"/>
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
@@ -6861,18 +6911,18 @@
     </row>
     <row r="144" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
-      <c r="K144" s="1"/>
-      <c r="L144" s="1"/>
-      <c r="M144" s="1"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="20"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="20"/>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="20"/>
+      <c r="K144" s="20"/>
+      <c r="L144" s="20"/>
+      <c r="M144" s="20"/>
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
@@ -6905,18 +6955,18 @@
     </row>
     <row r="145" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
-      <c r="K145" s="1"/>
-      <c r="L145" s="1"/>
-      <c r="M145" s="1"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="20"/>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="20"/>
+      <c r="K145" s="20"/>
+      <c r="L145" s="20"/>
+      <c r="M145" s="20"/>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
@@ -6949,18 +6999,18 @@
     </row>
     <row r="146" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
-      <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="20"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="20"/>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="20"/>
+      <c r="K146" s="20"/>
+      <c r="L146" s="20"/>
+      <c r="M146" s="20"/>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
@@ -6993,18 +7043,18 @@
     </row>
     <row r="147" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="20"/>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="20"/>
+      <c r="K147" s="20"/>
+      <c r="L147" s="20"/>
+      <c r="M147" s="20"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
@@ -7037,18 +7087,18 @@
     </row>
     <row r="148" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="20"/>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="20"/>
+      <c r="K148" s="20"/>
+      <c r="L148" s="20"/>
+      <c r="M148" s="20"/>
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
@@ -7081,18 +7131,18 @@
     </row>
     <row r="149" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
-      <c r="K149" s="1"/>
-      <c r="L149" s="1"/>
-      <c r="M149" s="1"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="20"/>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
+      <c r="J149" s="20"/>
+      <c r="K149" s="20"/>
+      <c r="L149" s="20"/>
+      <c r="M149" s="20"/>
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
@@ -7125,18 +7175,18 @@
     </row>
     <row r="150" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
-      <c r="K150" s="1"/>
-      <c r="L150" s="1"/>
-      <c r="M150" s="1"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="20"/>
+      <c r="K150" s="20"/>
+      <c r="L150" s="20"/>
+      <c r="M150" s="20"/>
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
@@ -7169,18 +7219,18 @@
     </row>
     <row r="151" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
-      <c r="K151" s="1"/>
-      <c r="L151" s="1"/>
-      <c r="M151" s="1"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="20"/>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="20"/>
+      <c r="K151" s="20"/>
+      <c r="L151" s="20"/>
+      <c r="M151" s="20"/>
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
@@ -7213,18 +7263,18 @@
     </row>
     <row r="152" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
-      <c r="K152" s="1"/>
-      <c r="L152" s="1"/>
-      <c r="M152" s="1"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="20"/>
+      <c r="K152" s="20"/>
+      <c r="L152" s="20"/>
+      <c r="M152" s="20"/>
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
@@ -7257,18 +7307,18 @@
     </row>
     <row r="153" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
-      <c r="K153" s="1"/>
-      <c r="L153" s="1"/>
-      <c r="M153" s="1"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="20"/>
+      <c r="K153" s="20"/>
+      <c r="L153" s="20"/>
+      <c r="M153" s="20"/>
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
@@ -7301,18 +7351,18 @@
     </row>
     <row r="154" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
-      <c r="J154" s="1"/>
-      <c r="K154" s="1"/>
-      <c r="L154" s="1"/>
-      <c r="M154" s="1"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="20"/>
+      <c r="K154" s="20"/>
+      <c r="L154" s="20"/>
+      <c r="M154" s="20"/>
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
@@ -7345,18 +7395,18 @@
     </row>
     <row r="155" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
-      <c r="K155" s="1"/>
-      <c r="L155" s="1"/>
-      <c r="M155" s="1"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="20"/>
+      <c r="K155" s="20"/>
+      <c r="L155" s="20"/>
+      <c r="M155" s="20"/>
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
@@ -7389,18 +7439,18 @@
     </row>
     <row r="156" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
-      <c r="K156" s="1"/>
-      <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="20"/>
+      <c r="K156" s="20"/>
+      <c r="L156" s="20"/>
+      <c r="M156" s="20"/>
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
@@ -7433,18 +7483,18 @@
     </row>
     <row r="157" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+      <c r="J157" s="20"/>
+      <c r="K157" s="20"/>
+      <c r="L157" s="20"/>
+      <c r="M157" s="20"/>
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
@@ -7477,18 +7527,18 @@
     </row>
     <row r="158" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
-      <c r="K158" s="1"/>
-      <c r="L158" s="1"/>
-      <c r="M158" s="1"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="20"/>
+      <c r="H158" s="20"/>
+      <c r="I158" s="20"/>
+      <c r="J158" s="20"/>
+      <c r="K158" s="20"/>
+      <c r="L158" s="20"/>
+      <c r="M158" s="20"/>
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
@@ -7521,18 +7571,18 @@
     </row>
     <row r="159" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
-      <c r="M159" s="1"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="20"/>
+      <c r="E159" s="20"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="20"/>
+      <c r="H159" s="20"/>
+      <c r="I159" s="20"/>
+      <c r="J159" s="20"/>
+      <c r="K159" s="20"/>
+      <c r="L159" s="20"/>
+      <c r="M159" s="20"/>
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
@@ -7565,18 +7615,18 @@
     </row>
     <row r="160" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="20"/>
+      <c r="H160" s="20"/>
+      <c r="I160" s="20"/>
+      <c r="J160" s="20"/>
+      <c r="K160" s="20"/>
+      <c r="L160" s="20"/>
+      <c r="M160" s="20"/>
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
@@ -7609,18 +7659,18 @@
     </row>
     <row r="161" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
-      <c r="K161" s="1"/>
-      <c r="L161" s="1"/>
-      <c r="M161" s="1"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="20"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="20"/>
+      <c r="H161" s="20"/>
+      <c r="I161" s="20"/>
+      <c r="J161" s="20"/>
+      <c r="K161" s="20"/>
+      <c r="L161" s="20"/>
+      <c r="M161" s="20"/>
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
@@ -7653,18 +7703,18 @@
     </row>
     <row r="162" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
-      <c r="K162" s="1"/>
-      <c r="L162" s="1"/>
-      <c r="M162" s="1"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="20"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="20"/>
+      <c r="H162" s="20"/>
+      <c r="I162" s="20"/>
+      <c r="J162" s="20"/>
+      <c r="K162" s="20"/>
+      <c r="L162" s="20"/>
+      <c r="M162" s="20"/>
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
@@ -7697,18 +7747,18 @@
     </row>
     <row r="163" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
-      <c r="K163" s="1"/>
-      <c r="L163" s="1"/>
-      <c r="M163" s="1"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="20"/>
+      <c r="K163" s="20"/>
+      <c r="L163" s="20"/>
+      <c r="M163" s="20"/>
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
@@ -7741,18 +7791,18 @@
     </row>
     <row r="164" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
-      <c r="K164" s="1"/>
-      <c r="L164" s="1"/>
-      <c r="M164" s="1"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="20"/>
+      <c r="K164" s="20"/>
+      <c r="L164" s="20"/>
+      <c r="M164" s="20"/>
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
@@ -7785,18 +7835,18 @@
     </row>
     <row r="165" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
-      <c r="J165" s="1"/>
-      <c r="K165" s="1"/>
-      <c r="L165" s="1"/>
-      <c r="M165" s="1"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="20"/>
+      <c r="D165" s="20"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="20"/>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+      <c r="J165" s="20"/>
+      <c r="K165" s="20"/>
+      <c r="L165" s="20"/>
+      <c r="M165" s="20"/>
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
@@ -7829,18 +7879,18 @@
     </row>
     <row r="166" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
-      <c r="K166" s="1"/>
-      <c r="L166" s="1"/>
-      <c r="M166" s="1"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="20"/>
+      <c r="D166" s="20"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="20"/>
+      <c r="H166" s="20"/>
+      <c r="I166" s="20"/>
+      <c r="J166" s="20"/>
+      <c r="K166" s="20"/>
+      <c r="L166" s="20"/>
+      <c r="M166" s="20"/>
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
@@ -7873,18 +7923,18 @@
     </row>
     <row r="167" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
-      <c r="K167" s="1"/>
-      <c r="L167" s="1"/>
-      <c r="M167" s="1"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="20"/>
+      <c r="H167" s="20"/>
+      <c r="I167" s="20"/>
+      <c r="J167" s="20"/>
+      <c r="K167" s="20"/>
+      <c r="L167" s="20"/>
+      <c r="M167" s="20"/>
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
@@ -7917,18 +7967,18 @@
     </row>
     <row r="168" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
-      <c r="K168" s="1"/>
-      <c r="L168" s="1"/>
-      <c r="M168" s="1"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="20"/>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
+      <c r="J168" s="20"/>
+      <c r="K168" s="20"/>
+      <c r="L168" s="20"/>
+      <c r="M168" s="20"/>
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
@@ -7961,18 +8011,18 @@
     </row>
     <row r="169" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
-      <c r="K169" s="1"/>
-      <c r="L169" s="1"/>
-      <c r="M169" s="1"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="20"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="20"/>
+      <c r="H169" s="20"/>
+      <c r="I169" s="20"/>
+      <c r="J169" s="20"/>
+      <c r="K169" s="20"/>
+      <c r="L169" s="20"/>
+      <c r="M169" s="20"/>
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
@@ -8005,18 +8055,18 @@
     </row>
     <row r="170" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
-      <c r="K170" s="1"/>
-      <c r="L170" s="1"/>
-      <c r="M170" s="1"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="20"/>
+      <c r="H170" s="20"/>
+      <c r="I170" s="20"/>
+      <c r="J170" s="20"/>
+      <c r="K170" s="20"/>
+      <c r="L170" s="20"/>
+      <c r="M170" s="20"/>
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
@@ -8049,18 +8099,18 @@
     </row>
     <row r="171" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
-      <c r="J171" s="1"/>
-      <c r="K171" s="1"/>
-      <c r="L171" s="1"/>
-      <c r="M171" s="1"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="20"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="20"/>
+      <c r="H171" s="20"/>
+      <c r="I171" s="20"/>
+      <c r="J171" s="20"/>
+      <c r="K171" s="20"/>
+      <c r="L171" s="20"/>
+      <c r="M171" s="20"/>
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
@@ -8093,18 +8143,18 @@
     </row>
     <row r="172" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
-      <c r="K172" s="1"/>
-      <c r="L172" s="1"/>
-      <c r="M172" s="1"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="20"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="20"/>
+      <c r="H172" s="20"/>
+      <c r="I172" s="20"/>
+      <c r="J172" s="20"/>
+      <c r="K172" s="20"/>
+      <c r="L172" s="20"/>
+      <c r="M172" s="20"/>
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
@@ -8137,18 +8187,18 @@
     </row>
     <row r="173" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
-      <c r="K173" s="1"/>
-      <c r="L173" s="1"/>
-      <c r="M173" s="1"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="20"/>
+      <c r="H173" s="20"/>
+      <c r="I173" s="20"/>
+      <c r="J173" s="20"/>
+      <c r="K173" s="20"/>
+      <c r="L173" s="20"/>
+      <c r="M173" s="20"/>
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
@@ -8181,18 +8231,18 @@
     </row>
     <row r="174" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
-      <c r="K174" s="1"/>
-      <c r="L174" s="1"/>
-      <c r="M174" s="1"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="20"/>
+      <c r="E174" s="20"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="20"/>
+      <c r="H174" s="20"/>
+      <c r="I174" s="20"/>
+      <c r="J174" s="20"/>
+      <c r="K174" s="20"/>
+      <c r="L174" s="20"/>
+      <c r="M174" s="20"/>
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
@@ -8225,18 +8275,18 @@
     </row>
     <row r="175" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
-      <c r="K175" s="1"/>
-      <c r="L175" s="1"/>
-      <c r="M175" s="1"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="20"/>
+      <c r="E175" s="20"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="20"/>
+      <c r="H175" s="20"/>
+      <c r="I175" s="20"/>
+      <c r="J175" s="20"/>
+      <c r="K175" s="20"/>
+      <c r="L175" s="20"/>
+      <c r="M175" s="20"/>
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
@@ -8269,18 +8319,18 @@
     </row>
     <row r="176" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
-      <c r="K176" s="1"/>
-      <c r="L176" s="1"/>
-      <c r="M176" s="1"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="20"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="20"/>
+      <c r="H176" s="20"/>
+      <c r="I176" s="20"/>
+      <c r="J176" s="20"/>
+      <c r="K176" s="20"/>
+      <c r="L176" s="20"/>
+      <c r="M176" s="20"/>
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
@@ -8313,18 +8363,18 @@
     </row>
     <row r="177" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-      <c r="K177" s="1"/>
-      <c r="L177" s="1"/>
-      <c r="M177" s="1"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="20"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="20"/>
+      <c r="H177" s="20"/>
+      <c r="I177" s="20"/>
+      <c r="J177" s="20"/>
+      <c r="K177" s="20"/>
+      <c r="L177" s="20"/>
+      <c r="M177" s="20"/>
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
@@ -8357,18 +8407,18 @@
     </row>
     <row r="178" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-      <c r="K178" s="1"/>
-      <c r="L178" s="1"/>
-      <c r="M178" s="1"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="20"/>
+      <c r="D178" s="20"/>
+      <c r="E178" s="20"/>
+      <c r="F178" s="20"/>
+      <c r="G178" s="20"/>
+      <c r="H178" s="20"/>
+      <c r="I178" s="20"/>
+      <c r="J178" s="20"/>
+      <c r="K178" s="20"/>
+      <c r="L178" s="20"/>
+      <c r="M178" s="20"/>
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
@@ -8401,18 +8451,18 @@
     </row>
     <row r="179" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="1"/>
-      <c r="M179" s="1"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="20"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="20"/>
+      <c r="H179" s="20"/>
+      <c r="I179" s="20"/>
+      <c r="J179" s="20"/>
+      <c r="K179" s="20"/>
+      <c r="L179" s="20"/>
+      <c r="M179" s="20"/>
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
@@ -8445,18 +8495,18 @@
     </row>
     <row r="180" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="1"/>
-      <c r="M180" s="1"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="20"/>
+      <c r="H180" s="20"/>
+      <c r="I180" s="20"/>
+      <c r="J180" s="20"/>
+      <c r="K180" s="20"/>
+      <c r="L180" s="20"/>
+      <c r="M180" s="20"/>
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
@@ -8489,18 +8539,18 @@
     </row>
     <row r="181" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
-      <c r="L181" s="1"/>
-      <c r="M181" s="1"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="20"/>
+      <c r="H181" s="20"/>
+      <c r="I181" s="20"/>
+      <c r="J181" s="20"/>
+      <c r="K181" s="20"/>
+      <c r="L181" s="20"/>
+      <c r="M181" s="20"/>
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
@@ -8533,18 +8583,18 @@
     </row>
     <row r="182" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
-      <c r="K182" s="1"/>
-      <c r="L182" s="1"/>
-      <c r="M182" s="1"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="20"/>
+      <c r="D182" s="20"/>
+      <c r="E182" s="20"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="20"/>
+      <c r="H182" s="20"/>
+      <c r="I182" s="20"/>
+      <c r="J182" s="20"/>
+      <c r="K182" s="20"/>
+      <c r="L182" s="20"/>
+      <c r="M182" s="20"/>
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
@@ -8577,18 +8627,18 @@
     </row>
     <row r="183" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
-      <c r="K183" s="1"/>
-      <c r="L183" s="1"/>
-      <c r="M183" s="1"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="20"/>
+      <c r="E183" s="20"/>
+      <c r="F183" s="20"/>
+      <c r="G183" s="20"/>
+      <c r="H183" s="20"/>
+      <c r="I183" s="20"/>
+      <c r="J183" s="20"/>
+      <c r="K183" s="20"/>
+      <c r="L183" s="20"/>
+      <c r="M183" s="20"/>
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
@@ -8621,18 +8671,18 @@
     </row>
     <row r="184" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
-      <c r="K184" s="1"/>
-      <c r="L184" s="1"/>
-      <c r="M184" s="1"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="20"/>
+      <c r="H184" s="20"/>
+      <c r="I184" s="20"/>
+      <c r="J184" s="20"/>
+      <c r="K184" s="20"/>
+      <c r="L184" s="20"/>
+      <c r="M184" s="20"/>
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
@@ -8665,18 +8715,18 @@
     </row>
     <row r="185" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
-      <c r="K185" s="1"/>
-      <c r="L185" s="1"/>
-      <c r="M185" s="1"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="20"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="20"/>
+      <c r="H185" s="20"/>
+      <c r="I185" s="20"/>
+      <c r="J185" s="20"/>
+      <c r="K185" s="20"/>
+      <c r="L185" s="20"/>
+      <c r="M185" s="20"/>
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
@@ -8709,18 +8759,18 @@
     </row>
     <row r="186" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
-      <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
-      <c r="K186" s="1"/>
-      <c r="L186" s="1"/>
-      <c r="M186" s="1"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
+      <c r="D186" s="20"/>
+      <c r="E186" s="20"/>
+      <c r="F186" s="20"/>
+      <c r="G186" s="20"/>
+      <c r="H186" s="20"/>
+      <c r="I186" s="20"/>
+      <c r="J186" s="20"/>
+      <c r="K186" s="20"/>
+      <c r="L186" s="20"/>
+      <c r="M186" s="20"/>
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
@@ -8753,18 +8803,18 @@
     </row>
     <row r="187" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
-      <c r="K187" s="1"/>
-      <c r="L187" s="1"/>
-      <c r="M187" s="1"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="20"/>
+      <c r="E187" s="20"/>
+      <c r="F187" s="20"/>
+      <c r="G187" s="20"/>
+      <c r="H187" s="20"/>
+      <c r="I187" s="20"/>
+      <c r="J187" s="20"/>
+      <c r="K187" s="20"/>
+      <c r="L187" s="20"/>
+      <c r="M187" s="20"/>
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
@@ -8797,18 +8847,18 @@
     </row>
     <row r="188" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
-      <c r="H188" s="1"/>
-      <c r="I188" s="1"/>
-      <c r="J188" s="1"/>
-      <c r="K188" s="1"/>
-      <c r="L188" s="1"/>
-      <c r="M188" s="1"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="20"/>
+      <c r="D188" s="20"/>
+      <c r="E188" s="20"/>
+      <c r="F188" s="20"/>
+      <c r="G188" s="20"/>
+      <c r="H188" s="20"/>
+      <c r="I188" s="20"/>
+      <c r="J188" s="20"/>
+      <c r="K188" s="20"/>
+      <c r="L188" s="20"/>
+      <c r="M188" s="20"/>
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
@@ -8841,18 +8891,18 @@
     </row>
     <row r="189" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="1"/>
-      <c r="K189" s="1"/>
-      <c r="L189" s="1"/>
-      <c r="M189" s="1"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="20"/>
+      <c r="D189" s="20"/>
+      <c r="E189" s="20"/>
+      <c r="F189" s="20"/>
+      <c r="G189" s="20"/>
+      <c r="H189" s="20"/>
+      <c r="I189" s="20"/>
+      <c r="J189" s="20"/>
+      <c r="K189" s="20"/>
+      <c r="L189" s="20"/>
+      <c r="M189" s="20"/>
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
@@ -8885,18 +8935,18 @@
     </row>
     <row r="190" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
-      <c r="H190" s="1"/>
-      <c r="I190" s="1"/>
-      <c r="J190" s="1"/>
-      <c r="K190" s="1"/>
-      <c r="L190" s="1"/>
-      <c r="M190" s="1"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="20"/>
+      <c r="D190" s="20"/>
+      <c r="E190" s="20"/>
+      <c r="F190" s="20"/>
+      <c r="G190" s="20"/>
+      <c r="H190" s="20"/>
+      <c r="I190" s="20"/>
+      <c r="J190" s="20"/>
+      <c r="K190" s="20"/>
+      <c r="L190" s="20"/>
+      <c r="M190" s="20"/>
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
@@ -8929,18 +8979,18 @@
     </row>
     <row r="191" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
-      <c r="H191" s="1"/>
-      <c r="I191" s="1"/>
-      <c r="J191" s="1"/>
-      <c r="K191" s="1"/>
-      <c r="L191" s="1"/>
-      <c r="M191" s="1"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="20"/>
+      <c r="D191" s="20"/>
+      <c r="E191" s="20"/>
+      <c r="F191" s="20"/>
+      <c r="G191" s="20"/>
+      <c r="H191" s="20"/>
+      <c r="I191" s="20"/>
+      <c r="J191" s="20"/>
+      <c r="K191" s="20"/>
+      <c r="L191" s="20"/>
+      <c r="M191" s="20"/>
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
@@ -8973,18 +9023,18 @@
     </row>
     <row r="192" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
-      <c r="H192" s="1"/>
-      <c r="I192" s="1"/>
-      <c r="J192" s="1"/>
-      <c r="K192" s="1"/>
-      <c r="L192" s="1"/>
-      <c r="M192" s="1"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="20"/>
+      <c r="D192" s="20"/>
+      <c r="E192" s="20"/>
+      <c r="F192" s="20"/>
+      <c r="G192" s="20"/>
+      <c r="H192" s="20"/>
+      <c r="I192" s="20"/>
+      <c r="J192" s="20"/>
+      <c r="K192" s="20"/>
+      <c r="L192" s="20"/>
+      <c r="M192" s="20"/>
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
@@ -9017,18 +9067,18 @@
     </row>
     <row r="193" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
-      <c r="H193" s="1"/>
-      <c r="I193" s="1"/>
-      <c r="J193" s="1"/>
-      <c r="K193" s="1"/>
-      <c r="L193" s="1"/>
-      <c r="M193" s="1"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="20"/>
+      <c r="E193" s="20"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="20"/>
+      <c r="H193" s="20"/>
+      <c r="I193" s="20"/>
+      <c r="J193" s="20"/>
+      <c r="K193" s="20"/>
+      <c r="L193" s="20"/>
+      <c r="M193" s="20"/>
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
@@ -9061,18 +9111,18 @@
     </row>
     <row r="194" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
-      <c r="H194" s="1"/>
-      <c r="I194" s="1"/>
-      <c r="J194" s="1"/>
-      <c r="K194" s="1"/>
-      <c r="L194" s="1"/>
-      <c r="M194" s="1"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="20"/>
+      <c r="D194" s="20"/>
+      <c r="E194" s="20"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="20"/>
+      <c r="H194" s="20"/>
+      <c r="I194" s="20"/>
+      <c r="J194" s="20"/>
+      <c r="K194" s="20"/>
+      <c r="L194" s="20"/>
+      <c r="M194" s="20"/>
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
       <c r="P194" s="1"/>
@@ -9105,18 +9155,18 @@
     </row>
     <row r="195" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
-      <c r="H195" s="1"/>
-      <c r="I195" s="1"/>
-      <c r="J195" s="1"/>
-      <c r="K195" s="1"/>
-      <c r="L195" s="1"/>
-      <c r="M195" s="1"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="20"/>
+      <c r="D195" s="20"/>
+      <c r="E195" s="20"/>
+      <c r="F195" s="20"/>
+      <c r="G195" s="20"/>
+      <c r="H195" s="20"/>
+      <c r="I195" s="20"/>
+      <c r="J195" s="20"/>
+      <c r="K195" s="20"/>
+      <c r="L195" s="20"/>
+      <c r="M195" s="20"/>
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
       <c r="P195" s="1"/>
@@ -9149,18 +9199,18 @@
     </row>
     <row r="196" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
-      <c r="H196" s="1"/>
-      <c r="I196" s="1"/>
-      <c r="J196" s="1"/>
-      <c r="K196" s="1"/>
-      <c r="L196" s="1"/>
-      <c r="M196" s="1"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="20"/>
+      <c r="D196" s="20"/>
+      <c r="E196" s="20"/>
+      <c r="F196" s="20"/>
+      <c r="G196" s="20"/>
+      <c r="H196" s="20"/>
+      <c r="I196" s="20"/>
+      <c r="J196" s="20"/>
+      <c r="K196" s="20"/>
+      <c r="L196" s="20"/>
+      <c r="M196" s="20"/>
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
@@ -9193,18 +9243,18 @@
     </row>
     <row r="197" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
-      <c r="J197" s="1"/>
-      <c r="K197" s="1"/>
-      <c r="L197" s="1"/>
-      <c r="M197" s="1"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="20"/>
+      <c r="D197" s="20"/>
+      <c r="E197" s="20"/>
+      <c r="F197" s="20"/>
+      <c r="G197" s="20"/>
+      <c r="H197" s="20"/>
+      <c r="I197" s="20"/>
+      <c r="J197" s="20"/>
+      <c r="K197" s="20"/>
+      <c r="L197" s="20"/>
+      <c r="M197" s="20"/>
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
@@ -9237,18 +9287,18 @@
     </row>
     <row r="198" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
-      <c r="H198" s="1"/>
-      <c r="I198" s="1"/>
-      <c r="J198" s="1"/>
-      <c r="K198" s="1"/>
-      <c r="L198" s="1"/>
-      <c r="M198" s="1"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="20"/>
+      <c r="E198" s="20"/>
+      <c r="F198" s="20"/>
+      <c r="G198" s="20"/>
+      <c r="H198" s="20"/>
+      <c r="I198" s="20"/>
+      <c r="J198" s="20"/>
+      <c r="K198" s="20"/>
+      <c r="L198" s="20"/>
+      <c r="M198" s="20"/>
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
@@ -9281,18 +9331,18 @@
     </row>
     <row r="199" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
-      <c r="K199" s="1"/>
-      <c r="L199" s="1"/>
-      <c r="M199" s="1"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="20"/>
+      <c r="D199" s="20"/>
+      <c r="E199" s="20"/>
+      <c r="F199" s="20"/>
+      <c r="G199" s="20"/>
+      <c r="H199" s="20"/>
+      <c r="I199" s="20"/>
+      <c r="J199" s="20"/>
+      <c r="K199" s="20"/>
+      <c r="L199" s="20"/>
+      <c r="M199" s="20"/>
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
@@ -9325,18 +9375,18 @@
     </row>
     <row r="200" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
-      <c r="J200" s="1"/>
-      <c r="K200" s="1"/>
-      <c r="L200" s="1"/>
-      <c r="M200" s="1"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="20"/>
+      <c r="D200" s="20"/>
+      <c r="E200" s="20"/>
+      <c r="F200" s="20"/>
+      <c r="G200" s="20"/>
+      <c r="H200" s="20"/>
+      <c r="I200" s="20"/>
+      <c r="J200" s="20"/>
+      <c r="K200" s="20"/>
+      <c r="L200" s="20"/>
+      <c r="M200" s="20"/>
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
@@ -9369,18 +9419,18 @@
     </row>
     <row r="201" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
-      <c r="I201" s="1"/>
-      <c r="J201" s="1"/>
-      <c r="K201" s="1"/>
-      <c r="L201" s="1"/>
-      <c r="M201" s="1"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="20"/>
+      <c r="D201" s="20"/>
+      <c r="E201" s="20"/>
+      <c r="F201" s="20"/>
+      <c r="G201" s="20"/>
+      <c r="H201" s="20"/>
+      <c r="I201" s="20"/>
+      <c r="J201" s="20"/>
+      <c r="K201" s="20"/>
+      <c r="L201" s="20"/>
+      <c r="M201" s="20"/>
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
@@ -9413,18 +9463,18 @@
     </row>
     <row r="202" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-      <c r="G202" s="1"/>
-      <c r="H202" s="1"/>
-      <c r="I202" s="1"/>
-      <c r="J202" s="1"/>
-      <c r="K202" s="1"/>
-      <c r="L202" s="1"/>
-      <c r="M202" s="1"/>
+      <c r="B202" s="20"/>
+      <c r="C202" s="20"/>
+      <c r="D202" s="20"/>
+      <c r="E202" s="20"/>
+      <c r="F202" s="20"/>
+      <c r="G202" s="20"/>
+      <c r="H202" s="20"/>
+      <c r="I202" s="20"/>
+      <c r="J202" s="20"/>
+      <c r="K202" s="20"/>
+      <c r="L202" s="20"/>
+      <c r="M202" s="20"/>
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
@@ -9457,18 +9507,18 @@
     </row>
     <row r="203" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
-      <c r="H203" s="1"/>
-      <c r="I203" s="1"/>
-      <c r="J203" s="1"/>
-      <c r="K203" s="1"/>
-      <c r="L203" s="1"/>
-      <c r="M203" s="1"/>
+      <c r="B203" s="20"/>
+      <c r="C203" s="20"/>
+      <c r="D203" s="20"/>
+      <c r="E203" s="20"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="20"/>
+      <c r="H203" s="20"/>
+      <c r="I203" s="20"/>
+      <c r="J203" s="20"/>
+      <c r="K203" s="20"/>
+      <c r="L203" s="20"/>
+      <c r="M203" s="20"/>
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
@@ -9501,18 +9551,18 @@
     </row>
     <row r="204" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
-      <c r="H204" s="1"/>
-      <c r="I204" s="1"/>
-      <c r="J204" s="1"/>
-      <c r="K204" s="1"/>
-      <c r="L204" s="1"/>
-      <c r="M204" s="1"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="20"/>
+      <c r="D204" s="20"/>
+      <c r="E204" s="20"/>
+      <c r="F204" s="20"/>
+      <c r="G204" s="20"/>
+      <c r="H204" s="20"/>
+      <c r="I204" s="20"/>
+      <c r="J204" s="20"/>
+      <c r="K204" s="20"/>
+      <c r="L204" s="20"/>
+      <c r="M204" s="20"/>
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
       <c r="P204" s="1"/>
@@ -9545,18 +9595,18 @@
     </row>
     <row r="205" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
-      <c r="G205" s="1"/>
-      <c r="H205" s="1"/>
-      <c r="I205" s="1"/>
-      <c r="J205" s="1"/>
-      <c r="K205" s="1"/>
-      <c r="L205" s="1"/>
-      <c r="M205" s="1"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="20"/>
+      <c r="D205" s="20"/>
+      <c r="E205" s="20"/>
+      <c r="F205" s="20"/>
+      <c r="G205" s="20"/>
+      <c r="H205" s="20"/>
+      <c r="I205" s="20"/>
+      <c r="J205" s="20"/>
+      <c r="K205" s="20"/>
+      <c r="L205" s="20"/>
+      <c r="M205" s="20"/>
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
@@ -9589,18 +9639,18 @@
     </row>
     <row r="206" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-      <c r="C206" s="1"/>
-      <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
-      <c r="G206" s="1"/>
-      <c r="H206" s="1"/>
-      <c r="I206" s="1"/>
-      <c r="J206" s="1"/>
-      <c r="K206" s="1"/>
-      <c r="L206" s="1"/>
-      <c r="M206" s="1"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="20"/>
+      <c r="D206" s="20"/>
+      <c r="E206" s="20"/>
+      <c r="F206" s="20"/>
+      <c r="G206" s="20"/>
+      <c r="H206" s="20"/>
+      <c r="I206" s="20"/>
+      <c r="J206" s="20"/>
+      <c r="K206" s="20"/>
+      <c r="L206" s="20"/>
+      <c r="M206" s="20"/>
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
@@ -9633,18 +9683,18 @@
     </row>
     <row r="207" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
-      <c r="H207" s="1"/>
-      <c r="I207" s="1"/>
-      <c r="J207" s="1"/>
-      <c r="K207" s="1"/>
-      <c r="L207" s="1"/>
-      <c r="M207" s="1"/>
+      <c r="B207" s="20"/>
+      <c r="C207" s="20"/>
+      <c r="D207" s="20"/>
+      <c r="E207" s="20"/>
+      <c r="F207" s="20"/>
+      <c r="G207" s="20"/>
+      <c r="H207" s="20"/>
+      <c r="I207" s="20"/>
+      <c r="J207" s="20"/>
+      <c r="K207" s="20"/>
+      <c r="L207" s="20"/>
+      <c r="M207" s="20"/>
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
@@ -9677,18 +9727,18 @@
     </row>
     <row r="208" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
-      <c r="I208" s="1"/>
-      <c r="J208" s="1"/>
-      <c r="K208" s="1"/>
-      <c r="L208" s="1"/>
-      <c r="M208" s="1"/>
+      <c r="B208" s="20"/>
+      <c r="C208" s="20"/>
+      <c r="D208" s="20"/>
+      <c r="E208" s="20"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="20"/>
+      <c r="H208" s="20"/>
+      <c r="I208" s="20"/>
+      <c r="J208" s="20"/>
+      <c r="K208" s="20"/>
+      <c r="L208" s="20"/>
+      <c r="M208" s="20"/>
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
       <c r="P208" s="1"/>
@@ -9721,18 +9771,18 @@
     </row>
     <row r="209" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
-      <c r="I209" s="1"/>
-      <c r="J209" s="1"/>
-      <c r="K209" s="1"/>
-      <c r="L209" s="1"/>
-      <c r="M209" s="1"/>
+      <c r="B209" s="20"/>
+      <c r="C209" s="20"/>
+      <c r="D209" s="20"/>
+      <c r="E209" s="20"/>
+      <c r="F209" s="20"/>
+      <c r="G209" s="20"/>
+      <c r="H209" s="20"/>
+      <c r="I209" s="20"/>
+      <c r="J209" s="20"/>
+      <c r="K209" s="20"/>
+      <c r="L209" s="20"/>
+      <c r="M209" s="20"/>
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
@@ -9765,18 +9815,18 @@
     </row>
     <row r="210" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
-      <c r="I210" s="1"/>
-      <c r="J210" s="1"/>
-      <c r="K210" s="1"/>
-      <c r="L210" s="1"/>
-      <c r="M210" s="1"/>
+      <c r="B210" s="20"/>
+      <c r="C210" s="20"/>
+      <c r="D210" s="20"/>
+      <c r="E210" s="20"/>
+      <c r="F210" s="20"/>
+      <c r="G210" s="20"/>
+      <c r="H210" s="20"/>
+      <c r="I210" s="20"/>
+      <c r="J210" s="20"/>
+      <c r="K210" s="20"/>
+      <c r="L210" s="20"/>
+      <c r="M210" s="20"/>
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
@@ -9809,18 +9859,18 @@
     </row>
     <row r="211" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-      <c r="G211" s="1"/>
-      <c r="H211" s="1"/>
-      <c r="I211" s="1"/>
-      <c r="J211" s="1"/>
-      <c r="K211" s="1"/>
-      <c r="L211" s="1"/>
-      <c r="M211" s="1"/>
+      <c r="B211" s="20"/>
+      <c r="C211" s="20"/>
+      <c r="D211" s="20"/>
+      <c r="E211" s="20"/>
+      <c r="F211" s="20"/>
+      <c r="G211" s="20"/>
+      <c r="H211" s="20"/>
+      <c r="I211" s="20"/>
+      <c r="J211" s="20"/>
+      <c r="K211" s="20"/>
+      <c r="L211" s="20"/>
+      <c r="M211" s="20"/>
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
       <c r="P211" s="1"/>
@@ -9853,18 +9903,18 @@
     </row>
     <row r="212" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
-      <c r="H212" s="1"/>
-      <c r="I212" s="1"/>
-      <c r="J212" s="1"/>
-      <c r="K212" s="1"/>
-      <c r="L212" s="1"/>
-      <c r="M212" s="1"/>
+      <c r="B212" s="20"/>
+      <c r="C212" s="20"/>
+      <c r="D212" s="20"/>
+      <c r="E212" s="20"/>
+      <c r="F212" s="20"/>
+      <c r="G212" s="20"/>
+      <c r="H212" s="20"/>
+      <c r="I212" s="20"/>
+      <c r="J212" s="20"/>
+      <c r="K212" s="20"/>
+      <c r="L212" s="20"/>
+      <c r="M212" s="20"/>
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
@@ -9897,18 +9947,18 @@
     </row>
     <row r="213" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
-      <c r="I213" s="1"/>
-      <c r="J213" s="1"/>
-      <c r="K213" s="1"/>
-      <c r="L213" s="1"/>
-      <c r="M213" s="1"/>
+      <c r="B213" s="20"/>
+      <c r="C213" s="20"/>
+      <c r="D213" s="20"/>
+      <c r="E213" s="20"/>
+      <c r="F213" s="20"/>
+      <c r="G213" s="20"/>
+      <c r="H213" s="20"/>
+      <c r="I213" s="20"/>
+      <c r="J213" s="20"/>
+      <c r="K213" s="20"/>
+      <c r="L213" s="20"/>
+      <c r="M213" s="20"/>
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
@@ -9941,18 +9991,18 @@
     </row>
     <row r="214" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
-      <c r="I214" s="1"/>
-      <c r="J214" s="1"/>
-      <c r="K214" s="1"/>
-      <c r="L214" s="1"/>
-      <c r="M214" s="1"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
+      <c r="D214" s="20"/>
+      <c r="E214" s="20"/>
+      <c r="F214" s="20"/>
+      <c r="G214" s="20"/>
+      <c r="H214" s="20"/>
+      <c r="I214" s="20"/>
+      <c r="J214" s="20"/>
+      <c r="K214" s="20"/>
+      <c r="L214" s="20"/>
+      <c r="M214" s="20"/>
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
@@ -9985,18 +10035,18 @@
     </row>
     <row r="215" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-      <c r="I215" s="1"/>
-      <c r="J215" s="1"/>
-      <c r="K215" s="1"/>
-      <c r="L215" s="1"/>
-      <c r="M215" s="1"/>
+      <c r="B215" s="20"/>
+      <c r="C215" s="20"/>
+      <c r="D215" s="20"/>
+      <c r="E215" s="20"/>
+      <c r="F215" s="20"/>
+      <c r="G215" s="20"/>
+      <c r="H215" s="20"/>
+      <c r="I215" s="20"/>
+      <c r="J215" s="20"/>
+      <c r="K215" s="20"/>
+      <c r="L215" s="20"/>
+      <c r="M215" s="20"/>
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
@@ -10029,18 +10079,18 @@
     </row>
     <row r="216" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
-      <c r="I216" s="1"/>
-      <c r="J216" s="1"/>
-      <c r="K216" s="1"/>
-      <c r="L216" s="1"/>
-      <c r="M216" s="1"/>
+      <c r="B216" s="20"/>
+      <c r="C216" s="20"/>
+      <c r="D216" s="20"/>
+      <c r="E216" s="20"/>
+      <c r="F216" s="20"/>
+      <c r="G216" s="20"/>
+      <c r="H216" s="20"/>
+      <c r="I216" s="20"/>
+      <c r="J216" s="20"/>
+      <c r="K216" s="20"/>
+      <c r="L216" s="20"/>
+      <c r="M216" s="20"/>
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
       <c r="P216" s="1"/>
@@ -10073,18 +10123,18 @@
     </row>
     <row r="217" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
-      <c r="H217" s="1"/>
-      <c r="I217" s="1"/>
-      <c r="J217" s="1"/>
-      <c r="K217" s="1"/>
-      <c r="L217" s="1"/>
-      <c r="M217" s="1"/>
+      <c r="B217" s="20"/>
+      <c r="C217" s="20"/>
+      <c r="D217" s="20"/>
+      <c r="E217" s="20"/>
+      <c r="F217" s="20"/>
+      <c r="G217" s="20"/>
+      <c r="H217" s="20"/>
+      <c r="I217" s="20"/>
+      <c r="J217" s="20"/>
+      <c r="K217" s="20"/>
+      <c r="L217" s="20"/>
+      <c r="M217" s="20"/>
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
       <c r="P217" s="1"/>
@@ -10117,18 +10167,18 @@
     </row>
     <row r="218" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
-      <c r="H218" s="1"/>
-      <c r="I218" s="1"/>
-      <c r="J218" s="1"/>
-      <c r="K218" s="1"/>
-      <c r="L218" s="1"/>
-      <c r="M218" s="1"/>
+      <c r="B218" s="20"/>
+      <c r="C218" s="20"/>
+      <c r="D218" s="20"/>
+      <c r="E218" s="20"/>
+      <c r="F218" s="20"/>
+      <c r="G218" s="20"/>
+      <c r="H218" s="20"/>
+      <c r="I218" s="20"/>
+      <c r="J218" s="20"/>
+      <c r="K218" s="20"/>
+      <c r="L218" s="20"/>
+      <c r="M218" s="20"/>
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
       <c r="P218" s="1"/>
@@ -10161,18 +10211,18 @@
     </row>
     <row r="219" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
-      <c r="I219" s="1"/>
-      <c r="J219" s="1"/>
-      <c r="K219" s="1"/>
-      <c r="L219" s="1"/>
-      <c r="M219" s="1"/>
+      <c r="B219" s="20"/>
+      <c r="C219" s="20"/>
+      <c r="D219" s="20"/>
+      <c r="E219" s="20"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="20"/>
+      <c r="H219" s="20"/>
+      <c r="I219" s="20"/>
+      <c r="J219" s="20"/>
+      <c r="K219" s="20"/>
+      <c r="L219" s="20"/>
+      <c r="M219" s="20"/>
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
       <c r="P219" s="1"/>
@@ -10205,18 +10255,18 @@
     </row>
     <row r="220" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
-      <c r="I220" s="1"/>
-      <c r="J220" s="1"/>
-      <c r="K220" s="1"/>
-      <c r="L220" s="1"/>
-      <c r="M220" s="1"/>
+      <c r="B220" s="20"/>
+      <c r="C220" s="20"/>
+      <c r="D220" s="20"/>
+      <c r="E220" s="20"/>
+      <c r="F220" s="20"/>
+      <c r="G220" s="20"/>
+      <c r="H220" s="20"/>
+      <c r="I220" s="20"/>
+      <c r="J220" s="20"/>
+      <c r="K220" s="20"/>
+      <c r="L220" s="20"/>
+      <c r="M220" s="20"/>
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
       <c r="P220" s="1"/>
@@ -10249,18 +10299,18 @@
     </row>
     <row r="221" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
-      <c r="H221" s="1"/>
-      <c r="I221" s="1"/>
-      <c r="J221" s="1"/>
-      <c r="K221" s="1"/>
-      <c r="L221" s="1"/>
-      <c r="M221" s="1"/>
+      <c r="B221" s="20"/>
+      <c r="C221" s="20"/>
+      <c r="D221" s="20"/>
+      <c r="E221" s="20"/>
+      <c r="F221" s="20"/>
+      <c r="G221" s="20"/>
+      <c r="H221" s="20"/>
+      <c r="I221" s="20"/>
+      <c r="J221" s="20"/>
+      <c r="K221" s="20"/>
+      <c r="L221" s="20"/>
+      <c r="M221" s="20"/>
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
       <c r="P221" s="1"/>
@@ -10293,18 +10343,18 @@
     </row>
     <row r="222" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
-      <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
-      <c r="G222" s="1"/>
-      <c r="H222" s="1"/>
-      <c r="I222" s="1"/>
-      <c r="J222" s="1"/>
-      <c r="K222" s="1"/>
-      <c r="L222" s="1"/>
-      <c r="M222" s="1"/>
+      <c r="B222" s="20"/>
+      <c r="C222" s="20"/>
+      <c r="D222" s="20"/>
+      <c r="E222" s="20"/>
+      <c r="F222" s="20"/>
+      <c r="G222" s="20"/>
+      <c r="H222" s="20"/>
+      <c r="I222" s="20"/>
+      <c r="J222" s="20"/>
+      <c r="K222" s="20"/>
+      <c r="L222" s="20"/>
+      <c r="M222" s="20"/>
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
       <c r="P222" s="1"/>
@@ -10337,18 +10387,18 @@
     </row>
     <row r="223" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
-      <c r="H223" s="1"/>
-      <c r="I223" s="1"/>
-      <c r="J223" s="1"/>
-      <c r="K223" s="1"/>
-      <c r="L223" s="1"/>
-      <c r="M223" s="1"/>
+      <c r="B223" s="20"/>
+      <c r="C223" s="20"/>
+      <c r="D223" s="20"/>
+      <c r="E223" s="20"/>
+      <c r="F223" s="20"/>
+      <c r="G223" s="20"/>
+      <c r="H223" s="20"/>
+      <c r="I223" s="20"/>
+      <c r="J223" s="20"/>
+      <c r="K223" s="20"/>
+      <c r="L223" s="20"/>
+      <c r="M223" s="20"/>
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
       <c r="P223" s="1"/>
@@ -10381,18 +10431,18 @@
     </row>
     <row r="224" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
-      <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
-      <c r="H224" s="1"/>
-      <c r="I224" s="1"/>
-      <c r="J224" s="1"/>
-      <c r="K224" s="1"/>
-      <c r="L224" s="1"/>
-      <c r="M224" s="1"/>
+      <c r="B224" s="20"/>
+      <c r="C224" s="20"/>
+      <c r="D224" s="20"/>
+      <c r="E224" s="20"/>
+      <c r="F224" s="20"/>
+      <c r="G224" s="20"/>
+      <c r="H224" s="20"/>
+      <c r="I224" s="20"/>
+      <c r="J224" s="20"/>
+      <c r="K224" s="20"/>
+      <c r="L224" s="20"/>
+      <c r="M224" s="20"/>
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
       <c r="P224" s="1"/>
@@ -10425,18 +10475,18 @@
     </row>
     <row r="225" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
-      <c r="H225" s="1"/>
-      <c r="I225" s="1"/>
-      <c r="J225" s="1"/>
-      <c r="K225" s="1"/>
-      <c r="L225" s="1"/>
-      <c r="M225" s="1"/>
+      <c r="B225" s="20"/>
+      <c r="C225" s="20"/>
+      <c r="D225" s="20"/>
+      <c r="E225" s="20"/>
+      <c r="F225" s="20"/>
+      <c r="G225" s="20"/>
+      <c r="H225" s="20"/>
+      <c r="I225" s="20"/>
+      <c r="J225" s="20"/>
+      <c r="K225" s="20"/>
+      <c r="L225" s="20"/>
+      <c r="M225" s="20"/>
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
       <c r="P225" s="1"/>
@@ -10469,18 +10519,18 @@
     </row>
     <row r="226" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
-      <c r="H226" s="1"/>
-      <c r="I226" s="1"/>
-      <c r="J226" s="1"/>
-      <c r="K226" s="1"/>
-      <c r="L226" s="1"/>
-      <c r="M226" s="1"/>
+      <c r="B226" s="20"/>
+      <c r="C226" s="20"/>
+      <c r="D226" s="20"/>
+      <c r="E226" s="20"/>
+      <c r="F226" s="20"/>
+      <c r="G226" s="20"/>
+      <c r="H226" s="20"/>
+      <c r="I226" s="20"/>
+      <c r="J226" s="20"/>
+      <c r="K226" s="20"/>
+      <c r="L226" s="20"/>
+      <c r="M226" s="20"/>
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
       <c r="P226" s="1"/>
@@ -10513,18 +10563,18 @@
     </row>
     <row r="227" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
-      <c r="H227" s="1"/>
-      <c r="I227" s="1"/>
-      <c r="J227" s="1"/>
-      <c r="K227" s="1"/>
-      <c r="L227" s="1"/>
-      <c r="M227" s="1"/>
+      <c r="B227" s="20"/>
+      <c r="C227" s="20"/>
+      <c r="D227" s="20"/>
+      <c r="E227" s="20"/>
+      <c r="F227" s="20"/>
+      <c r="G227" s="20"/>
+      <c r="H227" s="20"/>
+      <c r="I227" s="20"/>
+      <c r="J227" s="20"/>
+      <c r="K227" s="20"/>
+      <c r="L227" s="20"/>
+      <c r="M227" s="20"/>
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
       <c r="P227" s="1"/>
@@ -10557,18 +10607,18 @@
     </row>
     <row r="228" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
-      <c r="H228" s="1"/>
-      <c r="I228" s="1"/>
-      <c r="J228" s="1"/>
-      <c r="K228" s="1"/>
-      <c r="L228" s="1"/>
-      <c r="M228" s="1"/>
+      <c r="B228" s="20"/>
+      <c r="C228" s="20"/>
+      <c r="D228" s="20"/>
+      <c r="E228" s="20"/>
+      <c r="F228" s="20"/>
+      <c r="G228" s="20"/>
+      <c r="H228" s="20"/>
+      <c r="I228" s="20"/>
+      <c r="J228" s="20"/>
+      <c r="K228" s="20"/>
+      <c r="L228" s="20"/>
+      <c r="M228" s="20"/>
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
       <c r="P228" s="1"/>
@@ -10601,18 +10651,18 @@
     </row>
     <row r="229" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
-      <c r="H229" s="1"/>
-      <c r="I229" s="1"/>
-      <c r="J229" s="1"/>
-      <c r="K229" s="1"/>
-      <c r="L229" s="1"/>
-      <c r="M229" s="1"/>
+      <c r="B229" s="20"/>
+      <c r="C229" s="20"/>
+      <c r="D229" s="20"/>
+      <c r="E229" s="20"/>
+      <c r="F229" s="20"/>
+      <c r="G229" s="20"/>
+      <c r="H229" s="20"/>
+      <c r="I229" s="20"/>
+      <c r="J229" s="20"/>
+      <c r="K229" s="20"/>
+      <c r="L229" s="20"/>
+      <c r="M229" s="20"/>
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
       <c r="P229" s="1"/>
@@ -10645,18 +10695,18 @@
     </row>
     <row r="230" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="1"/>
-      <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
-      <c r="H230" s="1"/>
-      <c r="I230" s="1"/>
-      <c r="J230" s="1"/>
-      <c r="K230" s="1"/>
-      <c r="L230" s="1"/>
-      <c r="M230" s="1"/>
+      <c r="B230" s="20"/>
+      <c r="C230" s="20"/>
+      <c r="D230" s="20"/>
+      <c r="E230" s="20"/>
+      <c r="F230" s="20"/>
+      <c r="G230" s="20"/>
+      <c r="H230" s="20"/>
+      <c r="I230" s="20"/>
+      <c r="J230" s="20"/>
+      <c r="K230" s="20"/>
+      <c r="L230" s="20"/>
+      <c r="M230" s="20"/>
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
       <c r="P230" s="1"/>
@@ -10689,18 +10739,18 @@
     </row>
     <row r="231" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
-      <c r="H231" s="1"/>
-      <c r="I231" s="1"/>
-      <c r="J231" s="1"/>
-      <c r="K231" s="1"/>
-      <c r="L231" s="1"/>
-      <c r="M231" s="1"/>
+      <c r="B231" s="20"/>
+      <c r="C231" s="20"/>
+      <c r="D231" s="20"/>
+      <c r="E231" s="20"/>
+      <c r="F231" s="20"/>
+      <c r="G231" s="20"/>
+      <c r="H231" s="20"/>
+      <c r="I231" s="20"/>
+      <c r="J231" s="20"/>
+      <c r="K231" s="20"/>
+      <c r="L231" s="20"/>
+      <c r="M231" s="20"/>
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
       <c r="P231" s="1"/>
@@ -10733,18 +10783,18 @@
     </row>
     <row r="232" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
-      <c r="E232" s="1"/>
-      <c r="F232" s="1"/>
-      <c r="G232" s="1"/>
-      <c r="H232" s="1"/>
-      <c r="I232" s="1"/>
-      <c r="J232" s="1"/>
-      <c r="K232" s="1"/>
-      <c r="L232" s="1"/>
-      <c r="M232" s="1"/>
+      <c r="B232" s="20"/>
+      <c r="C232" s="20"/>
+      <c r="D232" s="20"/>
+      <c r="E232" s="20"/>
+      <c r="F232" s="20"/>
+      <c r="G232" s="20"/>
+      <c r="H232" s="20"/>
+      <c r="I232" s="20"/>
+      <c r="J232" s="20"/>
+      <c r="K232" s="20"/>
+      <c r="L232" s="20"/>
+      <c r="M232" s="20"/>
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
       <c r="P232" s="1"/>
@@ -10777,18 +10827,18 @@
     </row>
     <row r="233" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
-      <c r="E233" s="1"/>
-      <c r="F233" s="1"/>
-      <c r="G233" s="1"/>
-      <c r="H233" s="1"/>
-      <c r="I233" s="1"/>
-      <c r="J233" s="1"/>
-      <c r="K233" s="1"/>
-      <c r="L233" s="1"/>
-      <c r="M233" s="1"/>
+      <c r="B233" s="20"/>
+      <c r="C233" s="20"/>
+      <c r="D233" s="20"/>
+      <c r="E233" s="20"/>
+      <c r="F233" s="20"/>
+      <c r="G233" s="20"/>
+      <c r="H233" s="20"/>
+      <c r="I233" s="20"/>
+      <c r="J233" s="20"/>
+      <c r="K233" s="20"/>
+      <c r="L233" s="20"/>
+      <c r="M233" s="20"/>
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
       <c r="P233" s="1"/>
@@ -10821,18 +10871,18 @@
     </row>
     <row r="234" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
-      <c r="G234" s="1"/>
-      <c r="H234" s="1"/>
-      <c r="I234" s="1"/>
-      <c r="J234" s="1"/>
-      <c r="K234" s="1"/>
-      <c r="L234" s="1"/>
-      <c r="M234" s="1"/>
+      <c r="B234" s="20"/>
+      <c r="C234" s="20"/>
+      <c r="D234" s="20"/>
+      <c r="E234" s="20"/>
+      <c r="F234" s="20"/>
+      <c r="G234" s="20"/>
+      <c r="H234" s="20"/>
+      <c r="I234" s="20"/>
+      <c r="J234" s="20"/>
+      <c r="K234" s="20"/>
+      <c r="L234" s="20"/>
+      <c r="M234" s="20"/>
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
       <c r="P234" s="1"/>
@@ -10865,18 +10915,18 @@
     </row>
     <row r="235" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
-      <c r="E235" s="1"/>
-      <c r="F235" s="1"/>
-      <c r="G235" s="1"/>
-      <c r="H235" s="1"/>
-      <c r="I235" s="1"/>
-      <c r="J235" s="1"/>
-      <c r="K235" s="1"/>
-      <c r="L235" s="1"/>
-      <c r="M235" s="1"/>
+      <c r="B235" s="20"/>
+      <c r="C235" s="20"/>
+      <c r="D235" s="20"/>
+      <c r="E235" s="20"/>
+      <c r="F235" s="20"/>
+      <c r="G235" s="20"/>
+      <c r="H235" s="20"/>
+      <c r="I235" s="20"/>
+      <c r="J235" s="20"/>
+      <c r="K235" s="20"/>
+      <c r="L235" s="20"/>
+      <c r="M235" s="20"/>
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
       <c r="P235" s="1"/>
@@ -10909,18 +10959,18 @@
     </row>
     <row r="236" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
-      <c r="G236" s="1"/>
-      <c r="H236" s="1"/>
-      <c r="I236" s="1"/>
-      <c r="J236" s="1"/>
-      <c r="K236" s="1"/>
-      <c r="L236" s="1"/>
-      <c r="M236" s="1"/>
+      <c r="B236" s="20"/>
+      <c r="C236" s="20"/>
+      <c r="D236" s="20"/>
+      <c r="E236" s="20"/>
+      <c r="F236" s="20"/>
+      <c r="G236" s="20"/>
+      <c r="H236" s="20"/>
+      <c r="I236" s="20"/>
+      <c r="J236" s="20"/>
+      <c r="K236" s="20"/>
+      <c r="L236" s="20"/>
+      <c r="M236" s="20"/>
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
       <c r="P236" s="1"/>
@@ -10953,18 +11003,18 @@
     </row>
     <row r="237" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
-      <c r="G237" s="1"/>
-      <c r="H237" s="1"/>
-      <c r="I237" s="1"/>
-      <c r="J237" s="1"/>
-      <c r="K237" s="1"/>
-      <c r="L237" s="1"/>
-      <c r="M237" s="1"/>
+      <c r="B237" s="20"/>
+      <c r="C237" s="20"/>
+      <c r="D237" s="20"/>
+      <c r="E237" s="20"/>
+      <c r="F237" s="20"/>
+      <c r="G237" s="20"/>
+      <c r="H237" s="20"/>
+      <c r="I237" s="20"/>
+      <c r="J237" s="20"/>
+      <c r="K237" s="20"/>
+      <c r="L237" s="20"/>
+      <c r="M237" s="20"/>
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
       <c r="P237" s="1"/>
@@ -10997,18 +11047,18 @@
     </row>
     <row r="238" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
-      <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
-      <c r="G238" s="1"/>
-      <c r="H238" s="1"/>
-      <c r="I238" s="1"/>
-      <c r="J238" s="1"/>
-      <c r="K238" s="1"/>
-      <c r="L238" s="1"/>
-      <c r="M238" s="1"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
+      <c r="D238" s="20"/>
+      <c r="E238" s="20"/>
+      <c r="F238" s="20"/>
+      <c r="G238" s="20"/>
+      <c r="H238" s="20"/>
+      <c r="I238" s="20"/>
+      <c r="J238" s="20"/>
+      <c r="K238" s="20"/>
+      <c r="L238" s="20"/>
+      <c r="M238" s="20"/>
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
       <c r="P238" s="1"/>
@@ -11041,18 +11091,18 @@
     </row>
     <row r="239" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
-      <c r="D239" s="1"/>
-      <c r="E239" s="1"/>
-      <c r="F239" s="1"/>
-      <c r="G239" s="1"/>
-      <c r="H239" s="1"/>
-      <c r="I239" s="1"/>
-      <c r="J239" s="1"/>
-      <c r="K239" s="1"/>
-      <c r="L239" s="1"/>
-      <c r="M239" s="1"/>
+      <c r="B239" s="20"/>
+      <c r="C239" s="20"/>
+      <c r="D239" s="20"/>
+      <c r="E239" s="20"/>
+      <c r="F239" s="20"/>
+      <c r="G239" s="20"/>
+      <c r="H239" s="20"/>
+      <c r="I239" s="20"/>
+      <c r="J239" s="20"/>
+      <c r="K239" s="20"/>
+      <c r="L239" s="20"/>
+      <c r="M239" s="20"/>
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
       <c r="P239" s="1"/>
@@ -11085,18 +11135,18 @@
     </row>
     <row r="240" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
-      <c r="E240" s="1"/>
-      <c r="F240" s="1"/>
-      <c r="G240" s="1"/>
-      <c r="H240" s="1"/>
-      <c r="I240" s="1"/>
-      <c r="J240" s="1"/>
-      <c r="K240" s="1"/>
-      <c r="L240" s="1"/>
-      <c r="M240" s="1"/>
+      <c r="B240" s="20"/>
+      <c r="C240" s="20"/>
+      <c r="D240" s="20"/>
+      <c r="E240" s="20"/>
+      <c r="F240" s="20"/>
+      <c r="G240" s="20"/>
+      <c r="H240" s="20"/>
+      <c r="I240" s="20"/>
+      <c r="J240" s="20"/>
+      <c r="K240" s="20"/>
+      <c r="L240" s="20"/>
+      <c r="M240" s="20"/>
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
       <c r="P240" s="1"/>
@@ -11129,18 +11179,18 @@
     </row>
     <row r="241" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
-      <c r="E241" s="1"/>
-      <c r="F241" s="1"/>
-      <c r="G241" s="1"/>
-      <c r="H241" s="1"/>
-      <c r="I241" s="1"/>
-      <c r="J241" s="1"/>
-      <c r="K241" s="1"/>
-      <c r="L241" s="1"/>
-      <c r="M241" s="1"/>
+      <c r="B241" s="20"/>
+      <c r="C241" s="20"/>
+      <c r="D241" s="20"/>
+      <c r="E241" s="20"/>
+      <c r="F241" s="20"/>
+      <c r="G241" s="20"/>
+      <c r="H241" s="20"/>
+      <c r="I241" s="20"/>
+      <c r="J241" s="20"/>
+      <c r="K241" s="20"/>
+      <c r="L241" s="20"/>
+      <c r="M241" s="20"/>
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
       <c r="P241" s="1"/>
@@ -11173,18 +11223,18 @@
     </row>
     <row r="242" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
-      <c r="E242" s="1"/>
-      <c r="F242" s="1"/>
-      <c r="G242" s="1"/>
-      <c r="H242" s="1"/>
-      <c r="I242" s="1"/>
-      <c r="J242" s="1"/>
-      <c r="K242" s="1"/>
-      <c r="L242" s="1"/>
-      <c r="M242" s="1"/>
+      <c r="B242" s="20"/>
+      <c r="C242" s="20"/>
+      <c r="D242" s="20"/>
+      <c r="E242" s="20"/>
+      <c r="F242" s="20"/>
+      <c r="G242" s="20"/>
+      <c r="H242" s="20"/>
+      <c r="I242" s="20"/>
+      <c r="J242" s="20"/>
+      <c r="K242" s="20"/>
+      <c r="L242" s="20"/>
+      <c r="M242" s="20"/>
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
       <c r="P242" s="1"/>
@@ -11217,18 +11267,18 @@
     </row>
     <row r="243" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
-      <c r="E243" s="1"/>
-      <c r="F243" s="1"/>
-      <c r="G243" s="1"/>
-      <c r="H243" s="1"/>
-      <c r="I243" s="1"/>
-      <c r="J243" s="1"/>
-      <c r="K243" s="1"/>
-      <c r="L243" s="1"/>
-      <c r="M243" s="1"/>
+      <c r="B243" s="20"/>
+      <c r="C243" s="20"/>
+      <c r="D243" s="20"/>
+      <c r="E243" s="20"/>
+      <c r="F243" s="20"/>
+      <c r="G243" s="20"/>
+      <c r="H243" s="20"/>
+      <c r="I243" s="20"/>
+      <c r="J243" s="20"/>
+      <c r="K243" s="20"/>
+      <c r="L243" s="20"/>
+      <c r="M243" s="20"/>
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
       <c r="P243" s="1"/>
@@ -11261,18 +11311,18 @@
     </row>
     <row r="244" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
-      <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
-      <c r="E244" s="1"/>
-      <c r="F244" s="1"/>
-      <c r="G244" s="1"/>
-      <c r="H244" s="1"/>
-      <c r="I244" s="1"/>
-      <c r="J244" s="1"/>
-      <c r="K244" s="1"/>
-      <c r="L244" s="1"/>
-      <c r="M244" s="1"/>
+      <c r="B244" s="20"/>
+      <c r="C244" s="20"/>
+      <c r="D244" s="20"/>
+      <c r="E244" s="20"/>
+      <c r="F244" s="20"/>
+      <c r="G244" s="20"/>
+      <c r="H244" s="20"/>
+      <c r="I244" s="20"/>
+      <c r="J244" s="20"/>
+      <c r="K244" s="20"/>
+      <c r="L244" s="20"/>
+      <c r="M244" s="20"/>
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
       <c r="P244" s="1"/>
@@ -11305,18 +11355,18 @@
     </row>
     <row r="245" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
-      <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
-      <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
-      <c r="G245" s="1"/>
-      <c r="H245" s="1"/>
-      <c r="I245" s="1"/>
-      <c r="J245" s="1"/>
-      <c r="K245" s="1"/>
-      <c r="L245" s="1"/>
-      <c r="M245" s="1"/>
+      <c r="B245" s="20"/>
+      <c r="C245" s="20"/>
+      <c r="D245" s="20"/>
+      <c r="E245" s="20"/>
+      <c r="F245" s="20"/>
+      <c r="G245" s="20"/>
+      <c r="H245" s="20"/>
+      <c r="I245" s="20"/>
+      <c r="J245" s="20"/>
+      <c r="K245" s="20"/>
+      <c r="L245" s="20"/>
+      <c r="M245" s="20"/>
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
       <c r="P245" s="1"/>
@@ -11349,18 +11399,18 @@
     </row>
     <row r="246" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
-      <c r="C246" s="1"/>
-      <c r="D246" s="1"/>
-      <c r="E246" s="1"/>
-      <c r="F246" s="1"/>
-      <c r="G246" s="1"/>
-      <c r="H246" s="1"/>
-      <c r="I246" s="1"/>
-      <c r="J246" s="1"/>
-      <c r="K246" s="1"/>
-      <c r="L246" s="1"/>
-      <c r="M246" s="1"/>
+      <c r="B246" s="20"/>
+      <c r="C246" s="20"/>
+      <c r="D246" s="20"/>
+      <c r="E246" s="20"/>
+      <c r="F246" s="20"/>
+      <c r="G246" s="20"/>
+      <c r="H246" s="20"/>
+      <c r="I246" s="20"/>
+      <c r="J246" s="20"/>
+      <c r="K246" s="20"/>
+      <c r="L246" s="20"/>
+      <c r="M246" s="20"/>
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
       <c r="P246" s="1"/>
@@ -11393,18 +11443,18 @@
     </row>
     <row r="247" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
-      <c r="D247" s="1"/>
-      <c r="E247" s="1"/>
-      <c r="F247" s="1"/>
-      <c r="G247" s="1"/>
-      <c r="H247" s="1"/>
-      <c r="I247" s="1"/>
-      <c r="J247" s="1"/>
-      <c r="K247" s="1"/>
-      <c r="L247" s="1"/>
-      <c r="M247" s="1"/>
+      <c r="B247" s="20"/>
+      <c r="C247" s="20"/>
+      <c r="D247" s="20"/>
+      <c r="E247" s="20"/>
+      <c r="F247" s="20"/>
+      <c r="G247" s="20"/>
+      <c r="H247" s="20"/>
+      <c r="I247" s="20"/>
+      <c r="J247" s="20"/>
+      <c r="K247" s="20"/>
+      <c r="L247" s="20"/>
+      <c r="M247" s="20"/>
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
       <c r="P247" s="1"/>
@@ -11437,18 +11487,18 @@
     </row>
     <row r="248" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-      <c r="C248" s="1"/>
-      <c r="D248" s="1"/>
-      <c r="E248" s="1"/>
-      <c r="F248" s="1"/>
-      <c r="G248" s="1"/>
-      <c r="H248" s="1"/>
-      <c r="I248" s="1"/>
-      <c r="J248" s="1"/>
-      <c r="K248" s="1"/>
-      <c r="L248" s="1"/>
-      <c r="M248" s="1"/>
+      <c r="B248" s="20"/>
+      <c r="C248" s="20"/>
+      <c r="D248" s="20"/>
+      <c r="E248" s="20"/>
+      <c r="F248" s="20"/>
+      <c r="G248" s="20"/>
+      <c r="H248" s="20"/>
+      <c r="I248" s="20"/>
+      <c r="J248" s="20"/>
+      <c r="K248" s="20"/>
+      <c r="L248" s="20"/>
+      <c r="M248" s="20"/>
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
       <c r="P248" s="1"/>
@@ -11481,18 +11531,18 @@
     </row>
     <row r="249" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
-      <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
-      <c r="G249" s="1"/>
-      <c r="H249" s="1"/>
-      <c r="I249" s="1"/>
-      <c r="J249" s="1"/>
-      <c r="K249" s="1"/>
-      <c r="L249" s="1"/>
-      <c r="M249" s="1"/>
+      <c r="B249" s="20"/>
+      <c r="C249" s="20"/>
+      <c r="D249" s="20"/>
+      <c r="E249" s="20"/>
+      <c r="F249" s="20"/>
+      <c r="G249" s="20"/>
+      <c r="H249" s="20"/>
+      <c r="I249" s="20"/>
+      <c r="J249" s="20"/>
+      <c r="K249" s="20"/>
+      <c r="L249" s="20"/>
+      <c r="M249" s="20"/>
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
       <c r="P249" s="1"/>
@@ -11525,18 +11575,18 @@
     </row>
     <row r="250" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
-      <c r="G250" s="1"/>
-      <c r="H250" s="1"/>
-      <c r="I250" s="1"/>
-      <c r="J250" s="1"/>
-      <c r="K250" s="1"/>
-      <c r="L250" s="1"/>
-      <c r="M250" s="1"/>
+      <c r="B250" s="20"/>
+      <c r="C250" s="20"/>
+      <c r="D250" s="20"/>
+      <c r="E250" s="20"/>
+      <c r="F250" s="20"/>
+      <c r="G250" s="20"/>
+      <c r="H250" s="20"/>
+      <c r="I250" s="20"/>
+      <c r="J250" s="20"/>
+      <c r="K250" s="20"/>
+      <c r="L250" s="20"/>
+      <c r="M250" s="20"/>
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
       <c r="P250" s="1"/>
@@ -11569,18 +11619,18 @@
     </row>
     <row r="251" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
-      <c r="G251" s="1"/>
-      <c r="H251" s="1"/>
-      <c r="I251" s="1"/>
-      <c r="J251" s="1"/>
-      <c r="K251" s="1"/>
-      <c r="L251" s="1"/>
-      <c r="M251" s="1"/>
+      <c r="B251" s="20"/>
+      <c r="C251" s="20"/>
+      <c r="D251" s="20"/>
+      <c r="E251" s="20"/>
+      <c r="F251" s="20"/>
+      <c r="G251" s="20"/>
+      <c r="H251" s="20"/>
+      <c r="I251" s="20"/>
+      <c r="J251" s="20"/>
+      <c r="K251" s="20"/>
+      <c r="L251" s="20"/>
+      <c r="M251" s="20"/>
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
       <c r="P251" s="1"/>
@@ -11613,18 +11663,18 @@
     </row>
     <row r="252" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
-      <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
-      <c r="G252" s="1"/>
-      <c r="H252" s="1"/>
-      <c r="I252" s="1"/>
-      <c r="J252" s="1"/>
-      <c r="K252" s="1"/>
-      <c r="L252" s="1"/>
-      <c r="M252" s="1"/>
+      <c r="B252" s="20"/>
+      <c r="C252" s="20"/>
+      <c r="D252" s="20"/>
+      <c r="E252" s="20"/>
+      <c r="F252" s="20"/>
+      <c r="G252" s="20"/>
+      <c r="H252" s="20"/>
+      <c r="I252" s="20"/>
+      <c r="J252" s="20"/>
+      <c r="K252" s="20"/>
+      <c r="L252" s="20"/>
+      <c r="M252" s="20"/>
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
       <c r="P252" s="1"/>
@@ -11657,18 +11707,18 @@
     </row>
     <row r="253" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
-      <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
-      <c r="G253" s="1"/>
-      <c r="H253" s="1"/>
-      <c r="I253" s="1"/>
-      <c r="J253" s="1"/>
-      <c r="K253" s="1"/>
-      <c r="L253" s="1"/>
-      <c r="M253" s="1"/>
+      <c r="B253" s="20"/>
+      <c r="C253" s="20"/>
+      <c r="D253" s="20"/>
+      <c r="E253" s="20"/>
+      <c r="F253" s="20"/>
+      <c r="G253" s="20"/>
+      <c r="H253" s="20"/>
+      <c r="I253" s="20"/>
+      <c r="J253" s="20"/>
+      <c r="K253" s="20"/>
+      <c r="L253" s="20"/>
+      <c r="M253" s="20"/>
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
       <c r="P253" s="1"/>
@@ -11701,18 +11751,18 @@
     </row>
     <row r="254" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
-      <c r="C254" s="1"/>
-      <c r="D254" s="1"/>
-      <c r="E254" s="1"/>
-      <c r="F254" s="1"/>
-      <c r="G254" s="1"/>
-      <c r="H254" s="1"/>
-      <c r="I254" s="1"/>
-      <c r="J254" s="1"/>
-      <c r="K254" s="1"/>
-      <c r="L254" s="1"/>
-      <c r="M254" s="1"/>
+      <c r="B254" s="20"/>
+      <c r="C254" s="20"/>
+      <c r="D254" s="20"/>
+      <c r="E254" s="20"/>
+      <c r="F254" s="20"/>
+      <c r="G254" s="20"/>
+      <c r="H254" s="20"/>
+      <c r="I254" s="20"/>
+      <c r="J254" s="20"/>
+      <c r="K254" s="20"/>
+      <c r="L254" s="20"/>
+      <c r="M254" s="20"/>
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
       <c r="P254" s="1"/>
@@ -11745,18 +11795,18 @@
     </row>
     <row r="255" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
-      <c r="D255" s="1"/>
-      <c r="E255" s="1"/>
-      <c r="F255" s="1"/>
-      <c r="G255" s="1"/>
-      <c r="H255" s="1"/>
-      <c r="I255" s="1"/>
-      <c r="J255" s="1"/>
-      <c r="K255" s="1"/>
-      <c r="L255" s="1"/>
-      <c r="M255" s="1"/>
+      <c r="B255" s="20"/>
+      <c r="C255" s="20"/>
+      <c r="D255" s="20"/>
+      <c r="E255" s="20"/>
+      <c r="F255" s="20"/>
+      <c r="G255" s="20"/>
+      <c r="H255" s="20"/>
+      <c r="I255" s="20"/>
+      <c r="J255" s="20"/>
+      <c r="K255" s="20"/>
+      <c r="L255" s="20"/>
+      <c r="M255" s="20"/>
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
       <c r="P255" s="1"/>
@@ -11789,18 +11839,18 @@
     </row>
     <row r="256" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
-      <c r="C256" s="1"/>
-      <c r="D256" s="1"/>
-      <c r="E256" s="1"/>
-      <c r="F256" s="1"/>
-      <c r="G256" s="1"/>
-      <c r="H256" s="1"/>
-      <c r="I256" s="1"/>
-      <c r="J256" s="1"/>
-      <c r="K256" s="1"/>
-      <c r="L256" s="1"/>
-      <c r="M256" s="1"/>
+      <c r="B256" s="20"/>
+      <c r="C256" s="20"/>
+      <c r="D256" s="20"/>
+      <c r="E256" s="20"/>
+      <c r="F256" s="20"/>
+      <c r="G256" s="20"/>
+      <c r="H256" s="20"/>
+      <c r="I256" s="20"/>
+      <c r="J256" s="20"/>
+      <c r="K256" s="20"/>
+      <c r="L256" s="20"/>
+      <c r="M256" s="20"/>
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
       <c r="P256" s="1"/>
@@ -11833,18 +11883,18 @@
     </row>
     <row r="257" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
-      <c r="C257" s="1"/>
-      <c r="D257" s="1"/>
-      <c r="E257" s="1"/>
-      <c r="F257" s="1"/>
-      <c r="G257" s="1"/>
-      <c r="H257" s="1"/>
-      <c r="I257" s="1"/>
-      <c r="J257" s="1"/>
-      <c r="K257" s="1"/>
-      <c r="L257" s="1"/>
-      <c r="M257" s="1"/>
+      <c r="B257" s="20"/>
+      <c r="C257" s="20"/>
+      <c r="D257" s="20"/>
+      <c r="E257" s="20"/>
+      <c r="F257" s="20"/>
+      <c r="G257" s="20"/>
+      <c r="H257" s="20"/>
+      <c r="I257" s="20"/>
+      <c r="J257" s="20"/>
+      <c r="K257" s="20"/>
+      <c r="L257" s="20"/>
+      <c r="M257" s="20"/>
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
       <c r="P257" s="1"/>
@@ -11877,18 +11927,18 @@
     </row>
     <row r="258" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
-      <c r="D258" s="1"/>
-      <c r="E258" s="1"/>
-      <c r="F258" s="1"/>
-      <c r="G258" s="1"/>
-      <c r="H258" s="1"/>
-      <c r="I258" s="1"/>
-      <c r="J258" s="1"/>
-      <c r="K258" s="1"/>
-      <c r="L258" s="1"/>
-      <c r="M258" s="1"/>
+      <c r="B258" s="20"/>
+      <c r="C258" s="20"/>
+      <c r="D258" s="20"/>
+      <c r="E258" s="20"/>
+      <c r="F258" s="20"/>
+      <c r="G258" s="20"/>
+      <c r="H258" s="20"/>
+      <c r="I258" s="20"/>
+      <c r="J258" s="20"/>
+      <c r="K258" s="20"/>
+      <c r="L258" s="20"/>
+      <c r="M258" s="20"/>
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
       <c r="P258" s="1"/>
@@ -11921,18 +11971,18 @@
     </row>
     <row r="259" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
-      <c r="D259" s="1"/>
-      <c r="E259" s="1"/>
-      <c r="F259" s="1"/>
-      <c r="G259" s="1"/>
-      <c r="H259" s="1"/>
-      <c r="I259" s="1"/>
-      <c r="J259" s="1"/>
-      <c r="K259" s="1"/>
-      <c r="L259" s="1"/>
-      <c r="M259" s="1"/>
+      <c r="B259" s="20"/>
+      <c r="C259" s="20"/>
+      <c r="D259" s="20"/>
+      <c r="E259" s="20"/>
+      <c r="F259" s="20"/>
+      <c r="G259" s="20"/>
+      <c r="H259" s="20"/>
+      <c r="I259" s="20"/>
+      <c r="J259" s="20"/>
+      <c r="K259" s="20"/>
+      <c r="L259" s="20"/>
+      <c r="M259" s="20"/>
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
       <c r="P259" s="1"/>
@@ -11965,18 +12015,18 @@
     </row>
     <row r="260" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
-      <c r="C260" s="1"/>
-      <c r="D260" s="1"/>
-      <c r="E260" s="1"/>
-      <c r="F260" s="1"/>
-      <c r="G260" s="1"/>
-      <c r="H260" s="1"/>
-      <c r="I260" s="1"/>
-      <c r="J260" s="1"/>
-      <c r="K260" s="1"/>
-      <c r="L260" s="1"/>
-      <c r="M260" s="1"/>
+      <c r="B260" s="20"/>
+      <c r="C260" s="20"/>
+      <c r="D260" s="20"/>
+      <c r="E260" s="20"/>
+      <c r="F260" s="20"/>
+      <c r="G260" s="20"/>
+      <c r="H260" s="20"/>
+      <c r="I260" s="20"/>
+      <c r="J260" s="20"/>
+      <c r="K260" s="20"/>
+      <c r="L260" s="20"/>
+      <c r="M260" s="20"/>
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
       <c r="P260" s="1"/>
@@ -12009,18 +12059,18 @@
     </row>
     <row r="261" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
-      <c r="D261" s="1"/>
-      <c r="E261" s="1"/>
-      <c r="F261" s="1"/>
-      <c r="G261" s="1"/>
-      <c r="H261" s="1"/>
-      <c r="I261" s="1"/>
-      <c r="J261" s="1"/>
-      <c r="K261" s="1"/>
-      <c r="L261" s="1"/>
-      <c r="M261" s="1"/>
+      <c r="B261" s="20"/>
+      <c r="C261" s="20"/>
+      <c r="D261" s="20"/>
+      <c r="E261" s="20"/>
+      <c r="F261" s="20"/>
+      <c r="G261" s="20"/>
+      <c r="H261" s="20"/>
+      <c r="I261" s="20"/>
+      <c r="J261" s="20"/>
+      <c r="K261" s="20"/>
+      <c r="L261" s="20"/>
+      <c r="M261" s="20"/>
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
       <c r="P261" s="1"/>
@@ -12053,18 +12103,18 @@
     </row>
     <row r="262" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
-      <c r="C262" s="1"/>
-      <c r="D262" s="1"/>
-      <c r="E262" s="1"/>
-      <c r="F262" s="1"/>
-      <c r="G262" s="1"/>
-      <c r="H262" s="1"/>
-      <c r="I262" s="1"/>
-      <c r="J262" s="1"/>
-      <c r="K262" s="1"/>
-      <c r="L262" s="1"/>
-      <c r="M262" s="1"/>
+      <c r="B262" s="20"/>
+      <c r="C262" s="20"/>
+      <c r="D262" s="20"/>
+      <c r="E262" s="20"/>
+      <c r="F262" s="20"/>
+      <c r="G262" s="20"/>
+      <c r="H262" s="20"/>
+      <c r="I262" s="20"/>
+      <c r="J262" s="20"/>
+      <c r="K262" s="20"/>
+      <c r="L262" s="20"/>
+      <c r="M262" s="20"/>
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
       <c r="P262" s="1"/>
@@ -12097,18 +12147,18 @@
     </row>
     <row r="263" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-      <c r="C263" s="1"/>
-      <c r="D263" s="1"/>
-      <c r="E263" s="1"/>
-      <c r="F263" s="1"/>
-      <c r="G263" s="1"/>
-      <c r="H263" s="1"/>
-      <c r="I263" s="1"/>
-      <c r="J263" s="1"/>
-      <c r="K263" s="1"/>
-      <c r="L263" s="1"/>
-      <c r="M263" s="1"/>
+      <c r="B263" s="20"/>
+      <c r="C263" s="20"/>
+      <c r="D263" s="20"/>
+      <c r="E263" s="20"/>
+      <c r="F263" s="20"/>
+      <c r="G263" s="20"/>
+      <c r="H263" s="20"/>
+      <c r="I263" s="20"/>
+      <c r="J263" s="20"/>
+      <c r="K263" s="20"/>
+      <c r="L263" s="20"/>
+      <c r="M263" s="20"/>
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
       <c r="P263" s="1"/>
@@ -12141,18 +12191,18 @@
     </row>
     <row r="264" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
-      <c r="D264" s="1"/>
-      <c r="E264" s="1"/>
-      <c r="F264" s="1"/>
-      <c r="G264" s="1"/>
-      <c r="H264" s="1"/>
-      <c r="I264" s="1"/>
-      <c r="J264" s="1"/>
-      <c r="K264" s="1"/>
-      <c r="L264" s="1"/>
-      <c r="M264" s="1"/>
+      <c r="B264" s="20"/>
+      <c r="C264" s="20"/>
+      <c r="D264" s="20"/>
+      <c r="E264" s="20"/>
+      <c r="F264" s="20"/>
+      <c r="G264" s="20"/>
+      <c r="H264" s="20"/>
+      <c r="I264" s="20"/>
+      <c r="J264" s="20"/>
+      <c r="K264" s="20"/>
+      <c r="L264" s="20"/>
+      <c r="M264" s="20"/>
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
       <c r="P264" s="1"/>
@@ -12185,18 +12235,18 @@
     </row>
     <row r="265" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
-      <c r="C265" s="1"/>
-      <c r="D265" s="1"/>
-      <c r="E265" s="1"/>
-      <c r="F265" s="1"/>
-      <c r="G265" s="1"/>
-      <c r="H265" s="1"/>
-      <c r="I265" s="1"/>
-      <c r="J265" s="1"/>
-      <c r="K265" s="1"/>
-      <c r="L265" s="1"/>
-      <c r="M265" s="1"/>
+      <c r="B265" s="20"/>
+      <c r="C265" s="20"/>
+      <c r="D265" s="20"/>
+      <c r="E265" s="20"/>
+      <c r="F265" s="20"/>
+      <c r="G265" s="20"/>
+      <c r="H265" s="20"/>
+      <c r="I265" s="20"/>
+      <c r="J265" s="20"/>
+      <c r="K265" s="20"/>
+      <c r="L265" s="20"/>
+      <c r="M265" s="20"/>
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
       <c r="P265" s="1"/>
@@ -12229,18 +12279,18 @@
     </row>
     <row r="266" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
-      <c r="C266" s="1"/>
-      <c r="D266" s="1"/>
-      <c r="E266" s="1"/>
-      <c r="F266" s="1"/>
-      <c r="G266" s="1"/>
-      <c r="H266" s="1"/>
-      <c r="I266" s="1"/>
-      <c r="J266" s="1"/>
-      <c r="K266" s="1"/>
-      <c r="L266" s="1"/>
-      <c r="M266" s="1"/>
+      <c r="B266" s="20"/>
+      <c r="C266" s="20"/>
+      <c r="D266" s="20"/>
+      <c r="E266" s="20"/>
+      <c r="F266" s="20"/>
+      <c r="G266" s="20"/>
+      <c r="H266" s="20"/>
+      <c r="I266" s="20"/>
+      <c r="J266" s="20"/>
+      <c r="K266" s="20"/>
+      <c r="L266" s="20"/>
+      <c r="M266" s="20"/>
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
       <c r="P266" s="1"/>
@@ -12273,18 +12323,18 @@
     </row>
     <row r="267" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
-      <c r="C267" s="1"/>
-      <c r="D267" s="1"/>
-      <c r="E267" s="1"/>
-      <c r="F267" s="1"/>
-      <c r="G267" s="1"/>
-      <c r="H267" s="1"/>
-      <c r="I267" s="1"/>
-      <c r="J267" s="1"/>
-      <c r="K267" s="1"/>
-      <c r="L267" s="1"/>
-      <c r="M267" s="1"/>
+      <c r="B267" s="20"/>
+      <c r="C267" s="20"/>
+      <c r="D267" s="20"/>
+      <c r="E267" s="20"/>
+      <c r="F267" s="20"/>
+      <c r="G267" s="20"/>
+      <c r="H267" s="20"/>
+      <c r="I267" s="20"/>
+      <c r="J267" s="20"/>
+      <c r="K267" s="20"/>
+      <c r="L267" s="20"/>
+      <c r="M267" s="20"/>
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
       <c r="P267" s="1"/>
@@ -12317,18 +12367,18 @@
     </row>
     <row r="268" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
-      <c r="C268" s="1"/>
-      <c r="D268" s="1"/>
-      <c r="E268" s="1"/>
-      <c r="F268" s="1"/>
-      <c r="G268" s="1"/>
-      <c r="H268" s="1"/>
-      <c r="I268" s="1"/>
-      <c r="J268" s="1"/>
-      <c r="K268" s="1"/>
-      <c r="L268" s="1"/>
-      <c r="M268" s="1"/>
+      <c r="B268" s="20"/>
+      <c r="C268" s="20"/>
+      <c r="D268" s="20"/>
+      <c r="E268" s="20"/>
+      <c r="F268" s="20"/>
+      <c r="G268" s="20"/>
+      <c r="H268" s="20"/>
+      <c r="I268" s="20"/>
+      <c r="J268" s="20"/>
+      <c r="K268" s="20"/>
+      <c r="L268" s="20"/>
+      <c r="M268" s="20"/>
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
       <c r="P268" s="1"/>
@@ -12361,18 +12411,18 @@
     </row>
     <row r="269" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
-      <c r="D269" s="1"/>
-      <c r="E269" s="1"/>
-      <c r="F269" s="1"/>
-      <c r="G269" s="1"/>
-      <c r="H269" s="1"/>
-      <c r="I269" s="1"/>
-      <c r="J269" s="1"/>
-      <c r="K269" s="1"/>
-      <c r="L269" s="1"/>
-      <c r="M269" s="1"/>
+      <c r="B269" s="20"/>
+      <c r="C269" s="20"/>
+      <c r="D269" s="20"/>
+      <c r="E269" s="20"/>
+      <c r="F269" s="20"/>
+      <c r="G269" s="20"/>
+      <c r="H269" s="20"/>
+      <c r="I269" s="20"/>
+      <c r="J269" s="20"/>
+      <c r="K269" s="20"/>
+      <c r="L269" s="20"/>
+      <c r="M269" s="20"/>
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
       <c r="P269" s="1"/>
@@ -12405,18 +12455,18 @@
     </row>
     <row r="270" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
-      <c r="C270" s="1"/>
-      <c r="D270" s="1"/>
-      <c r="E270" s="1"/>
-      <c r="F270" s="1"/>
-      <c r="G270" s="1"/>
-      <c r="H270" s="1"/>
-      <c r="I270" s="1"/>
-      <c r="J270" s="1"/>
-      <c r="K270" s="1"/>
-      <c r="L270" s="1"/>
-      <c r="M270" s="1"/>
+      <c r="B270" s="20"/>
+      <c r="C270" s="20"/>
+      <c r="D270" s="20"/>
+      <c r="E270" s="20"/>
+      <c r="F270" s="20"/>
+      <c r="G270" s="20"/>
+      <c r="H270" s="20"/>
+      <c r="I270" s="20"/>
+      <c r="J270" s="20"/>
+      <c r="K270" s="20"/>
+      <c r="L270" s="20"/>
+      <c r="M270" s="20"/>
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
       <c r="P270" s="1"/>
@@ -12449,18 +12499,18 @@
     </row>
     <row r="271" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
-      <c r="D271" s="1"/>
-      <c r="E271" s="1"/>
-      <c r="F271" s="1"/>
-      <c r="G271" s="1"/>
-      <c r="H271" s="1"/>
-      <c r="I271" s="1"/>
-      <c r="J271" s="1"/>
-      <c r="K271" s="1"/>
-      <c r="L271" s="1"/>
-      <c r="M271" s="1"/>
+      <c r="B271" s="20"/>
+      <c r="C271" s="20"/>
+      <c r="D271" s="20"/>
+      <c r="E271" s="20"/>
+      <c r="F271" s="20"/>
+      <c r="G271" s="20"/>
+      <c r="H271" s="20"/>
+      <c r="I271" s="20"/>
+      <c r="J271" s="20"/>
+      <c r="K271" s="20"/>
+      <c r="L271" s="20"/>
+      <c r="M271" s="20"/>
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
       <c r="P271" s="1"/>
@@ -12493,18 +12543,18 @@
     </row>
     <row r="272" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
-      <c r="C272" s="1"/>
-      <c r="D272" s="1"/>
-      <c r="E272" s="1"/>
-      <c r="F272" s="1"/>
-      <c r="G272" s="1"/>
-      <c r="H272" s="1"/>
-      <c r="I272" s="1"/>
-      <c r="J272" s="1"/>
-      <c r="K272" s="1"/>
-      <c r="L272" s="1"/>
-      <c r="M272" s="1"/>
+      <c r="B272" s="20"/>
+      <c r="C272" s="20"/>
+      <c r="D272" s="20"/>
+      <c r="E272" s="20"/>
+      <c r="F272" s="20"/>
+      <c r="G272" s="20"/>
+      <c r="H272" s="20"/>
+      <c r="I272" s="20"/>
+      <c r="J272" s="20"/>
+      <c r="K272" s="20"/>
+      <c r="L272" s="20"/>
+      <c r="M272" s="20"/>
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
       <c r="P272" s="1"/>
@@ -12537,18 +12587,18 @@
     </row>
     <row r="273" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
-      <c r="D273" s="1"/>
-      <c r="E273" s="1"/>
-      <c r="F273" s="1"/>
-      <c r="G273" s="1"/>
-      <c r="H273" s="1"/>
-      <c r="I273" s="1"/>
-      <c r="J273" s="1"/>
-      <c r="K273" s="1"/>
-      <c r="L273" s="1"/>
-      <c r="M273" s="1"/>
+      <c r="B273" s="20"/>
+      <c r="C273" s="20"/>
+      <c r="D273" s="20"/>
+      <c r="E273" s="20"/>
+      <c r="F273" s="20"/>
+      <c r="G273" s="20"/>
+      <c r="H273" s="20"/>
+      <c r="I273" s="20"/>
+      <c r="J273" s="20"/>
+      <c r="K273" s="20"/>
+      <c r="L273" s="20"/>
+      <c r="M273" s="20"/>
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
       <c r="P273" s="1"/>

--- a/municipal/სასტუმროები/სასტუმროების რაოდენობა და ფართობი/ქვემო ქართლი/თეთრიწყარო.xlsx
+++ b/municipal/სასტუმროები/სასტუმროების რაოდენობა და ფართობი/ქვემო ქართლი/თეთრიწყარო.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სასტუმროები ქარ. EN\2 სასტუმროების რაოდენობა &amp; ფართობი\ქვემო ქართლი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმ. მუნიციპ\სასტუმროების რაოდენობა და ფართობი\სასტუმროების რაოდენობა &amp; ფართობი\ქვემო ქართლი\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17E37C6-883B-4AB1-B3E3-F3743922A352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14010" windowHeight="11805"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="თეთრიწყარო" sheetId="2" r:id="rId1"/>
@@ -30,9 +31,6 @@
   </si>
   <si>
     <t>სასტუმროებისა და სასტუმროს ტიპის დაწესებულებების რაოდენობა და მთლიანი ფართობი ადგილობრივი ერთეულების ჩათვლით თეთრიწყაროს მუნიციპალიტეტში</t>
-  </si>
-  <si>
-    <t>ფართობი კვ.მ.</t>
   </si>
   <si>
     <t>...</t>
@@ -57,11 +55,14 @@
       <t xml:space="preserve"> „ ...“ მონაცემი არ არის ან კონფიდენციალურია</t>
     </r>
   </si>
+  <si>
+    <t>ფართობი, კვ.მ.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0.0"/>
@@ -141,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -182,24 +183,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -208,23 +215,11 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -232,24 +227,30 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -526,7 +527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -534,25 +535,26 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="13" width="12.7109375" style="21" customWidth="1"/>
+    <col min="2" max="13" width="10.7109375" style="16" customWidth="1"/>
+    <col min="14" max="19" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -583,89 +585,93 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
     </row>
-    <row r="2" spans="1:42" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="16">
+    <row r="2" spans="1:42" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="11">
         <v>2010</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="11">
         <v>2011</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="11">
         <v>2012</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="11">
         <v>2013</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="11">
         <v>2014</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="11">
         <v>2015</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="11">
         <v>2016</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="11">
         <v>2017</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="11">
         <v>2018</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="11">
         <v>2019</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="11">
         <v>2020</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="11">
         <v>2021</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9"/>
-    </row>
-    <row r="3" spans="1:42" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="11">
+        <v>2022</v>
+      </c>
+      <c r="O2" s="11">
+        <v>2023</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+    </row>
+    <row r="3" spans="1:42" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>
@@ -686,127 +692,135 @@
         <v>3</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M3" s="3">
         <v>1</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-    </row>
-    <row r="4" spans="1:42" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="N3" s="3">
+        <v>4</v>
+      </c>
+      <c r="O3" s="3">
+        <v>4</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+    </row>
+    <row r="4" spans="1:42" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1400</v>
+      </c>
+      <c r="G4" s="18">
+        <v>800</v>
+      </c>
+      <c r="H4" s="18">
+        <v>1400</v>
+      </c>
+      <c r="I4" s="18">
+        <v>1400</v>
+      </c>
+      <c r="J4" s="18">
+        <v>1400</v>
+      </c>
+      <c r="K4" s="18">
+        <v>2100</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="18">
+        <v>240</v>
+      </c>
+      <c r="N4" s="18">
+        <v>2080</v>
+      </c>
+      <c r="O4" s="18">
+        <v>953</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+    </row>
+    <row r="5" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="12">
-        <v>1400</v>
-      </c>
-      <c r="G4" s="12">
-        <v>800</v>
-      </c>
-      <c r="H4" s="12">
-        <v>1400</v>
-      </c>
-      <c r="I4" s="12">
-        <v>1400</v>
-      </c>
-      <c r="J4" s="12">
-        <v>1400</v>
-      </c>
-      <c r="K4" s="12">
-        <v>2100</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="12">
-        <v>240</v>
-      </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="14"/>
-      <c r="AO4" s="14"/>
-      <c r="AP4" s="14"/>
-    </row>
-    <row r="5" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -839,18 +853,18 @@
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -883,18 +897,18 @@
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -927,18 +941,18 @@
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -971,18 +985,18 @@
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1015,18 +1029,18 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1059,18 +1073,18 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1103,18 +1117,18 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1147,18 +1161,18 @@
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1191,18 +1205,18 @@
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1235,18 +1249,18 @@
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1279,18 +1293,18 @@
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1323,18 +1337,18 @@
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1367,18 +1381,18 @@
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1411,18 +1425,18 @@
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1455,18 +1469,18 @@
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1499,18 +1513,18 @@
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1543,18 +1557,18 @@
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1587,18 +1601,18 @@
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -1631,18 +1645,18 @@
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -1675,18 +1689,18 @@
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -1719,18 +1733,18 @@
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -1763,18 +1777,18 @@
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -1807,18 +1821,18 @@
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -1851,18 +1865,18 @@
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -1895,18 +1909,18 @@
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -1939,18 +1953,18 @@
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -1983,18 +1997,18 @@
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -2027,18 +2041,18 @@
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -2071,18 +2085,18 @@
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -2115,18 +2129,18 @@
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -2159,18 +2173,18 @@
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -2203,18 +2217,18 @@
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -2247,18 +2261,18 @@
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -2291,18 +2305,18 @@
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -2335,18 +2349,18 @@
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -2379,18 +2393,18 @@
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2423,18 +2437,18 @@
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -2467,18 +2481,18 @@
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -2511,18 +2525,18 @@
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -2555,18 +2569,18 @@
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -2599,18 +2613,18 @@
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -2643,18 +2657,18 @@
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -2687,18 +2701,18 @@
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
@@ -2731,18 +2745,18 @@
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -2775,18 +2789,18 @@
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
@@ -2819,18 +2833,18 @@
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
@@ -2863,18 +2877,18 @@
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -2907,18 +2921,18 @@
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -2951,18 +2965,18 @@
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
@@ -2995,18 +3009,18 @@
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
@@ -3039,18 +3053,18 @@
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
@@ -3083,18 +3097,18 @@
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
@@ -3127,18 +3141,18 @@
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
@@ -3171,18 +3185,18 @@
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
@@ -3215,18 +3229,18 @@
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -3259,18 +3273,18 @@
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
@@ -3303,18 +3317,18 @@
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
@@ -3347,18 +3361,18 @@
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
@@ -3391,18 +3405,18 @@
     </row>
     <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -3435,18 +3449,18 @@
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -3479,18 +3493,18 @@
     </row>
     <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -3523,18 +3537,18 @@
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="20"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -3567,18 +3581,18 @@
     </row>
     <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
@@ -3611,18 +3625,18 @@
     </row>
     <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -3655,18 +3669,18 @@
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="20"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -3699,18 +3713,18 @@
     </row>
     <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -3743,18 +3757,18 @@
     </row>
     <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
@@ -3787,18 +3801,18 @@
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
@@ -3831,18 +3845,18 @@
     </row>
     <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
@@ -3875,18 +3889,18 @@
     </row>
     <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="20"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
@@ -3919,18 +3933,18 @@
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="20"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
@@ -3963,18 +3977,18 @@
     </row>
     <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="20"/>
-      <c r="L77" s="20"/>
-      <c r="M77" s="20"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
@@ -4007,18 +4021,18 @@
     </row>
     <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="20"/>
-      <c r="L78" s="20"/>
-      <c r="M78" s="20"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
@@ -4051,18 +4065,18 @@
     </row>
     <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="20"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
@@ -4095,18 +4109,18 @@
     </row>
     <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="20"/>
-      <c r="L80" s="20"/>
-      <c r="M80" s="20"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
@@ -4139,18 +4153,18 @@
     </row>
     <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="20"/>
-      <c r="M81" s="20"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
@@ -4183,18 +4197,18 @@
     </row>
     <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="20"/>
-      <c r="L82" s="20"/>
-      <c r="M82" s="20"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
@@ -4227,18 +4241,18 @@
     </row>
     <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
-      <c r="M83" s="20"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
@@ -4271,18 +4285,18 @@
     </row>
     <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
@@ -4315,18 +4329,18 @@
     </row>
     <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
-      <c r="M85" s="20"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
@@ -4359,18 +4373,18 @@
     </row>
     <row r="86" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="20"/>
-      <c r="L86" s="20"/>
-      <c r="M86" s="20"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
@@ -4403,18 +4417,18 @@
     </row>
     <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="20"/>
-      <c r="K87" s="20"/>
-      <c r="L87" s="20"/>
-      <c r="M87" s="20"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
@@ -4447,18 +4461,18 @@
     </row>
     <row r="88" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20"/>
-      <c r="M88" s="20"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
@@ -4491,18 +4505,18 @@
     </row>
     <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="20"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="20"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
@@ -4535,18 +4549,18 @@
     </row>
     <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="20"/>
-      <c r="K90" s="20"/>
-      <c r="L90" s="20"/>
-      <c r="M90" s="20"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
@@ -4579,18 +4593,18 @@
     </row>
     <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="20"/>
-      <c r="L91" s="20"/>
-      <c r="M91" s="20"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
@@ -4623,18 +4637,18 @@
     </row>
     <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="20"/>
-      <c r="K92" s="20"/>
-      <c r="L92" s="20"/>
-      <c r="M92" s="20"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="15"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
@@ -4667,18 +4681,18 @@
     </row>
     <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="20"/>
-      <c r="K93" s="20"/>
-      <c r="L93" s="20"/>
-      <c r="M93" s="20"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="15"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
@@ -4711,18 +4725,18 @@
     </row>
     <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
-      <c r="K94" s="20"/>
-      <c r="L94" s="20"/>
-      <c r="M94" s="20"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
@@ -4755,18 +4769,18 @@
     </row>
     <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
-      <c r="K95" s="20"/>
-      <c r="L95" s="20"/>
-      <c r="M95" s="20"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="15"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
@@ -4799,18 +4813,18 @@
     </row>
     <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="20"/>
-      <c r="K96" s="20"/>
-      <c r="L96" s="20"/>
-      <c r="M96" s="20"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
@@ -4843,18 +4857,18 @@
     </row>
     <row r="97" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="20"/>
-      <c r="L97" s="20"/>
-      <c r="M97" s="20"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="15"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="15"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
@@ -4887,18 +4901,18 @@
     </row>
     <row r="98" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="20"/>
-      <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
-      <c r="L98" s="20"/>
-      <c r="M98" s="20"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="15"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
@@ -4931,18 +4945,18 @@
     </row>
     <row r="99" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="20"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="20"/>
-      <c r="M99" s="20"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
@@ -4975,18 +4989,18 @@
     </row>
     <row r="100" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
-      <c r="H100" s="20"/>
-      <c r="I100" s="20"/>
-      <c r="J100" s="20"/>
-      <c r="K100" s="20"/>
-      <c r="L100" s="20"/>
-      <c r="M100" s="20"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="15"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
@@ -5019,18 +5033,18 @@
     </row>
     <row r="101" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="20"/>
-      <c r="H101" s="20"/>
-      <c r="I101" s="20"/>
-      <c r="J101" s="20"/>
-      <c r="K101" s="20"/>
-      <c r="L101" s="20"/>
-      <c r="M101" s="20"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
@@ -5063,18 +5077,18 @@
     </row>
     <row r="102" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="20"/>
-      <c r="K102" s="20"/>
-      <c r="L102" s="20"/>
-      <c r="M102" s="20"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="15"/>
+      <c r="M102" s="15"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
@@ -5107,18 +5121,18 @@
     </row>
     <row r="103" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="20"/>
-      <c r="J103" s="20"/>
-      <c r="K103" s="20"/>
-      <c r="L103" s="20"/>
-      <c r="M103" s="20"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="15"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
@@ -5151,18 +5165,18 @@
     </row>
     <row r="104" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="20"/>
-      <c r="H104" s="20"/>
-      <c r="I104" s="20"/>
-      <c r="J104" s="20"/>
-      <c r="K104" s="20"/>
-      <c r="L104" s="20"/>
-      <c r="M104" s="20"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="15"/>
+      <c r="L104" s="15"/>
+      <c r="M104" s="15"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
@@ -5195,18 +5209,18 @@
     </row>
     <row r="105" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="20"/>
-      <c r="J105" s="20"/>
-      <c r="K105" s="20"/>
-      <c r="L105" s="20"/>
-      <c r="M105" s="20"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="15"/>
+      <c r="L105" s="15"/>
+      <c r="M105" s="15"/>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
@@ -5239,18 +5253,18 @@
     </row>
     <row r="106" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="20"/>
-      <c r="J106" s="20"/>
-      <c r="K106" s="20"/>
-      <c r="L106" s="20"/>
-      <c r="M106" s="20"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="15"/>
+      <c r="L106" s="15"/>
+      <c r="M106" s="15"/>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
@@ -5283,18 +5297,18 @@
     </row>
     <row r="107" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="20"/>
-      <c r="I107" s="20"/>
-      <c r="J107" s="20"/>
-      <c r="K107" s="20"/>
-      <c r="L107" s="20"/>
-      <c r="M107" s="20"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
@@ -5327,18 +5341,18 @@
     </row>
     <row r="108" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="20"/>
-      <c r="H108" s="20"/>
-      <c r="I108" s="20"/>
-      <c r="J108" s="20"/>
-      <c r="K108" s="20"/>
-      <c r="L108" s="20"/>
-      <c r="M108" s="20"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="15"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="15"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
@@ -5371,18 +5385,18 @@
     </row>
     <row r="109" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="20"/>
-      <c r="J109" s="20"/>
-      <c r="K109" s="20"/>
-      <c r="L109" s="20"/>
-      <c r="M109" s="20"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="15"/>
+      <c r="L109" s="15"/>
+      <c r="M109" s="15"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
@@ -5415,18 +5429,18 @@
     </row>
     <row r="110" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="20"/>
-      <c r="I110" s="20"/>
-      <c r="J110" s="20"/>
-      <c r="K110" s="20"/>
-      <c r="L110" s="20"/>
-      <c r="M110" s="20"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="15"/>
+      <c r="L110" s="15"/>
+      <c r="M110" s="15"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
@@ -5459,18 +5473,18 @@
     </row>
     <row r="111" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="20"/>
-      <c r="I111" s="20"/>
-      <c r="J111" s="20"/>
-      <c r="K111" s="20"/>
-      <c r="L111" s="20"/>
-      <c r="M111" s="20"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="15"/>
+      <c r="K111" s="15"/>
+      <c r="L111" s="15"/>
+      <c r="M111" s="15"/>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
@@ -5503,18 +5517,18 @@
     </row>
     <row r="112" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="20"/>
-      <c r="I112" s="20"/>
-      <c r="J112" s="20"/>
-      <c r="K112" s="20"/>
-      <c r="L112" s="20"/>
-      <c r="M112" s="20"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="15"/>
+      <c r="K112" s="15"/>
+      <c r="L112" s="15"/>
+      <c r="M112" s="15"/>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
@@ -5547,18 +5561,18 @@
     </row>
     <row r="113" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="20"/>
-      <c r="J113" s="20"/>
-      <c r="K113" s="20"/>
-      <c r="L113" s="20"/>
-      <c r="M113" s="20"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="15"/>
+      <c r="L113" s="15"/>
+      <c r="M113" s="15"/>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
@@ -5591,18 +5605,18 @@
     </row>
     <row r="114" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="20"/>
-      <c r="H114" s="20"/>
-      <c r="I114" s="20"/>
-      <c r="J114" s="20"/>
-      <c r="K114" s="20"/>
-      <c r="L114" s="20"/>
-      <c r="M114" s="20"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="15"/>
+      <c r="L114" s="15"/>
+      <c r="M114" s="15"/>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
@@ -5635,18 +5649,18 @@
     </row>
     <row r="115" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="20"/>
-      <c r="H115" s="20"/>
-      <c r="I115" s="20"/>
-      <c r="J115" s="20"/>
-      <c r="K115" s="20"/>
-      <c r="L115" s="20"/>
-      <c r="M115" s="20"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="15"/>
+      <c r="L115" s="15"/>
+      <c r="M115" s="15"/>
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
@@ -5679,18 +5693,18 @@
     </row>
     <row r="116" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="20"/>
-      <c r="I116" s="20"/>
-      <c r="J116" s="20"/>
-      <c r="K116" s="20"/>
-      <c r="L116" s="20"/>
-      <c r="M116" s="20"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="15"/>
+      <c r="L116" s="15"/>
+      <c r="M116" s="15"/>
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
@@ -5723,18 +5737,18 @@
     </row>
     <row r="117" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="20"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="20"/>
-      <c r="G117" s="20"/>
-      <c r="H117" s="20"/>
-      <c r="I117" s="20"/>
-      <c r="J117" s="20"/>
-      <c r="K117" s="20"/>
-      <c r="L117" s="20"/>
-      <c r="M117" s="20"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="15"/>
+      <c r="K117" s="15"/>
+      <c r="L117" s="15"/>
+      <c r="M117" s="15"/>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
@@ -5767,18 +5781,18 @@
     </row>
     <row r="118" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="20"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="20"/>
-      <c r="H118" s="20"/>
-      <c r="I118" s="20"/>
-      <c r="J118" s="20"/>
-      <c r="K118" s="20"/>
-      <c r="L118" s="20"/>
-      <c r="M118" s="20"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="15"/>
+      <c r="K118" s="15"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="15"/>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
@@ -5811,18 +5825,18 @@
     </row>
     <row r="119" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="20"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="20"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="20"/>
-      <c r="G119" s="20"/>
-      <c r="H119" s="20"/>
-      <c r="I119" s="20"/>
-      <c r="J119" s="20"/>
-      <c r="K119" s="20"/>
-      <c r="L119" s="20"/>
-      <c r="M119" s="20"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="15"/>
+      <c r="K119" s="15"/>
+      <c r="L119" s="15"/>
+      <c r="M119" s="15"/>
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
@@ -5855,18 +5869,18 @@
     </row>
     <row r="120" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="20"/>
-      <c r="D120" s="20"/>
-      <c r="E120" s="20"/>
-      <c r="F120" s="20"/>
-      <c r="G120" s="20"/>
-      <c r="H120" s="20"/>
-      <c r="I120" s="20"/>
-      <c r="J120" s="20"/>
-      <c r="K120" s="20"/>
-      <c r="L120" s="20"/>
-      <c r="M120" s="20"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="15"/>
+      <c r="K120" s="15"/>
+      <c r="L120" s="15"/>
+      <c r="M120" s="15"/>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
@@ -5899,18 +5913,18 @@
     </row>
     <row r="121" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="20"/>
-      <c r="D121" s="20"/>
-      <c r="E121" s="20"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="20"/>
-      <c r="H121" s="20"/>
-      <c r="I121" s="20"/>
-      <c r="J121" s="20"/>
-      <c r="K121" s="20"/>
-      <c r="L121" s="20"/>
-      <c r="M121" s="20"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="15"/>
+      <c r="K121" s="15"/>
+      <c r="L121" s="15"/>
+      <c r="M121" s="15"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
@@ -5943,18 +5957,18 @@
     </row>
     <row r="122" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="20"/>
-      <c r="D122" s="20"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="20"/>
-      <c r="G122" s="20"/>
-      <c r="H122" s="20"/>
-      <c r="I122" s="20"/>
-      <c r="J122" s="20"/>
-      <c r="K122" s="20"/>
-      <c r="L122" s="20"/>
-      <c r="M122" s="20"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="15"/>
+      <c r="L122" s="15"/>
+      <c r="M122" s="15"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
@@ -5987,18 +6001,18 @@
     </row>
     <row r="123" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="20"/>
-      <c r="D123" s="20"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="20"/>
-      <c r="H123" s="20"/>
-      <c r="I123" s="20"/>
-      <c r="J123" s="20"/>
-      <c r="K123" s="20"/>
-      <c r="L123" s="20"/>
-      <c r="M123" s="20"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="15"/>
+      <c r="K123" s="15"/>
+      <c r="L123" s="15"/>
+      <c r="M123" s="15"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
@@ -6031,18 +6045,18 @@
     </row>
     <row r="124" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="20"/>
-      <c r="D124" s="20"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="20"/>
-      <c r="H124" s="20"/>
-      <c r="I124" s="20"/>
-      <c r="J124" s="20"/>
-      <c r="K124" s="20"/>
-      <c r="L124" s="20"/>
-      <c r="M124" s="20"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="15"/>
+      <c r="K124" s="15"/>
+      <c r="L124" s="15"/>
+      <c r="M124" s="15"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
@@ -6075,18 +6089,18 @@
     </row>
     <row r="125" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="20"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="20"/>
-      <c r="H125" s="20"/>
-      <c r="I125" s="20"/>
-      <c r="J125" s="20"/>
-      <c r="K125" s="20"/>
-      <c r="L125" s="20"/>
-      <c r="M125" s="20"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="15"/>
+      <c r="K125" s="15"/>
+      <c r="L125" s="15"/>
+      <c r="M125" s="15"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
@@ -6119,18 +6133,18 @@
     </row>
     <row r="126" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="20"/>
-      <c r="D126" s="20"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="20"/>
-      <c r="H126" s="20"/>
-      <c r="I126" s="20"/>
-      <c r="J126" s="20"/>
-      <c r="K126" s="20"/>
-      <c r="L126" s="20"/>
-      <c r="M126" s="20"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="15"/>
+      <c r="K126" s="15"/>
+      <c r="L126" s="15"/>
+      <c r="M126" s="15"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
@@ -6163,18 +6177,18 @@
     </row>
     <row r="127" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="20"/>
-      <c r="D127" s="20"/>
-      <c r="E127" s="20"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="20"/>
-      <c r="H127" s="20"/>
-      <c r="I127" s="20"/>
-      <c r="J127" s="20"/>
-      <c r="K127" s="20"/>
-      <c r="L127" s="20"/>
-      <c r="M127" s="20"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="15"/>
+      <c r="K127" s="15"/>
+      <c r="L127" s="15"/>
+      <c r="M127" s="15"/>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
@@ -6207,18 +6221,18 @@
     </row>
     <row r="128" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="20"/>
-      <c r="D128" s="20"/>
-      <c r="E128" s="20"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="20"/>
-      <c r="H128" s="20"/>
-      <c r="I128" s="20"/>
-      <c r="J128" s="20"/>
-      <c r="K128" s="20"/>
-      <c r="L128" s="20"/>
-      <c r="M128" s="20"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="15"/>
+      <c r="K128" s="15"/>
+      <c r="L128" s="15"/>
+      <c r="M128" s="15"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
@@ -6251,18 +6265,18 @@
     </row>
     <row r="129" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="20"/>
-      <c r="D129" s="20"/>
-      <c r="E129" s="20"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="20"/>
-      <c r="H129" s="20"/>
-      <c r="I129" s="20"/>
-      <c r="J129" s="20"/>
-      <c r="K129" s="20"/>
-      <c r="L129" s="20"/>
-      <c r="M129" s="20"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="15"/>
+      <c r="K129" s="15"/>
+      <c r="L129" s="15"/>
+      <c r="M129" s="15"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
@@ -6295,18 +6309,18 @@
     </row>
     <row r="130" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="20"/>
-      <c r="D130" s="20"/>
-      <c r="E130" s="20"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="20"/>
-      <c r="H130" s="20"/>
-      <c r="I130" s="20"/>
-      <c r="J130" s="20"/>
-      <c r="K130" s="20"/>
-      <c r="L130" s="20"/>
-      <c r="M130" s="20"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="15"/>
+      <c r="K130" s="15"/>
+      <c r="L130" s="15"/>
+      <c r="M130" s="15"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
@@ -6339,18 +6353,18 @@
     </row>
     <row r="131" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="20"/>
-      <c r="H131" s="20"/>
-      <c r="I131" s="20"/>
-      <c r="J131" s="20"/>
-      <c r="K131" s="20"/>
-      <c r="L131" s="20"/>
-      <c r="M131" s="20"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="15"/>
+      <c r="L131" s="15"/>
+      <c r="M131" s="15"/>
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
@@ -6383,18 +6397,18 @@
     </row>
     <row r="132" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="20"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="20"/>
-      <c r="H132" s="20"/>
-      <c r="I132" s="20"/>
-      <c r="J132" s="20"/>
-      <c r="K132" s="20"/>
-      <c r="L132" s="20"/>
-      <c r="M132" s="20"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="15"/>
+      <c r="K132" s="15"/>
+      <c r="L132" s="15"/>
+      <c r="M132" s="15"/>
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
@@ -6427,18 +6441,18 @@
     </row>
     <row r="133" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="20"/>
-      <c r="D133" s="20"/>
-      <c r="E133" s="20"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="20"/>
-      <c r="H133" s="20"/>
-      <c r="I133" s="20"/>
-      <c r="J133" s="20"/>
-      <c r="K133" s="20"/>
-      <c r="L133" s="20"/>
-      <c r="M133" s="20"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="15"/>
+      <c r="K133" s="15"/>
+      <c r="L133" s="15"/>
+      <c r="M133" s="15"/>
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
@@ -6471,18 +6485,18 @@
     </row>
     <row r="134" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="B134" s="20"/>
-      <c r="C134" s="20"/>
-      <c r="D134" s="20"/>
-      <c r="E134" s="20"/>
-      <c r="F134" s="20"/>
-      <c r="G134" s="20"/>
-      <c r="H134" s="20"/>
-      <c r="I134" s="20"/>
-      <c r="J134" s="20"/>
-      <c r="K134" s="20"/>
-      <c r="L134" s="20"/>
-      <c r="M134" s="20"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="15"/>
+      <c r="K134" s="15"/>
+      <c r="L134" s="15"/>
+      <c r="M134" s="15"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
@@ -6515,18 +6529,18 @@
     </row>
     <row r="135" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="20"/>
-      <c r="D135" s="20"/>
-      <c r="E135" s="20"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="20"/>
-      <c r="H135" s="20"/>
-      <c r="I135" s="20"/>
-      <c r="J135" s="20"/>
-      <c r="K135" s="20"/>
-      <c r="L135" s="20"/>
-      <c r="M135" s="20"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="15"/>
+      <c r="K135" s="15"/>
+      <c r="L135" s="15"/>
+      <c r="M135" s="15"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
@@ -6559,18 +6573,18 @@
     </row>
     <row r="136" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="20"/>
-      <c r="D136" s="20"/>
-      <c r="E136" s="20"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="20"/>
-      <c r="H136" s="20"/>
-      <c r="I136" s="20"/>
-      <c r="J136" s="20"/>
-      <c r="K136" s="20"/>
-      <c r="L136" s="20"/>
-      <c r="M136" s="20"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="15"/>
+      <c r="K136" s="15"/>
+      <c r="L136" s="15"/>
+      <c r="M136" s="15"/>
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
@@ -6603,18 +6617,18 @@
     </row>
     <row r="137" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="20"/>
-      <c r="E137" s="20"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="20"/>
-      <c r="H137" s="20"/>
-      <c r="I137" s="20"/>
-      <c r="J137" s="20"/>
-      <c r="K137" s="20"/>
-      <c r="L137" s="20"/>
-      <c r="M137" s="20"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="15"/>
+      <c r="K137" s="15"/>
+      <c r="L137" s="15"/>
+      <c r="M137" s="15"/>
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
@@ -6647,18 +6661,18 @@
     </row>
     <row r="138" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="20"/>
-      <c r="C138" s="20"/>
-      <c r="D138" s="20"/>
-      <c r="E138" s="20"/>
-      <c r="F138" s="20"/>
-      <c r="G138" s="20"/>
-      <c r="H138" s="20"/>
-      <c r="I138" s="20"/>
-      <c r="J138" s="20"/>
-      <c r="K138" s="20"/>
-      <c r="L138" s="20"/>
-      <c r="M138" s="20"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="15"/>
+      <c r="K138" s="15"/>
+      <c r="L138" s="15"/>
+      <c r="M138" s="15"/>
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
@@ -6691,18 +6705,18 @@
     </row>
     <row r="139" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="B139" s="20"/>
-      <c r="C139" s="20"/>
-      <c r="D139" s="20"/>
-      <c r="E139" s="20"/>
-      <c r="F139" s="20"/>
-      <c r="G139" s="20"/>
-      <c r="H139" s="20"/>
-      <c r="I139" s="20"/>
-      <c r="J139" s="20"/>
-      <c r="K139" s="20"/>
-      <c r="L139" s="20"/>
-      <c r="M139" s="20"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="15"/>
+      <c r="L139" s="15"/>
+      <c r="M139" s="15"/>
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
@@ -6735,18 +6749,18 @@
     </row>
     <row r="140" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="B140" s="20"/>
-      <c r="C140" s="20"/>
-      <c r="D140" s="20"/>
-      <c r="E140" s="20"/>
-      <c r="F140" s="20"/>
-      <c r="G140" s="20"/>
-      <c r="H140" s="20"/>
-      <c r="I140" s="20"/>
-      <c r="J140" s="20"/>
-      <c r="K140" s="20"/>
-      <c r="L140" s="20"/>
-      <c r="M140" s="20"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="15"/>
+      <c r="K140" s="15"/>
+      <c r="L140" s="15"/>
+      <c r="M140" s="15"/>
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
@@ -6779,18 +6793,18 @@
     </row>
     <row r="141" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="B141" s="20"/>
-      <c r="C141" s="20"/>
-      <c r="D141" s="20"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="20"/>
-      <c r="G141" s="20"/>
-      <c r="H141" s="20"/>
-      <c r="I141" s="20"/>
-      <c r="J141" s="20"/>
-      <c r="K141" s="20"/>
-      <c r="L141" s="20"/>
-      <c r="M141" s="20"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="15"/>
+      <c r="K141" s="15"/>
+      <c r="L141" s="15"/>
+      <c r="M141" s="15"/>
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
@@ -6823,18 +6837,18 @@
     </row>
     <row r="142" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="20"/>
-      <c r="D142" s="20"/>
-      <c r="E142" s="20"/>
-      <c r="F142" s="20"/>
-      <c r="G142" s="20"/>
-      <c r="H142" s="20"/>
-      <c r="I142" s="20"/>
-      <c r="J142" s="20"/>
-      <c r="K142" s="20"/>
-      <c r="L142" s="20"/>
-      <c r="M142" s="20"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="15"/>
+      <c r="L142" s="15"/>
+      <c r="M142" s="15"/>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
@@ -6867,18 +6881,18 @@
     </row>
     <row r="143" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="B143" s="20"/>
-      <c r="C143" s="20"/>
-      <c r="D143" s="20"/>
-      <c r="E143" s="20"/>
-      <c r="F143" s="20"/>
-      <c r="G143" s="20"/>
-      <c r="H143" s="20"/>
-      <c r="I143" s="20"/>
-      <c r="J143" s="20"/>
-      <c r="K143" s="20"/>
-      <c r="L143" s="20"/>
-      <c r="M143" s="20"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="15"/>
+      <c r="L143" s="15"/>
+      <c r="M143" s="15"/>
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
@@ -6911,18 +6925,18 @@
     </row>
     <row r="144" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="B144" s="20"/>
-      <c r="C144" s="20"/>
-      <c r="D144" s="20"/>
-      <c r="E144" s="20"/>
-      <c r="F144" s="20"/>
-      <c r="G144" s="20"/>
-      <c r="H144" s="20"/>
-      <c r="I144" s="20"/>
-      <c r="J144" s="20"/>
-      <c r="K144" s="20"/>
-      <c r="L144" s="20"/>
-      <c r="M144" s="20"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="15"/>
+      <c r="K144" s="15"/>
+      <c r="L144" s="15"/>
+      <c r="M144" s="15"/>
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
@@ -6955,18 +6969,18 @@
     </row>
     <row r="145" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="B145" s="20"/>
-      <c r="C145" s="20"/>
-      <c r="D145" s="20"/>
-      <c r="E145" s="20"/>
-      <c r="F145" s="20"/>
-      <c r="G145" s="20"/>
-      <c r="H145" s="20"/>
-      <c r="I145" s="20"/>
-      <c r="J145" s="20"/>
-      <c r="K145" s="20"/>
-      <c r="L145" s="20"/>
-      <c r="M145" s="20"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="15"/>
+      <c r="K145" s="15"/>
+      <c r="L145" s="15"/>
+      <c r="M145" s="15"/>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
@@ -6999,18 +7013,18 @@
     </row>
     <row r="146" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="B146" s="20"/>
-      <c r="C146" s="20"/>
-      <c r="D146" s="20"/>
-      <c r="E146" s="20"/>
-      <c r="F146" s="20"/>
-      <c r="G146" s="20"/>
-      <c r="H146" s="20"/>
-      <c r="I146" s="20"/>
-      <c r="J146" s="20"/>
-      <c r="K146" s="20"/>
-      <c r="L146" s="20"/>
-      <c r="M146" s="20"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="15"/>
+      <c r="K146" s="15"/>
+      <c r="L146" s="15"/>
+      <c r="M146" s="15"/>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
@@ -7043,18 +7057,18 @@
     </row>
     <row r="147" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="B147" s="20"/>
-      <c r="C147" s="20"/>
-      <c r="D147" s="20"/>
-      <c r="E147" s="20"/>
-      <c r="F147" s="20"/>
-      <c r="G147" s="20"/>
-      <c r="H147" s="20"/>
-      <c r="I147" s="20"/>
-      <c r="J147" s="20"/>
-      <c r="K147" s="20"/>
-      <c r="L147" s="20"/>
-      <c r="M147" s="20"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="15"/>
+      <c r="K147" s="15"/>
+      <c r="L147" s="15"/>
+      <c r="M147" s="15"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
@@ -7087,18 +7101,18 @@
     </row>
     <row r="148" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="B148" s="20"/>
-      <c r="C148" s="20"/>
-      <c r="D148" s="20"/>
-      <c r="E148" s="20"/>
-      <c r="F148" s="20"/>
-      <c r="G148" s="20"/>
-      <c r="H148" s="20"/>
-      <c r="I148" s="20"/>
-      <c r="J148" s="20"/>
-      <c r="K148" s="20"/>
-      <c r="L148" s="20"/>
-      <c r="M148" s="20"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="15"/>
+      <c r="K148" s="15"/>
+      <c r="L148" s="15"/>
+      <c r="M148" s="15"/>
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
@@ -7131,18 +7145,18 @@
     </row>
     <row r="149" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="B149" s="20"/>
-      <c r="C149" s="20"/>
-      <c r="D149" s="20"/>
-      <c r="E149" s="20"/>
-      <c r="F149" s="20"/>
-      <c r="G149" s="20"/>
-      <c r="H149" s="20"/>
-      <c r="I149" s="20"/>
-      <c r="J149" s="20"/>
-      <c r="K149" s="20"/>
-      <c r="L149" s="20"/>
-      <c r="M149" s="20"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="15"/>
+      <c r="K149" s="15"/>
+      <c r="L149" s="15"/>
+      <c r="M149" s="15"/>
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
@@ -7175,18 +7189,18 @@
     </row>
     <row r="150" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="B150" s="20"/>
-      <c r="C150" s="20"/>
-      <c r="D150" s="20"/>
-      <c r="E150" s="20"/>
-      <c r="F150" s="20"/>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20"/>
-      <c r="I150" s="20"/>
-      <c r="J150" s="20"/>
-      <c r="K150" s="20"/>
-      <c r="L150" s="20"/>
-      <c r="M150" s="20"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="15"/>
+      <c r="K150" s="15"/>
+      <c r="L150" s="15"/>
+      <c r="M150" s="15"/>
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
@@ -7219,18 +7233,18 @@
     </row>
     <row r="151" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
-      <c r="B151" s="20"/>
-      <c r="C151" s="20"/>
-      <c r="D151" s="20"/>
-      <c r="E151" s="20"/>
-      <c r="F151" s="20"/>
-      <c r="G151" s="20"/>
-      <c r="H151" s="20"/>
-      <c r="I151" s="20"/>
-      <c r="J151" s="20"/>
-      <c r="K151" s="20"/>
-      <c r="L151" s="20"/>
-      <c r="M151" s="20"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="15"/>
+      <c r="K151" s="15"/>
+      <c r="L151" s="15"/>
+      <c r="M151" s="15"/>
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
@@ -7263,18 +7277,18 @@
     </row>
     <row r="152" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
-      <c r="B152" s="20"/>
-      <c r="C152" s="20"/>
-      <c r="D152" s="20"/>
-      <c r="E152" s="20"/>
-      <c r="F152" s="20"/>
-      <c r="G152" s="20"/>
-      <c r="H152" s="20"/>
-      <c r="I152" s="20"/>
-      <c r="J152" s="20"/>
-      <c r="K152" s="20"/>
-      <c r="L152" s="20"/>
-      <c r="M152" s="20"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="15"/>
+      <c r="K152" s="15"/>
+      <c r="L152" s="15"/>
+      <c r="M152" s="15"/>
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
@@ -7307,18 +7321,18 @@
     </row>
     <row r="153" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
-      <c r="B153" s="20"/>
-      <c r="C153" s="20"/>
-      <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="20"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20"/>
-      <c r="I153" s="20"/>
-      <c r="J153" s="20"/>
-      <c r="K153" s="20"/>
-      <c r="L153" s="20"/>
-      <c r="M153" s="20"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="15"/>
+      <c r="K153" s="15"/>
+      <c r="L153" s="15"/>
+      <c r="M153" s="15"/>
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
@@ -7351,18 +7365,18 @@
     </row>
     <row r="154" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
-      <c r="B154" s="20"/>
-      <c r="C154" s="20"/>
-      <c r="D154" s="20"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="20"/>
-      <c r="G154" s="20"/>
-      <c r="H154" s="20"/>
-      <c r="I154" s="20"/>
-      <c r="J154" s="20"/>
-      <c r="K154" s="20"/>
-      <c r="L154" s="20"/>
-      <c r="M154" s="20"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="15"/>
+      <c r="J154" s="15"/>
+      <c r="K154" s="15"/>
+      <c r="L154" s="15"/>
+      <c r="M154" s="15"/>
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
@@ -7395,18 +7409,18 @@
     </row>
     <row r="155" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
-      <c r="B155" s="20"/>
-      <c r="C155" s="20"/>
-      <c r="D155" s="20"/>
-      <c r="E155" s="20"/>
-      <c r="F155" s="20"/>
-      <c r="G155" s="20"/>
-      <c r="H155" s="20"/>
-      <c r="I155" s="20"/>
-      <c r="J155" s="20"/>
-      <c r="K155" s="20"/>
-      <c r="L155" s="20"/>
-      <c r="M155" s="20"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="15"/>
+      <c r="I155" s="15"/>
+      <c r="J155" s="15"/>
+      <c r="K155" s="15"/>
+      <c r="L155" s="15"/>
+      <c r="M155" s="15"/>
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
@@ -7439,18 +7453,18 @@
     </row>
     <row r="156" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
-      <c r="B156" s="20"/>
-      <c r="C156" s="20"/>
-      <c r="D156" s="20"/>
-      <c r="E156" s="20"/>
-      <c r="F156" s="20"/>
-      <c r="G156" s="20"/>
-      <c r="H156" s="20"/>
-      <c r="I156" s="20"/>
-      <c r="J156" s="20"/>
-      <c r="K156" s="20"/>
-      <c r="L156" s="20"/>
-      <c r="M156" s="20"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="15"/>
+      <c r="K156" s="15"/>
+      <c r="L156" s="15"/>
+      <c r="M156" s="15"/>
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
@@ -7483,18 +7497,18 @@
     </row>
     <row r="157" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
-      <c r="B157" s="20"/>
-      <c r="C157" s="20"/>
-      <c r="D157" s="20"/>
-      <c r="E157" s="20"/>
-      <c r="F157" s="20"/>
-      <c r="G157" s="20"/>
-      <c r="H157" s="20"/>
-      <c r="I157" s="20"/>
-      <c r="J157" s="20"/>
-      <c r="K157" s="20"/>
-      <c r="L157" s="20"/>
-      <c r="M157" s="20"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="15"/>
+      <c r="J157" s="15"/>
+      <c r="K157" s="15"/>
+      <c r="L157" s="15"/>
+      <c r="M157" s="15"/>
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
@@ -7527,18 +7541,18 @@
     </row>
     <row r="158" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
-      <c r="B158" s="20"/>
-      <c r="C158" s="20"/>
-      <c r="D158" s="20"/>
-      <c r="E158" s="20"/>
-      <c r="F158" s="20"/>
-      <c r="G158" s="20"/>
-      <c r="H158" s="20"/>
-      <c r="I158" s="20"/>
-      <c r="J158" s="20"/>
-      <c r="K158" s="20"/>
-      <c r="L158" s="20"/>
-      <c r="M158" s="20"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="15"/>
+      <c r="K158" s="15"/>
+      <c r="L158" s="15"/>
+      <c r="M158" s="15"/>
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
@@ -7571,18 +7585,18 @@
     </row>
     <row r="159" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
-      <c r="B159" s="20"/>
-      <c r="C159" s="20"/>
-      <c r="D159" s="20"/>
-      <c r="E159" s="20"/>
-      <c r="F159" s="20"/>
-      <c r="G159" s="20"/>
-      <c r="H159" s="20"/>
-      <c r="I159" s="20"/>
-      <c r="J159" s="20"/>
-      <c r="K159" s="20"/>
-      <c r="L159" s="20"/>
-      <c r="M159" s="20"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="15"/>
+      <c r="I159" s="15"/>
+      <c r="J159" s="15"/>
+      <c r="K159" s="15"/>
+      <c r="L159" s="15"/>
+      <c r="M159" s="15"/>
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
@@ -7615,18 +7629,18 @@
     </row>
     <row r="160" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
-      <c r="B160" s="20"/>
-      <c r="C160" s="20"/>
-      <c r="D160" s="20"/>
-      <c r="E160" s="20"/>
-      <c r="F160" s="20"/>
-      <c r="G160" s="20"/>
-      <c r="H160" s="20"/>
-      <c r="I160" s="20"/>
-      <c r="J160" s="20"/>
-      <c r="K160" s="20"/>
-      <c r="L160" s="20"/>
-      <c r="M160" s="20"/>
+      <c r="B160" s="15"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
+      <c r="J160" s="15"/>
+      <c r="K160" s="15"/>
+      <c r="L160" s="15"/>
+      <c r="M160" s="15"/>
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
@@ -7659,18 +7673,18 @@
     </row>
     <row r="161" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
-      <c r="B161" s="20"/>
-      <c r="C161" s="20"/>
-      <c r="D161" s="20"/>
-      <c r="E161" s="20"/>
-      <c r="F161" s="20"/>
-      <c r="G161" s="20"/>
-      <c r="H161" s="20"/>
-      <c r="I161" s="20"/>
-      <c r="J161" s="20"/>
-      <c r="K161" s="20"/>
-      <c r="L161" s="20"/>
-      <c r="M161" s="20"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="15"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="15"/>
+      <c r="K161" s="15"/>
+      <c r="L161" s="15"/>
+      <c r="M161" s="15"/>
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
@@ -7703,18 +7717,18 @@
     </row>
     <row r="162" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
-      <c r="B162" s="20"/>
-      <c r="C162" s="20"/>
-      <c r="D162" s="20"/>
-      <c r="E162" s="20"/>
-      <c r="F162" s="20"/>
-      <c r="G162" s="20"/>
-      <c r="H162" s="20"/>
-      <c r="I162" s="20"/>
-      <c r="J162" s="20"/>
-      <c r="K162" s="20"/>
-      <c r="L162" s="20"/>
-      <c r="M162" s="20"/>
+      <c r="B162" s="15"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="15"/>
+      <c r="J162" s="15"/>
+      <c r="K162" s="15"/>
+      <c r="L162" s="15"/>
+      <c r="M162" s="15"/>
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
@@ -7747,18 +7761,18 @@
     </row>
     <row r="163" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
-      <c r="B163" s="20"/>
-      <c r="C163" s="20"/>
-      <c r="D163" s="20"/>
-      <c r="E163" s="20"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
-      <c r="H163" s="20"/>
-      <c r="I163" s="20"/>
-      <c r="J163" s="20"/>
-      <c r="K163" s="20"/>
-      <c r="L163" s="20"/>
-      <c r="M163" s="20"/>
+      <c r="B163" s="15"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="15"/>
+      <c r="I163" s="15"/>
+      <c r="J163" s="15"/>
+      <c r="K163" s="15"/>
+      <c r="L163" s="15"/>
+      <c r="M163" s="15"/>
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
@@ -7791,18 +7805,18 @@
     </row>
     <row r="164" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
-      <c r="B164" s="20"/>
-      <c r="C164" s="20"/>
-      <c r="D164" s="20"/>
-      <c r="E164" s="20"/>
-      <c r="F164" s="20"/>
-      <c r="G164" s="20"/>
-      <c r="H164" s="20"/>
-      <c r="I164" s="20"/>
-      <c r="J164" s="20"/>
-      <c r="K164" s="20"/>
-      <c r="L164" s="20"/>
-      <c r="M164" s="20"/>
+      <c r="B164" s="15"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="15"/>
+      <c r="I164" s="15"/>
+      <c r="J164" s="15"/>
+      <c r="K164" s="15"/>
+      <c r="L164" s="15"/>
+      <c r="M164" s="15"/>
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
@@ -7835,18 +7849,18 @@
     </row>
     <row r="165" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
-      <c r="B165" s="20"/>
-      <c r="C165" s="20"/>
-      <c r="D165" s="20"/>
-      <c r="E165" s="20"/>
-      <c r="F165" s="20"/>
-      <c r="G165" s="20"/>
-      <c r="H165" s="20"/>
-      <c r="I165" s="20"/>
-      <c r="J165" s="20"/>
-      <c r="K165" s="20"/>
-      <c r="L165" s="20"/>
-      <c r="M165" s="20"/>
+      <c r="B165" s="15"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="15"/>
+      <c r="I165" s="15"/>
+      <c r="J165" s="15"/>
+      <c r="K165" s="15"/>
+      <c r="L165" s="15"/>
+      <c r="M165" s="15"/>
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
@@ -7879,18 +7893,18 @@
     </row>
     <row r="166" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
-      <c r="B166" s="20"/>
-      <c r="C166" s="20"/>
-      <c r="D166" s="20"/>
-      <c r="E166" s="20"/>
-      <c r="F166" s="20"/>
-      <c r="G166" s="20"/>
-      <c r="H166" s="20"/>
-      <c r="I166" s="20"/>
-      <c r="J166" s="20"/>
-      <c r="K166" s="20"/>
-      <c r="L166" s="20"/>
-      <c r="M166" s="20"/>
+      <c r="B166" s="15"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="15"/>
+      <c r="I166" s="15"/>
+      <c r="J166" s="15"/>
+      <c r="K166" s="15"/>
+      <c r="L166" s="15"/>
+      <c r="M166" s="15"/>
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
@@ -7923,18 +7937,18 @@
     </row>
     <row r="167" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
-      <c r="B167" s="20"/>
-      <c r="C167" s="20"/>
-      <c r="D167" s="20"/>
-      <c r="E167" s="20"/>
-      <c r="F167" s="20"/>
-      <c r="G167" s="20"/>
-      <c r="H167" s="20"/>
-      <c r="I167" s="20"/>
-      <c r="J167" s="20"/>
-      <c r="K167" s="20"/>
-      <c r="L167" s="20"/>
-      <c r="M167" s="20"/>
+      <c r="B167" s="15"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="15"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="15"/>
+      <c r="K167" s="15"/>
+      <c r="L167" s="15"/>
+      <c r="M167" s="15"/>
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
@@ -7967,18 +7981,18 @@
     </row>
     <row r="168" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
-      <c r="B168" s="20"/>
-      <c r="C168" s="20"/>
-      <c r="D168" s="20"/>
-      <c r="E168" s="20"/>
-      <c r="F168" s="20"/>
-      <c r="G168" s="20"/>
-      <c r="H168" s="20"/>
-      <c r="I168" s="20"/>
-      <c r="J168" s="20"/>
-      <c r="K168" s="20"/>
-      <c r="L168" s="20"/>
-      <c r="M168" s="20"/>
+      <c r="B168" s="15"/>
+      <c r="C168" s="15"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="15"/>
+      <c r="I168" s="15"/>
+      <c r="J168" s="15"/>
+      <c r="K168" s="15"/>
+      <c r="L168" s="15"/>
+      <c r="M168" s="15"/>
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
@@ -8011,18 +8025,18 @@
     </row>
     <row r="169" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
-      <c r="B169" s="20"/>
-      <c r="C169" s="20"/>
-      <c r="D169" s="20"/>
-      <c r="E169" s="20"/>
-      <c r="F169" s="20"/>
-      <c r="G169" s="20"/>
-      <c r="H169" s="20"/>
-      <c r="I169" s="20"/>
-      <c r="J169" s="20"/>
-      <c r="K169" s="20"/>
-      <c r="L169" s="20"/>
-      <c r="M169" s="20"/>
+      <c r="B169" s="15"/>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="15"/>
+      <c r="I169" s="15"/>
+      <c r="J169" s="15"/>
+      <c r="K169" s="15"/>
+      <c r="L169" s="15"/>
+      <c r="M169" s="15"/>
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
@@ -8055,18 +8069,18 @@
     </row>
     <row r="170" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
-      <c r="B170" s="20"/>
-      <c r="C170" s="20"/>
-      <c r="D170" s="20"/>
-      <c r="E170" s="20"/>
-      <c r="F170" s="20"/>
-      <c r="G170" s="20"/>
-      <c r="H170" s="20"/>
-      <c r="I170" s="20"/>
-      <c r="J170" s="20"/>
-      <c r="K170" s="20"/>
-      <c r="L170" s="20"/>
-      <c r="M170" s="20"/>
+      <c r="B170" s="15"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="15"/>
+      <c r="I170" s="15"/>
+      <c r="J170" s="15"/>
+      <c r="K170" s="15"/>
+      <c r="L170" s="15"/>
+      <c r="M170" s="15"/>
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
@@ -8099,18 +8113,18 @@
     </row>
     <row r="171" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
-      <c r="B171" s="20"/>
-      <c r="C171" s="20"/>
-      <c r="D171" s="20"/>
-      <c r="E171" s="20"/>
-      <c r="F171" s="20"/>
-      <c r="G171" s="20"/>
-      <c r="H171" s="20"/>
-      <c r="I171" s="20"/>
-      <c r="J171" s="20"/>
-      <c r="K171" s="20"/>
-      <c r="L171" s="20"/>
-      <c r="M171" s="20"/>
+      <c r="B171" s="15"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="15"/>
+      <c r="I171" s="15"/>
+      <c r="J171" s="15"/>
+      <c r="K171" s="15"/>
+      <c r="L171" s="15"/>
+      <c r="M171" s="15"/>
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
@@ -8143,18 +8157,18 @@
     </row>
     <row r="172" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
-      <c r="B172" s="20"/>
-      <c r="C172" s="20"/>
-      <c r="D172" s="20"/>
-      <c r="E172" s="20"/>
-      <c r="F172" s="20"/>
-      <c r="G172" s="20"/>
-      <c r="H172" s="20"/>
-      <c r="I172" s="20"/>
-      <c r="J172" s="20"/>
-      <c r="K172" s="20"/>
-      <c r="L172" s="20"/>
-      <c r="M172" s="20"/>
+      <c r="B172" s="15"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="15"/>
+      <c r="I172" s="15"/>
+      <c r="J172" s="15"/>
+      <c r="K172" s="15"/>
+      <c r="L172" s="15"/>
+      <c r="M172" s="15"/>
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
@@ -8187,18 +8201,18 @@
     </row>
     <row r="173" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
-      <c r="B173" s="20"/>
-      <c r="C173" s="20"/>
-      <c r="D173" s="20"/>
-      <c r="E173" s="20"/>
-      <c r="F173" s="20"/>
-      <c r="G173" s="20"/>
-      <c r="H173" s="20"/>
-      <c r="I173" s="20"/>
-      <c r="J173" s="20"/>
-      <c r="K173" s="20"/>
-      <c r="L173" s="20"/>
-      <c r="M173" s="20"/>
+      <c r="B173" s="15"/>
+      <c r="C173" s="15"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="15"/>
+      <c r="I173" s="15"/>
+      <c r="J173" s="15"/>
+      <c r="K173" s="15"/>
+      <c r="L173" s="15"/>
+      <c r="M173" s="15"/>
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
@@ -8231,18 +8245,18 @@
     </row>
     <row r="174" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
-      <c r="B174" s="20"/>
-      <c r="C174" s="20"/>
-      <c r="D174" s="20"/>
-      <c r="E174" s="20"/>
-      <c r="F174" s="20"/>
-      <c r="G174" s="20"/>
-      <c r="H174" s="20"/>
-      <c r="I174" s="20"/>
-      <c r="J174" s="20"/>
-      <c r="K174" s="20"/>
-      <c r="L174" s="20"/>
-      <c r="M174" s="20"/>
+      <c r="B174" s="15"/>
+      <c r="C174" s="15"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="15"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="15"/>
+      <c r="I174" s="15"/>
+      <c r="J174" s="15"/>
+      <c r="K174" s="15"/>
+      <c r="L174" s="15"/>
+      <c r="M174" s="15"/>
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
@@ -8275,18 +8289,18 @@
     </row>
     <row r="175" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
-      <c r="B175" s="20"/>
-      <c r="C175" s="20"/>
-      <c r="D175" s="20"/>
-      <c r="E175" s="20"/>
-      <c r="F175" s="20"/>
-      <c r="G175" s="20"/>
-      <c r="H175" s="20"/>
-      <c r="I175" s="20"/>
-      <c r="J175" s="20"/>
-      <c r="K175" s="20"/>
-      <c r="L175" s="20"/>
-      <c r="M175" s="20"/>
+      <c r="B175" s="15"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="15"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="15"/>
+      <c r="I175" s="15"/>
+      <c r="J175" s="15"/>
+      <c r="K175" s="15"/>
+      <c r="L175" s="15"/>
+      <c r="M175" s="15"/>
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
@@ -8319,18 +8333,18 @@
     </row>
     <row r="176" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
-      <c r="B176" s="20"/>
-      <c r="C176" s="20"/>
-      <c r="D176" s="20"/>
-      <c r="E176" s="20"/>
-      <c r="F176" s="20"/>
-      <c r="G176" s="20"/>
-      <c r="H176" s="20"/>
-      <c r="I176" s="20"/>
-      <c r="J176" s="20"/>
-      <c r="K176" s="20"/>
-      <c r="L176" s="20"/>
-      <c r="M176" s="20"/>
+      <c r="B176" s="15"/>
+      <c r="C176" s="15"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="15"/>
+      <c r="H176" s="15"/>
+      <c r="I176" s="15"/>
+      <c r="J176" s="15"/>
+      <c r="K176" s="15"/>
+      <c r="L176" s="15"/>
+      <c r="M176" s="15"/>
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
@@ -8363,18 +8377,18 @@
     </row>
     <row r="177" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
-      <c r="D177" s="20"/>
-      <c r="E177" s="20"/>
-      <c r="F177" s="20"/>
-      <c r="G177" s="20"/>
-      <c r="H177" s="20"/>
-      <c r="I177" s="20"/>
-      <c r="J177" s="20"/>
-      <c r="K177" s="20"/>
-      <c r="L177" s="20"/>
-      <c r="M177" s="20"/>
+      <c r="B177" s="15"/>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="15"/>
+      <c r="I177" s="15"/>
+      <c r="J177" s="15"/>
+      <c r="K177" s="15"/>
+      <c r="L177" s="15"/>
+      <c r="M177" s="15"/>
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
@@ -8407,18 +8421,18 @@
     </row>
     <row r="178" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
-      <c r="B178" s="20"/>
-      <c r="C178" s="20"/>
-      <c r="D178" s="20"/>
-      <c r="E178" s="20"/>
-      <c r="F178" s="20"/>
-      <c r="G178" s="20"/>
-      <c r="H178" s="20"/>
-      <c r="I178" s="20"/>
-      <c r="J178" s="20"/>
-      <c r="K178" s="20"/>
-      <c r="L178" s="20"/>
-      <c r="M178" s="20"/>
+      <c r="B178" s="15"/>
+      <c r="C178" s="15"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="15"/>
+      <c r="I178" s="15"/>
+      <c r="J178" s="15"/>
+      <c r="K178" s="15"/>
+      <c r="L178" s="15"/>
+      <c r="M178" s="15"/>
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
@@ -8451,18 +8465,18 @@
     </row>
     <row r="179" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
-      <c r="B179" s="20"/>
-      <c r="C179" s="20"/>
-      <c r="D179" s="20"/>
-      <c r="E179" s="20"/>
-      <c r="F179" s="20"/>
-      <c r="G179" s="20"/>
-      <c r="H179" s="20"/>
-      <c r="I179" s="20"/>
-      <c r="J179" s="20"/>
-      <c r="K179" s="20"/>
-      <c r="L179" s="20"/>
-      <c r="M179" s="20"/>
+      <c r="B179" s="15"/>
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="15"/>
+      <c r="H179" s="15"/>
+      <c r="I179" s="15"/>
+      <c r="J179" s="15"/>
+      <c r="K179" s="15"/>
+      <c r="L179" s="15"/>
+      <c r="M179" s="15"/>
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
@@ -8495,18 +8509,18 @@
     </row>
     <row r="180" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
-      <c r="B180" s="20"/>
-      <c r="C180" s="20"/>
-      <c r="D180" s="20"/>
-      <c r="E180" s="20"/>
-      <c r="F180" s="20"/>
-      <c r="G180" s="20"/>
-      <c r="H180" s="20"/>
-      <c r="I180" s="20"/>
-      <c r="J180" s="20"/>
-      <c r="K180" s="20"/>
-      <c r="L180" s="20"/>
-      <c r="M180" s="20"/>
+      <c r="B180" s="15"/>
+      <c r="C180" s="15"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="15"/>
+      <c r="H180" s="15"/>
+      <c r="I180" s="15"/>
+      <c r="J180" s="15"/>
+      <c r="K180" s="15"/>
+      <c r="L180" s="15"/>
+      <c r="M180" s="15"/>
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
@@ -8539,18 +8553,18 @@
     </row>
     <row r="181" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
-      <c r="B181" s="20"/>
-      <c r="C181" s="20"/>
-      <c r="D181" s="20"/>
-      <c r="E181" s="20"/>
-      <c r="F181" s="20"/>
-      <c r="G181" s="20"/>
-      <c r="H181" s="20"/>
-      <c r="I181" s="20"/>
-      <c r="J181" s="20"/>
-      <c r="K181" s="20"/>
-      <c r="L181" s="20"/>
-      <c r="M181" s="20"/>
+      <c r="B181" s="15"/>
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="15"/>
+      <c r="H181" s="15"/>
+      <c r="I181" s="15"/>
+      <c r="J181" s="15"/>
+      <c r="K181" s="15"/>
+      <c r="L181" s="15"/>
+      <c r="M181" s="15"/>
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
@@ -8583,18 +8597,18 @@
     </row>
     <row r="182" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
-      <c r="B182" s="20"/>
-      <c r="C182" s="20"/>
-      <c r="D182" s="20"/>
-      <c r="E182" s="20"/>
-      <c r="F182" s="20"/>
-      <c r="G182" s="20"/>
-      <c r="H182" s="20"/>
-      <c r="I182" s="20"/>
-      <c r="J182" s="20"/>
-      <c r="K182" s="20"/>
-      <c r="L182" s="20"/>
-      <c r="M182" s="20"/>
+      <c r="B182" s="15"/>
+      <c r="C182" s="15"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="15"/>
+      <c r="H182" s="15"/>
+      <c r="I182" s="15"/>
+      <c r="J182" s="15"/>
+      <c r="K182" s="15"/>
+      <c r="L182" s="15"/>
+      <c r="M182" s="15"/>
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
@@ -8627,18 +8641,18 @@
     </row>
     <row r="183" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
-      <c r="B183" s="20"/>
-      <c r="C183" s="20"/>
-      <c r="D183" s="20"/>
-      <c r="E183" s="20"/>
-      <c r="F183" s="20"/>
-      <c r="G183" s="20"/>
-      <c r="H183" s="20"/>
-      <c r="I183" s="20"/>
-      <c r="J183" s="20"/>
-      <c r="K183" s="20"/>
-      <c r="L183" s="20"/>
-      <c r="M183" s="20"/>
+      <c r="B183" s="15"/>
+      <c r="C183" s="15"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="15"/>
+      <c r="I183" s="15"/>
+      <c r="J183" s="15"/>
+      <c r="K183" s="15"/>
+      <c r="L183" s="15"/>
+      <c r="M183" s="15"/>
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
@@ -8671,18 +8685,18 @@
     </row>
     <row r="184" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
-      <c r="B184" s="20"/>
-      <c r="C184" s="20"/>
-      <c r="D184" s="20"/>
-      <c r="E184" s="20"/>
-      <c r="F184" s="20"/>
-      <c r="G184" s="20"/>
-      <c r="H184" s="20"/>
-      <c r="I184" s="20"/>
-      <c r="J184" s="20"/>
-      <c r="K184" s="20"/>
-      <c r="L184" s="20"/>
-      <c r="M184" s="20"/>
+      <c r="B184" s="15"/>
+      <c r="C184" s="15"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="15"/>
+      <c r="I184" s="15"/>
+      <c r="J184" s="15"/>
+      <c r="K184" s="15"/>
+      <c r="L184" s="15"/>
+      <c r="M184" s="15"/>
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
@@ -8715,18 +8729,18 @@
     </row>
     <row r="185" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
-      <c r="B185" s="20"/>
-      <c r="C185" s="20"/>
-      <c r="D185" s="20"/>
-      <c r="E185" s="20"/>
-      <c r="F185" s="20"/>
-      <c r="G185" s="20"/>
-      <c r="H185" s="20"/>
-      <c r="I185" s="20"/>
-      <c r="J185" s="20"/>
-      <c r="K185" s="20"/>
-      <c r="L185" s="20"/>
-      <c r="M185" s="20"/>
+      <c r="B185" s="15"/>
+      <c r="C185" s="15"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="15"/>
+      <c r="H185" s="15"/>
+      <c r="I185" s="15"/>
+      <c r="J185" s="15"/>
+      <c r="K185" s="15"/>
+      <c r="L185" s="15"/>
+      <c r="M185" s="15"/>
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
@@ -8759,18 +8773,18 @@
     </row>
     <row r="186" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
-      <c r="B186" s="20"/>
-      <c r="C186" s="20"/>
-      <c r="D186" s="20"/>
-      <c r="E186" s="20"/>
-      <c r="F186" s="20"/>
-      <c r="G186" s="20"/>
-      <c r="H186" s="20"/>
-      <c r="I186" s="20"/>
-      <c r="J186" s="20"/>
-      <c r="K186" s="20"/>
-      <c r="L186" s="20"/>
-      <c r="M186" s="20"/>
+      <c r="B186" s="15"/>
+      <c r="C186" s="15"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+      <c r="I186" s="15"/>
+      <c r="J186" s="15"/>
+      <c r="K186" s="15"/>
+      <c r="L186" s="15"/>
+      <c r="M186" s="15"/>
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
@@ -8803,18 +8817,18 @@
     </row>
     <row r="187" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
-      <c r="B187" s="20"/>
-      <c r="C187" s="20"/>
-      <c r="D187" s="20"/>
-      <c r="E187" s="20"/>
-      <c r="F187" s="20"/>
-      <c r="G187" s="20"/>
-      <c r="H187" s="20"/>
-      <c r="I187" s="20"/>
-      <c r="J187" s="20"/>
-      <c r="K187" s="20"/>
-      <c r="L187" s="20"/>
-      <c r="M187" s="20"/>
+      <c r="B187" s="15"/>
+      <c r="C187" s="15"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
+      <c r="I187" s="15"/>
+      <c r="J187" s="15"/>
+      <c r="K187" s="15"/>
+      <c r="L187" s="15"/>
+      <c r="M187" s="15"/>
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
@@ -8847,18 +8861,18 @@
     </row>
     <row r="188" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
-      <c r="B188" s="20"/>
-      <c r="C188" s="20"/>
-      <c r="D188" s="20"/>
-      <c r="E188" s="20"/>
-      <c r="F188" s="20"/>
-      <c r="G188" s="20"/>
-      <c r="H188" s="20"/>
-      <c r="I188" s="20"/>
-      <c r="J188" s="20"/>
-      <c r="K188" s="20"/>
-      <c r="L188" s="20"/>
-      <c r="M188" s="20"/>
+      <c r="B188" s="15"/>
+      <c r="C188" s="15"/>
+      <c r="D188" s="15"/>
+      <c r="E188" s="15"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="15"/>
+      <c r="H188" s="15"/>
+      <c r="I188" s="15"/>
+      <c r="J188" s="15"/>
+      <c r="K188" s="15"/>
+      <c r="L188" s="15"/>
+      <c r="M188" s="15"/>
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
@@ -8891,18 +8905,18 @@
     </row>
     <row r="189" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
-      <c r="B189" s="20"/>
-      <c r="C189" s="20"/>
-      <c r="D189" s="20"/>
-      <c r="E189" s="20"/>
-      <c r="F189" s="20"/>
-      <c r="G189" s="20"/>
-      <c r="H189" s="20"/>
-      <c r="I189" s="20"/>
-      <c r="J189" s="20"/>
-      <c r="K189" s="20"/>
-      <c r="L189" s="20"/>
-      <c r="M189" s="20"/>
+      <c r="B189" s="15"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="15"/>
+      <c r="G189" s="15"/>
+      <c r="H189" s="15"/>
+      <c r="I189" s="15"/>
+      <c r="J189" s="15"/>
+      <c r="K189" s="15"/>
+      <c r="L189" s="15"/>
+      <c r="M189" s="15"/>
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
@@ -8935,18 +8949,18 @@
     </row>
     <row r="190" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
-      <c r="B190" s="20"/>
-      <c r="C190" s="20"/>
-      <c r="D190" s="20"/>
-      <c r="E190" s="20"/>
-      <c r="F190" s="20"/>
-      <c r="G190" s="20"/>
-      <c r="H190" s="20"/>
-      <c r="I190" s="20"/>
-      <c r="J190" s="20"/>
-      <c r="K190" s="20"/>
-      <c r="L190" s="20"/>
-      <c r="M190" s="20"/>
+      <c r="B190" s="15"/>
+      <c r="C190" s="15"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="15"/>
+      <c r="G190" s="15"/>
+      <c r="H190" s="15"/>
+      <c r="I190" s="15"/>
+      <c r="J190" s="15"/>
+      <c r="K190" s="15"/>
+      <c r="L190" s="15"/>
+      <c r="M190" s="15"/>
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
@@ -8979,18 +8993,18 @@
     </row>
     <row r="191" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
-      <c r="B191" s="20"/>
-      <c r="C191" s="20"/>
-      <c r="D191" s="20"/>
-      <c r="E191" s="20"/>
-      <c r="F191" s="20"/>
-      <c r="G191" s="20"/>
-      <c r="H191" s="20"/>
-      <c r="I191" s="20"/>
-      <c r="J191" s="20"/>
-      <c r="K191" s="20"/>
-      <c r="L191" s="20"/>
-      <c r="M191" s="20"/>
+      <c r="B191" s="15"/>
+      <c r="C191" s="15"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="15"/>
+      <c r="G191" s="15"/>
+      <c r="H191" s="15"/>
+      <c r="I191" s="15"/>
+      <c r="J191" s="15"/>
+      <c r="K191" s="15"/>
+      <c r="L191" s="15"/>
+      <c r="M191" s="15"/>
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
@@ -9023,18 +9037,18 @@
     </row>
     <row r="192" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
-      <c r="B192" s="20"/>
-      <c r="C192" s="20"/>
-      <c r="D192" s="20"/>
-      <c r="E192" s="20"/>
-      <c r="F192" s="20"/>
-      <c r="G192" s="20"/>
-      <c r="H192" s="20"/>
-      <c r="I192" s="20"/>
-      <c r="J192" s="20"/>
-      <c r="K192" s="20"/>
-      <c r="L192" s="20"/>
-      <c r="M192" s="20"/>
+      <c r="B192" s="15"/>
+      <c r="C192" s="15"/>
+      <c r="D192" s="15"/>
+      <c r="E192" s="15"/>
+      <c r="F192" s="15"/>
+      <c r="G192" s="15"/>
+      <c r="H192" s="15"/>
+      <c r="I192" s="15"/>
+      <c r="J192" s="15"/>
+      <c r="K192" s="15"/>
+      <c r="L192" s="15"/>
+      <c r="M192" s="15"/>
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
@@ -9067,18 +9081,18 @@
     </row>
     <row r="193" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
-      <c r="B193" s="20"/>
-      <c r="C193" s="20"/>
-      <c r="D193" s="20"/>
-      <c r="E193" s="20"/>
-      <c r="F193" s="20"/>
-      <c r="G193" s="20"/>
-      <c r="H193" s="20"/>
-      <c r="I193" s="20"/>
-      <c r="J193" s="20"/>
-      <c r="K193" s="20"/>
-      <c r="L193" s="20"/>
-      <c r="M193" s="20"/>
+      <c r="B193" s="15"/>
+      <c r="C193" s="15"/>
+      <c r="D193" s="15"/>
+      <c r="E193" s="15"/>
+      <c r="F193" s="15"/>
+      <c r="G193" s="15"/>
+      <c r="H193" s="15"/>
+      <c r="I193" s="15"/>
+      <c r="J193" s="15"/>
+      <c r="K193" s="15"/>
+      <c r="L193" s="15"/>
+      <c r="M193" s="15"/>
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
@@ -9111,18 +9125,18 @@
     </row>
     <row r="194" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
-      <c r="B194" s="20"/>
-      <c r="C194" s="20"/>
-      <c r="D194" s="20"/>
-      <c r="E194" s="20"/>
-      <c r="F194" s="20"/>
-      <c r="G194" s="20"/>
-      <c r="H194" s="20"/>
-      <c r="I194" s="20"/>
-      <c r="J194" s="20"/>
-      <c r="K194" s="20"/>
-      <c r="L194" s="20"/>
-      <c r="M194" s="20"/>
+      <c r="B194" s="15"/>
+      <c r="C194" s="15"/>
+      <c r="D194" s="15"/>
+      <c r="E194" s="15"/>
+      <c r="F194" s="15"/>
+      <c r="G194" s="15"/>
+      <c r="H194" s="15"/>
+      <c r="I194" s="15"/>
+      <c r="J194" s="15"/>
+      <c r="K194" s="15"/>
+      <c r="L194" s="15"/>
+      <c r="M194" s="15"/>
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
       <c r="P194" s="1"/>
@@ -9155,18 +9169,18 @@
     </row>
     <row r="195" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
-      <c r="B195" s="20"/>
-      <c r="C195" s="20"/>
-      <c r="D195" s="20"/>
-      <c r="E195" s="20"/>
-      <c r="F195" s="20"/>
-      <c r="G195" s="20"/>
-      <c r="H195" s="20"/>
-      <c r="I195" s="20"/>
-      <c r="J195" s="20"/>
-      <c r="K195" s="20"/>
-      <c r="L195" s="20"/>
-      <c r="M195" s="20"/>
+      <c r="B195" s="15"/>
+      <c r="C195" s="15"/>
+      <c r="D195" s="15"/>
+      <c r="E195" s="15"/>
+      <c r="F195" s="15"/>
+      <c r="G195" s="15"/>
+      <c r="H195" s="15"/>
+      <c r="I195" s="15"/>
+      <c r="J195" s="15"/>
+      <c r="K195" s="15"/>
+      <c r="L195" s="15"/>
+      <c r="M195" s="15"/>
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
       <c r="P195" s="1"/>
@@ -9199,18 +9213,18 @@
     </row>
     <row r="196" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
-      <c r="B196" s="20"/>
-      <c r="C196" s="20"/>
-      <c r="D196" s="20"/>
-      <c r="E196" s="20"/>
-      <c r="F196" s="20"/>
-      <c r="G196" s="20"/>
-      <c r="H196" s="20"/>
-      <c r="I196" s="20"/>
-      <c r="J196" s="20"/>
-      <c r="K196" s="20"/>
-      <c r="L196" s="20"/>
-      <c r="M196" s="20"/>
+      <c r="B196" s="15"/>
+      <c r="C196" s="15"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="15"/>
+      <c r="F196" s="15"/>
+      <c r="G196" s="15"/>
+      <c r="H196" s="15"/>
+      <c r="I196" s="15"/>
+      <c r="J196" s="15"/>
+      <c r="K196" s="15"/>
+      <c r="L196" s="15"/>
+      <c r="M196" s="15"/>
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
@@ -9243,18 +9257,18 @@
     </row>
     <row r="197" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
-      <c r="B197" s="20"/>
-      <c r="C197" s="20"/>
-      <c r="D197" s="20"/>
-      <c r="E197" s="20"/>
-      <c r="F197" s="20"/>
-      <c r="G197" s="20"/>
-      <c r="H197" s="20"/>
-      <c r="I197" s="20"/>
-      <c r="J197" s="20"/>
-      <c r="K197" s="20"/>
-      <c r="L197" s="20"/>
-      <c r="M197" s="20"/>
+      <c r="B197" s="15"/>
+      <c r="C197" s="15"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="15"/>
+      <c r="G197" s="15"/>
+      <c r="H197" s="15"/>
+      <c r="I197" s="15"/>
+      <c r="J197" s="15"/>
+      <c r="K197" s="15"/>
+      <c r="L197" s="15"/>
+      <c r="M197" s="15"/>
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
@@ -9287,18 +9301,18 @@
     </row>
     <row r="198" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
-      <c r="B198" s="20"/>
-      <c r="C198" s="20"/>
-      <c r="D198" s="20"/>
-      <c r="E198" s="20"/>
-      <c r="F198" s="20"/>
-      <c r="G198" s="20"/>
-      <c r="H198" s="20"/>
-      <c r="I198" s="20"/>
-      <c r="J198" s="20"/>
-      <c r="K198" s="20"/>
-      <c r="L198" s="20"/>
-      <c r="M198" s="20"/>
+      <c r="B198" s="15"/>
+      <c r="C198" s="15"/>
+      <c r="D198" s="15"/>
+      <c r="E198" s="15"/>
+      <c r="F198" s="15"/>
+      <c r="G198" s="15"/>
+      <c r="H198" s="15"/>
+      <c r="I198" s="15"/>
+      <c r="J198" s="15"/>
+      <c r="K198" s="15"/>
+      <c r="L198" s="15"/>
+      <c r="M198" s="15"/>
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
@@ -9331,18 +9345,18 @@
     </row>
     <row r="199" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
-      <c r="B199" s="20"/>
-      <c r="C199" s="20"/>
-      <c r="D199" s="20"/>
-      <c r="E199" s="20"/>
-      <c r="F199" s="20"/>
-      <c r="G199" s="20"/>
-      <c r="H199" s="20"/>
-      <c r="I199" s="20"/>
-      <c r="J199" s="20"/>
-      <c r="K199" s="20"/>
-      <c r="L199" s="20"/>
-      <c r="M199" s="20"/>
+      <c r="B199" s="15"/>
+      <c r="C199" s="15"/>
+      <c r="D199" s="15"/>
+      <c r="E199" s="15"/>
+      <c r="F199" s="15"/>
+      <c r="G199" s="15"/>
+      <c r="H199" s="15"/>
+      <c r="I199" s="15"/>
+      <c r="J199" s="15"/>
+      <c r="K199" s="15"/>
+      <c r="L199" s="15"/>
+      <c r="M199" s="15"/>
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
@@ -9375,18 +9389,18 @@
     </row>
     <row r="200" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
-      <c r="B200" s="20"/>
-      <c r="C200" s="20"/>
-      <c r="D200" s="20"/>
-      <c r="E200" s="20"/>
-      <c r="F200" s="20"/>
-      <c r="G200" s="20"/>
-      <c r="H200" s="20"/>
-      <c r="I200" s="20"/>
-      <c r="J200" s="20"/>
-      <c r="K200" s="20"/>
-      <c r="L200" s="20"/>
-      <c r="M200" s="20"/>
+      <c r="B200" s="15"/>
+      <c r="C200" s="15"/>
+      <c r="D200" s="15"/>
+      <c r="E200" s="15"/>
+      <c r="F200" s="15"/>
+      <c r="G200" s="15"/>
+      <c r="H200" s="15"/>
+      <c r="I200" s="15"/>
+      <c r="J200" s="15"/>
+      <c r="K200" s="15"/>
+      <c r="L200" s="15"/>
+      <c r="M200" s="15"/>
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
@@ -9419,18 +9433,18 @@
     </row>
     <row r="201" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
-      <c r="B201" s="20"/>
-      <c r="C201" s="20"/>
-      <c r="D201" s="20"/>
-      <c r="E201" s="20"/>
-      <c r="F201" s="20"/>
-      <c r="G201" s="20"/>
-      <c r="H201" s="20"/>
-      <c r="I201" s="20"/>
-      <c r="J201" s="20"/>
-      <c r="K201" s="20"/>
-      <c r="L201" s="20"/>
-      <c r="M201" s="20"/>
+      <c r="B201" s="15"/>
+      <c r="C201" s="15"/>
+      <c r="D201" s="15"/>
+      <c r="E201" s="15"/>
+      <c r="F201" s="15"/>
+      <c r="G201" s="15"/>
+      <c r="H201" s="15"/>
+      <c r="I201" s="15"/>
+      <c r="J201" s="15"/>
+      <c r="K201" s="15"/>
+      <c r="L201" s="15"/>
+      <c r="M201" s="15"/>
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
@@ -9463,18 +9477,18 @@
     </row>
     <row r="202" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
-      <c r="B202" s="20"/>
-      <c r="C202" s="20"/>
-      <c r="D202" s="20"/>
-      <c r="E202" s="20"/>
-      <c r="F202" s="20"/>
-      <c r="G202" s="20"/>
-      <c r="H202" s="20"/>
-      <c r="I202" s="20"/>
-      <c r="J202" s="20"/>
-      <c r="K202" s="20"/>
-      <c r="L202" s="20"/>
-      <c r="M202" s="20"/>
+      <c r="B202" s="15"/>
+      <c r="C202" s="15"/>
+      <c r="D202" s="15"/>
+      <c r="E202" s="15"/>
+      <c r="F202" s="15"/>
+      <c r="G202" s="15"/>
+      <c r="H202" s="15"/>
+      <c r="I202" s="15"/>
+      <c r="J202" s="15"/>
+      <c r="K202" s="15"/>
+      <c r="L202" s="15"/>
+      <c r="M202" s="15"/>
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
@@ -9507,18 +9521,18 @@
     </row>
     <row r="203" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
-      <c r="B203" s="20"/>
-      <c r="C203" s="20"/>
-      <c r="D203" s="20"/>
-      <c r="E203" s="20"/>
-      <c r="F203" s="20"/>
-      <c r="G203" s="20"/>
-      <c r="H203" s="20"/>
-      <c r="I203" s="20"/>
-      <c r="J203" s="20"/>
-      <c r="K203" s="20"/>
-      <c r="L203" s="20"/>
-      <c r="M203" s="20"/>
+      <c r="B203" s="15"/>
+      <c r="C203" s="15"/>
+      <c r="D203" s="15"/>
+      <c r="E203" s="15"/>
+      <c r="F203" s="15"/>
+      <c r="G203" s="15"/>
+      <c r="H203" s="15"/>
+      <c r="I203" s="15"/>
+      <c r="J203" s="15"/>
+      <c r="K203" s="15"/>
+      <c r="L203" s="15"/>
+      <c r="M203" s="15"/>
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
@@ -9551,18 +9565,18 @@
     </row>
     <row r="204" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
-      <c r="B204" s="20"/>
-      <c r="C204" s="20"/>
-      <c r="D204" s="20"/>
-      <c r="E204" s="20"/>
-      <c r="F204" s="20"/>
-      <c r="G204" s="20"/>
-      <c r="H204" s="20"/>
-      <c r="I204" s="20"/>
-      <c r="J204" s="20"/>
-      <c r="K204" s="20"/>
-      <c r="L204" s="20"/>
-      <c r="M204" s="20"/>
+      <c r="B204" s="15"/>
+      <c r="C204" s="15"/>
+      <c r="D204" s="15"/>
+      <c r="E204" s="15"/>
+      <c r="F204" s="15"/>
+      <c r="G204" s="15"/>
+      <c r="H204" s="15"/>
+      <c r="I204" s="15"/>
+      <c r="J204" s="15"/>
+      <c r="K204" s="15"/>
+      <c r="L204" s="15"/>
+      <c r="M204" s="15"/>
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
       <c r="P204" s="1"/>
@@ -9595,18 +9609,18 @@
     </row>
     <row r="205" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
-      <c r="B205" s="20"/>
-      <c r="C205" s="20"/>
-      <c r="D205" s="20"/>
-      <c r="E205" s="20"/>
-      <c r="F205" s="20"/>
-      <c r="G205" s="20"/>
-      <c r="H205" s="20"/>
-      <c r="I205" s="20"/>
-      <c r="J205" s="20"/>
-      <c r="K205" s="20"/>
-      <c r="L205" s="20"/>
-      <c r="M205" s="20"/>
+      <c r="B205" s="15"/>
+      <c r="C205" s="15"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="15"/>
+      <c r="F205" s="15"/>
+      <c r="G205" s="15"/>
+      <c r="H205" s="15"/>
+      <c r="I205" s="15"/>
+      <c r="J205" s="15"/>
+      <c r="K205" s="15"/>
+      <c r="L205" s="15"/>
+      <c r="M205" s="15"/>
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
@@ -9639,18 +9653,18 @@
     </row>
     <row r="206" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
-      <c r="B206" s="20"/>
-      <c r="C206" s="20"/>
-      <c r="D206" s="20"/>
-      <c r="E206" s="20"/>
-      <c r="F206" s="20"/>
-      <c r="G206" s="20"/>
-      <c r="H206" s="20"/>
-      <c r="I206" s="20"/>
-      <c r="J206" s="20"/>
-      <c r="K206" s="20"/>
-      <c r="L206" s="20"/>
-      <c r="M206" s="20"/>
+      <c r="B206" s="15"/>
+      <c r="C206" s="15"/>
+      <c r="D206" s="15"/>
+      <c r="E206" s="15"/>
+      <c r="F206" s="15"/>
+      <c r="G206" s="15"/>
+      <c r="H206" s="15"/>
+      <c r="I206" s="15"/>
+      <c r="J206" s="15"/>
+      <c r="K206" s="15"/>
+      <c r="L206" s="15"/>
+      <c r="M206" s="15"/>
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
@@ -9683,18 +9697,18 @@
     </row>
     <row r="207" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
-      <c r="B207" s="20"/>
-      <c r="C207" s="20"/>
-      <c r="D207" s="20"/>
-      <c r="E207" s="20"/>
-      <c r="F207" s="20"/>
-      <c r="G207" s="20"/>
-      <c r="H207" s="20"/>
-      <c r="I207" s="20"/>
-      <c r="J207" s="20"/>
-      <c r="K207" s="20"/>
-      <c r="L207" s="20"/>
-      <c r="M207" s="20"/>
+      <c r="B207" s="15"/>
+      <c r="C207" s="15"/>
+      <c r="D207" s="15"/>
+      <c r="E207" s="15"/>
+      <c r="F207" s="15"/>
+      <c r="G207" s="15"/>
+      <c r="H207" s="15"/>
+      <c r="I207" s="15"/>
+      <c r="J207" s="15"/>
+      <c r="K207" s="15"/>
+      <c r="L207" s="15"/>
+      <c r="M207" s="15"/>
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
@@ -9727,18 +9741,18 @@
     </row>
     <row r="208" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
-      <c r="B208" s="20"/>
-      <c r="C208" s="20"/>
-      <c r="D208" s="20"/>
-      <c r="E208" s="20"/>
-      <c r="F208" s="20"/>
-      <c r="G208" s="20"/>
-      <c r="H208" s="20"/>
-      <c r="I208" s="20"/>
-      <c r="J208" s="20"/>
-      <c r="K208" s="20"/>
-      <c r="L208" s="20"/>
-      <c r="M208" s="20"/>
+      <c r="B208" s="15"/>
+      <c r="C208" s="15"/>
+      <c r="D208" s="15"/>
+      <c r="E208" s="15"/>
+      <c r="F208" s="15"/>
+      <c r="G208" s="15"/>
+      <c r="H208" s="15"/>
+      <c r="I208" s="15"/>
+      <c r="J208" s="15"/>
+      <c r="K208" s="15"/>
+      <c r="L208" s="15"/>
+      <c r="M208" s="15"/>
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
       <c r="P208" s="1"/>
@@ -9771,18 +9785,18 @@
     </row>
     <row r="209" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
-      <c r="B209" s="20"/>
-      <c r="C209" s="20"/>
-      <c r="D209" s="20"/>
-      <c r="E209" s="20"/>
-      <c r="F209" s="20"/>
-      <c r="G209" s="20"/>
-      <c r="H209" s="20"/>
-      <c r="I209" s="20"/>
-      <c r="J209" s="20"/>
-      <c r="K209" s="20"/>
-      <c r="L209" s="20"/>
-      <c r="M209" s="20"/>
+      <c r="B209" s="15"/>
+      <c r="C209" s="15"/>
+      <c r="D209" s="15"/>
+      <c r="E209" s="15"/>
+      <c r="F209" s="15"/>
+      <c r="G209" s="15"/>
+      <c r="H209" s="15"/>
+      <c r="I209" s="15"/>
+      <c r="J209" s="15"/>
+      <c r="K209" s="15"/>
+      <c r="L209" s="15"/>
+      <c r="M209" s="15"/>
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
@@ -9815,18 +9829,18 @@
     </row>
     <row r="210" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
-      <c r="B210" s="20"/>
-      <c r="C210" s="20"/>
-      <c r="D210" s="20"/>
-      <c r="E210" s="20"/>
-      <c r="F210" s="20"/>
-      <c r="G210" s="20"/>
-      <c r="H210" s="20"/>
-      <c r="I210" s="20"/>
-      <c r="J210" s="20"/>
-      <c r="K210" s="20"/>
-      <c r="L210" s="20"/>
-      <c r="M210" s="20"/>
+      <c r="B210" s="15"/>
+      <c r="C210" s="15"/>
+      <c r="D210" s="15"/>
+      <c r="E210" s="15"/>
+      <c r="F210" s="15"/>
+      <c r="G210" s="15"/>
+      <c r="H210" s="15"/>
+      <c r="I210" s="15"/>
+      <c r="J210" s="15"/>
+      <c r="K210" s="15"/>
+      <c r="L210" s="15"/>
+      <c r="M210" s="15"/>
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
@@ -9859,18 +9873,18 @@
     </row>
     <row r="211" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
-      <c r="B211" s="20"/>
-      <c r="C211" s="20"/>
-      <c r="D211" s="20"/>
-      <c r="E211" s="20"/>
-      <c r="F211" s="20"/>
-      <c r="G211" s="20"/>
-      <c r="H211" s="20"/>
-      <c r="I211" s="20"/>
-      <c r="J211" s="20"/>
-      <c r="K211" s="20"/>
-      <c r="L211" s="20"/>
-      <c r="M211" s="20"/>
+      <c r="B211" s="15"/>
+      <c r="C211" s="15"/>
+      <c r="D211" s="15"/>
+      <c r="E211" s="15"/>
+      <c r="F211" s="15"/>
+      <c r="G211" s="15"/>
+      <c r="H211" s="15"/>
+      <c r="I211" s="15"/>
+      <c r="J211" s="15"/>
+      <c r="K211" s="15"/>
+      <c r="L211" s="15"/>
+      <c r="M211" s="15"/>
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
       <c r="P211" s="1"/>
@@ -9903,18 +9917,18 @@
     </row>
     <row r="212" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
-      <c r="B212" s="20"/>
-      <c r="C212" s="20"/>
-      <c r="D212" s="20"/>
-      <c r="E212" s="20"/>
-      <c r="F212" s="20"/>
-      <c r="G212" s="20"/>
-      <c r="H212" s="20"/>
-      <c r="I212" s="20"/>
-      <c r="J212" s="20"/>
-      <c r="K212" s="20"/>
-      <c r="L212" s="20"/>
-      <c r="M212" s="20"/>
+      <c r="B212" s="15"/>
+      <c r="C212" s="15"/>
+      <c r="D212" s="15"/>
+      <c r="E212" s="15"/>
+      <c r="F212" s="15"/>
+      <c r="G212" s="15"/>
+      <c r="H212" s="15"/>
+      <c r="I212" s="15"/>
+      <c r="J212" s="15"/>
+      <c r="K212" s="15"/>
+      <c r="L212" s="15"/>
+      <c r="M212" s="15"/>
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
@@ -9947,18 +9961,18 @@
     </row>
     <row r="213" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
-      <c r="B213" s="20"/>
-      <c r="C213" s="20"/>
-      <c r="D213" s="20"/>
-      <c r="E213" s="20"/>
-      <c r="F213" s="20"/>
-      <c r="G213" s="20"/>
-      <c r="H213" s="20"/>
-      <c r="I213" s="20"/>
-      <c r="J213" s="20"/>
-      <c r="K213" s="20"/>
-      <c r="L213" s="20"/>
-      <c r="M213" s="20"/>
+      <c r="B213" s="15"/>
+      <c r="C213" s="15"/>
+      <c r="D213" s="15"/>
+      <c r="E213" s="15"/>
+      <c r="F213" s="15"/>
+      <c r="G213" s="15"/>
+      <c r="H213" s="15"/>
+      <c r="I213" s="15"/>
+      <c r="J213" s="15"/>
+      <c r="K213" s="15"/>
+      <c r="L213" s="15"/>
+      <c r="M213" s="15"/>
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
@@ -9991,18 +10005,18 @@
     </row>
     <row r="214" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
-      <c r="D214" s="20"/>
-      <c r="E214" s="20"/>
-      <c r="F214" s="20"/>
-      <c r="G214" s="20"/>
-      <c r="H214" s="20"/>
-      <c r="I214" s="20"/>
-      <c r="J214" s="20"/>
-      <c r="K214" s="20"/>
-      <c r="L214" s="20"/>
-      <c r="M214" s="20"/>
+      <c r="B214" s="15"/>
+      <c r="C214" s="15"/>
+      <c r="D214" s="15"/>
+      <c r="E214" s="15"/>
+      <c r="F214" s="15"/>
+      <c r="G214" s="15"/>
+      <c r="H214" s="15"/>
+      <c r="I214" s="15"/>
+      <c r="J214" s="15"/>
+      <c r="K214" s="15"/>
+      <c r="L214" s="15"/>
+      <c r="M214" s="15"/>
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
@@ -10035,18 +10049,18 @@
     </row>
     <row r="215" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
-      <c r="B215" s="20"/>
-      <c r="C215" s="20"/>
-      <c r="D215" s="20"/>
-      <c r="E215" s="20"/>
-      <c r="F215" s="20"/>
-      <c r="G215" s="20"/>
-      <c r="H215" s="20"/>
-      <c r="I215" s="20"/>
-      <c r="J215" s="20"/>
-      <c r="K215" s="20"/>
-      <c r="L215" s="20"/>
-      <c r="M215" s="20"/>
+      <c r="B215" s="15"/>
+      <c r="C215" s="15"/>
+      <c r="D215" s="15"/>
+      <c r="E215" s="15"/>
+      <c r="F215" s="15"/>
+      <c r="G215" s="15"/>
+      <c r="H215" s="15"/>
+      <c r="I215" s="15"/>
+      <c r="J215" s="15"/>
+      <c r="K215" s="15"/>
+      <c r="L215" s="15"/>
+      <c r="M215" s="15"/>
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
@@ -10079,18 +10093,18 @@
     </row>
     <row r="216" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
-      <c r="B216" s="20"/>
-      <c r="C216" s="20"/>
-      <c r="D216" s="20"/>
-      <c r="E216" s="20"/>
-      <c r="F216" s="20"/>
-      <c r="G216" s="20"/>
-      <c r="H216" s="20"/>
-      <c r="I216" s="20"/>
-      <c r="J216" s="20"/>
-      <c r="K216" s="20"/>
-      <c r="L216" s="20"/>
-      <c r="M216" s="20"/>
+      <c r="B216" s="15"/>
+      <c r="C216" s="15"/>
+      <c r="D216" s="15"/>
+      <c r="E216" s="15"/>
+      <c r="F216" s="15"/>
+      <c r="G216" s="15"/>
+      <c r="H216" s="15"/>
+      <c r="I216" s="15"/>
+      <c r="J216" s="15"/>
+      <c r="K216" s="15"/>
+      <c r="L216" s="15"/>
+      <c r="M216" s="15"/>
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
       <c r="P216" s="1"/>
@@ -10123,18 +10137,18 @@
     </row>
     <row r="217" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
-      <c r="B217" s="20"/>
-      <c r="C217" s="20"/>
-      <c r="D217" s="20"/>
-      <c r="E217" s="20"/>
-      <c r="F217" s="20"/>
-      <c r="G217" s="20"/>
-      <c r="H217" s="20"/>
-      <c r="I217" s="20"/>
-      <c r="J217" s="20"/>
-      <c r="K217" s="20"/>
-      <c r="L217" s="20"/>
-      <c r="M217" s="20"/>
+      <c r="B217" s="15"/>
+      <c r="C217" s="15"/>
+      <c r="D217" s="15"/>
+      <c r="E217" s="15"/>
+      <c r="F217" s="15"/>
+      <c r="G217" s="15"/>
+      <c r="H217" s="15"/>
+      <c r="I217" s="15"/>
+      <c r="J217" s="15"/>
+      <c r="K217" s="15"/>
+      <c r="L217" s="15"/>
+      <c r="M217" s="15"/>
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
       <c r="P217" s="1"/>
@@ -10167,18 +10181,18 @@
     </row>
     <row r="218" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
-      <c r="B218" s="20"/>
-      <c r="C218" s="20"/>
-      <c r="D218" s="20"/>
-      <c r="E218" s="20"/>
-      <c r="F218" s="20"/>
-      <c r="G218" s="20"/>
-      <c r="H218" s="20"/>
-      <c r="I218" s="20"/>
-      <c r="J218" s="20"/>
-      <c r="K218" s="20"/>
-      <c r="L218" s="20"/>
-      <c r="M218" s="20"/>
+      <c r="B218" s="15"/>
+      <c r="C218" s="15"/>
+      <c r="D218" s="15"/>
+      <c r="E218" s="15"/>
+      <c r="F218" s="15"/>
+      <c r="G218" s="15"/>
+      <c r="H218" s="15"/>
+      <c r="I218" s="15"/>
+      <c r="J218" s="15"/>
+      <c r="K218" s="15"/>
+      <c r="L218" s="15"/>
+      <c r="M218" s="15"/>
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
       <c r="P218" s="1"/>
@@ -10211,18 +10225,18 @@
     </row>
     <row r="219" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
-      <c r="B219" s="20"/>
-      <c r="C219" s="20"/>
-      <c r="D219" s="20"/>
-      <c r="E219" s="20"/>
-      <c r="F219" s="20"/>
-      <c r="G219" s="20"/>
-      <c r="H219" s="20"/>
-      <c r="I219" s="20"/>
-      <c r="J219" s="20"/>
-      <c r="K219" s="20"/>
-      <c r="L219" s="20"/>
-      <c r="M219" s="20"/>
+      <c r="B219" s="15"/>
+      <c r="C219" s="15"/>
+      <c r="D219" s="15"/>
+      <c r="E219" s="15"/>
+      <c r="F219" s="15"/>
+      <c r="G219" s="15"/>
+      <c r="H219" s="15"/>
+      <c r="I219" s="15"/>
+      <c r="J219" s="15"/>
+      <c r="K219" s="15"/>
+      <c r="L219" s="15"/>
+      <c r="M219" s="15"/>
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
       <c r="P219" s="1"/>
@@ -10255,18 +10269,18 @@
     </row>
     <row r="220" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
-      <c r="B220" s="20"/>
-      <c r="C220" s="20"/>
-      <c r="D220" s="20"/>
-      <c r="E220" s="20"/>
-      <c r="F220" s="20"/>
-      <c r="G220" s="20"/>
-      <c r="H220" s="20"/>
-      <c r="I220" s="20"/>
-      <c r="J220" s="20"/>
-      <c r="K220" s="20"/>
-      <c r="L220" s="20"/>
-      <c r="M220" s="20"/>
+      <c r="B220" s="15"/>
+      <c r="C220" s="15"/>
+      <c r="D220" s="15"/>
+      <c r="E220" s="15"/>
+      <c r="F220" s="15"/>
+      <c r="G220" s="15"/>
+      <c r="H220" s="15"/>
+      <c r="I220" s="15"/>
+      <c r="J220" s="15"/>
+      <c r="K220" s="15"/>
+      <c r="L220" s="15"/>
+      <c r="M220" s="15"/>
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
       <c r="P220" s="1"/>
@@ -10299,18 +10313,18 @@
     </row>
     <row r="221" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
-      <c r="B221" s="20"/>
-      <c r="C221" s="20"/>
-      <c r="D221" s="20"/>
-      <c r="E221" s="20"/>
-      <c r="F221" s="20"/>
-      <c r="G221" s="20"/>
-      <c r="H221" s="20"/>
-      <c r="I221" s="20"/>
-      <c r="J221" s="20"/>
-      <c r="K221" s="20"/>
-      <c r="L221" s="20"/>
-      <c r="M221" s="20"/>
+      <c r="B221" s="15"/>
+      <c r="C221" s="15"/>
+      <c r="D221" s="15"/>
+      <c r="E221" s="15"/>
+      <c r="F221" s="15"/>
+      <c r="G221" s="15"/>
+      <c r="H221" s="15"/>
+      <c r="I221" s="15"/>
+      <c r="J221" s="15"/>
+      <c r="K221" s="15"/>
+      <c r="L221" s="15"/>
+      <c r="M221" s="15"/>
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
       <c r="P221" s="1"/>
@@ -10343,18 +10357,18 @@
     </row>
     <row r="222" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
-      <c r="B222" s="20"/>
-      <c r="C222" s="20"/>
-      <c r="D222" s="20"/>
-      <c r="E222" s="20"/>
-      <c r="F222" s="20"/>
-      <c r="G222" s="20"/>
-      <c r="H222" s="20"/>
-      <c r="I222" s="20"/>
-      <c r="J222" s="20"/>
-      <c r="K222" s="20"/>
-      <c r="L222" s="20"/>
-      <c r="M222" s="20"/>
+      <c r="B222" s="15"/>
+      <c r="C222" s="15"/>
+      <c r="D222" s="15"/>
+      <c r="E222" s="15"/>
+      <c r="F222" s="15"/>
+      <c r="G222" s="15"/>
+      <c r="H222" s="15"/>
+      <c r="I222" s="15"/>
+      <c r="J222" s="15"/>
+      <c r="K222" s="15"/>
+      <c r="L222" s="15"/>
+      <c r="M222" s="15"/>
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
       <c r="P222" s="1"/>
@@ -10387,18 +10401,18 @@
     </row>
     <row r="223" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
-      <c r="B223" s="20"/>
-      <c r="C223" s="20"/>
-      <c r="D223" s="20"/>
-      <c r="E223" s="20"/>
-      <c r="F223" s="20"/>
-      <c r="G223" s="20"/>
-      <c r="H223" s="20"/>
-      <c r="I223" s="20"/>
-      <c r="J223" s="20"/>
-      <c r="K223" s="20"/>
-      <c r="L223" s="20"/>
-      <c r="M223" s="20"/>
+      <c r="B223" s="15"/>
+      <c r="C223" s="15"/>
+      <c r="D223" s="15"/>
+      <c r="E223" s="15"/>
+      <c r="F223" s="15"/>
+      <c r="G223" s="15"/>
+      <c r="H223" s="15"/>
+      <c r="I223" s="15"/>
+      <c r="J223" s="15"/>
+      <c r="K223" s="15"/>
+      <c r="L223" s="15"/>
+      <c r="M223" s="15"/>
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
       <c r="P223" s="1"/>
@@ -10431,18 +10445,18 @@
     </row>
     <row r="224" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
-      <c r="B224" s="20"/>
-      <c r="C224" s="20"/>
-      <c r="D224" s="20"/>
-      <c r="E224" s="20"/>
-      <c r="F224" s="20"/>
-      <c r="G224" s="20"/>
-      <c r="H224" s="20"/>
-      <c r="I224" s="20"/>
-      <c r="J224" s="20"/>
-      <c r="K224" s="20"/>
-      <c r="L224" s="20"/>
-      <c r="M224" s="20"/>
+      <c r="B224" s="15"/>
+      <c r="C224" s="15"/>
+      <c r="D224" s="15"/>
+      <c r="E224" s="15"/>
+      <c r="F224" s="15"/>
+      <c r="G224" s="15"/>
+      <c r="H224" s="15"/>
+      <c r="I224" s="15"/>
+      <c r="J224" s="15"/>
+      <c r="K224" s="15"/>
+      <c r="L224" s="15"/>
+      <c r="M224" s="15"/>
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
       <c r="P224" s="1"/>
@@ -10475,18 +10489,18 @@
     </row>
     <row r="225" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
-      <c r="B225" s="20"/>
-      <c r="C225" s="20"/>
-      <c r="D225" s="20"/>
-      <c r="E225" s="20"/>
-      <c r="F225" s="20"/>
-      <c r="G225" s="20"/>
-      <c r="H225" s="20"/>
-      <c r="I225" s="20"/>
-      <c r="J225" s="20"/>
-      <c r="K225" s="20"/>
-      <c r="L225" s="20"/>
-      <c r="M225" s="20"/>
+      <c r="B225" s="15"/>
+      <c r="C225" s="15"/>
+      <c r="D225" s="15"/>
+      <c r="E225" s="15"/>
+      <c r="F225" s="15"/>
+      <c r="G225" s="15"/>
+      <c r="H225" s="15"/>
+      <c r="I225" s="15"/>
+      <c r="J225" s="15"/>
+      <c r="K225" s="15"/>
+      <c r="L225" s="15"/>
+      <c r="M225" s="15"/>
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
       <c r="P225" s="1"/>
@@ -10519,18 +10533,18 @@
     </row>
     <row r="226" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
-      <c r="B226" s="20"/>
-      <c r="C226" s="20"/>
-      <c r="D226" s="20"/>
-      <c r="E226" s="20"/>
-      <c r="F226" s="20"/>
-      <c r="G226" s="20"/>
-      <c r="H226" s="20"/>
-      <c r="I226" s="20"/>
-      <c r="J226" s="20"/>
-      <c r="K226" s="20"/>
-      <c r="L226" s="20"/>
-      <c r="M226" s="20"/>
+      <c r="B226" s="15"/>
+      <c r="C226" s="15"/>
+      <c r="D226" s="15"/>
+      <c r="E226" s="15"/>
+      <c r="F226" s="15"/>
+      <c r="G226" s="15"/>
+      <c r="H226" s="15"/>
+      <c r="I226" s="15"/>
+      <c r="J226" s="15"/>
+      <c r="K226" s="15"/>
+      <c r="L226" s="15"/>
+      <c r="M226" s="15"/>
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
       <c r="P226" s="1"/>
@@ -10563,18 +10577,18 @@
     </row>
     <row r="227" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
-      <c r="B227" s="20"/>
-      <c r="C227" s="20"/>
-      <c r="D227" s="20"/>
-      <c r="E227" s="20"/>
-      <c r="F227" s="20"/>
-      <c r="G227" s="20"/>
-      <c r="H227" s="20"/>
-      <c r="I227" s="20"/>
-      <c r="J227" s="20"/>
-      <c r="K227" s="20"/>
-      <c r="L227" s="20"/>
-      <c r="M227" s="20"/>
+      <c r="B227" s="15"/>
+      <c r="C227" s="15"/>
+      <c r="D227" s="15"/>
+      <c r="E227" s="15"/>
+      <c r="F227" s="15"/>
+      <c r="G227" s="15"/>
+      <c r="H227" s="15"/>
+      <c r="I227" s="15"/>
+      <c r="J227" s="15"/>
+      <c r="K227" s="15"/>
+      <c r="L227" s="15"/>
+      <c r="M227" s="15"/>
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
       <c r="P227" s="1"/>
@@ -10607,18 +10621,18 @@
     </row>
     <row r="228" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
-      <c r="B228" s="20"/>
-      <c r="C228" s="20"/>
-      <c r="D228" s="20"/>
-      <c r="E228" s="20"/>
-      <c r="F228" s="20"/>
-      <c r="G228" s="20"/>
-      <c r="H228" s="20"/>
-      <c r="I228" s="20"/>
-      <c r="J228" s="20"/>
-      <c r="K228" s="20"/>
-      <c r="L228" s="20"/>
-      <c r="M228" s="20"/>
+      <c r="B228" s="15"/>
+      <c r="C228" s="15"/>
+      <c r="D228" s="15"/>
+      <c r="E228" s="15"/>
+      <c r="F228" s="15"/>
+      <c r="G228" s="15"/>
+      <c r="H228" s="15"/>
+      <c r="I228" s="15"/>
+      <c r="J228" s="15"/>
+      <c r="K228" s="15"/>
+      <c r="L228" s="15"/>
+      <c r="M228" s="15"/>
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
       <c r="P228" s="1"/>
@@ -10651,18 +10665,18 @@
     </row>
     <row r="229" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
-      <c r="B229" s="20"/>
-      <c r="C229" s="20"/>
-      <c r="D229" s="20"/>
-      <c r="E229" s="20"/>
-      <c r="F229" s="20"/>
-      <c r="G229" s="20"/>
-      <c r="H229" s="20"/>
-      <c r="I229" s="20"/>
-      <c r="J229" s="20"/>
-      <c r="K229" s="20"/>
-      <c r="L229" s="20"/>
-      <c r="M229" s="20"/>
+      <c r="B229" s="15"/>
+      <c r="C229" s="15"/>
+      <c r="D229" s="15"/>
+      <c r="E229" s="15"/>
+      <c r="F229" s="15"/>
+      <c r="G229" s="15"/>
+      <c r="H229" s="15"/>
+      <c r="I229" s="15"/>
+      <c r="J229" s="15"/>
+      <c r="K229" s="15"/>
+      <c r="L229" s="15"/>
+      <c r="M229" s="15"/>
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
       <c r="P229" s="1"/>
@@ -10695,18 +10709,18 @@
     </row>
     <row r="230" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
-      <c r="B230" s="20"/>
-      <c r="C230" s="20"/>
-      <c r="D230" s="20"/>
-      <c r="E230" s="20"/>
-      <c r="F230" s="20"/>
-      <c r="G230" s="20"/>
-      <c r="H230" s="20"/>
-      <c r="I230" s="20"/>
-      <c r="J230" s="20"/>
-      <c r="K230" s="20"/>
-      <c r="L230" s="20"/>
-      <c r="M230" s="20"/>
+      <c r="B230" s="15"/>
+      <c r="C230" s="15"/>
+      <c r="D230" s="15"/>
+      <c r="E230" s="15"/>
+      <c r="F230" s="15"/>
+      <c r="G230" s="15"/>
+      <c r="H230" s="15"/>
+      <c r="I230" s="15"/>
+      <c r="J230" s="15"/>
+      <c r="K230" s="15"/>
+      <c r="L230" s="15"/>
+      <c r="M230" s="15"/>
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
       <c r="P230" s="1"/>
@@ -10739,18 +10753,18 @@
     </row>
     <row r="231" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
-      <c r="B231" s="20"/>
-      <c r="C231" s="20"/>
-      <c r="D231" s="20"/>
-      <c r="E231" s="20"/>
-      <c r="F231" s="20"/>
-      <c r="G231" s="20"/>
-      <c r="H231" s="20"/>
-      <c r="I231" s="20"/>
-      <c r="J231" s="20"/>
-      <c r="K231" s="20"/>
-      <c r="L231" s="20"/>
-      <c r="M231" s="20"/>
+      <c r="B231" s="15"/>
+      <c r="C231" s="15"/>
+      <c r="D231" s="15"/>
+      <c r="E231" s="15"/>
+      <c r="F231" s="15"/>
+      <c r="G231" s="15"/>
+      <c r="H231" s="15"/>
+      <c r="I231" s="15"/>
+      <c r="J231" s="15"/>
+      <c r="K231" s="15"/>
+      <c r="L231" s="15"/>
+      <c r="M231" s="15"/>
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
       <c r="P231" s="1"/>
@@ -10783,18 +10797,18 @@
     </row>
     <row r="232" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
-      <c r="B232" s="20"/>
-      <c r="C232" s="20"/>
-      <c r="D232" s="20"/>
-      <c r="E232" s="20"/>
-      <c r="F232" s="20"/>
-      <c r="G232" s="20"/>
-      <c r="H232" s="20"/>
-      <c r="I232" s="20"/>
-      <c r="J232" s="20"/>
-      <c r="K232" s="20"/>
-      <c r="L232" s="20"/>
-      <c r="M232" s="20"/>
+      <c r="B232" s="15"/>
+      <c r="C232" s="15"/>
+      <c r="D232" s="15"/>
+      <c r="E232" s="15"/>
+      <c r="F232" s="15"/>
+      <c r="G232" s="15"/>
+      <c r="H232" s="15"/>
+      <c r="I232" s="15"/>
+      <c r="J232" s="15"/>
+      <c r="K232" s="15"/>
+      <c r="L232" s="15"/>
+      <c r="M232" s="15"/>
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
       <c r="P232" s="1"/>
@@ -10827,18 +10841,18 @@
     </row>
     <row r="233" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
-      <c r="B233" s="20"/>
-      <c r="C233" s="20"/>
-      <c r="D233" s="20"/>
-      <c r="E233" s="20"/>
-      <c r="F233" s="20"/>
-      <c r="G233" s="20"/>
-      <c r="H233" s="20"/>
-      <c r="I233" s="20"/>
-      <c r="J233" s="20"/>
-      <c r="K233" s="20"/>
-      <c r="L233" s="20"/>
-      <c r="M233" s="20"/>
+      <c r="B233" s="15"/>
+      <c r="C233" s="15"/>
+      <c r="D233" s="15"/>
+      <c r="E233" s="15"/>
+      <c r="F233" s="15"/>
+      <c r="G233" s="15"/>
+      <c r="H233" s="15"/>
+      <c r="I233" s="15"/>
+      <c r="J233" s="15"/>
+      <c r="K233" s="15"/>
+      <c r="L233" s="15"/>
+      <c r="M233" s="15"/>
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
       <c r="P233" s="1"/>
@@ -10871,18 +10885,18 @@
     </row>
     <row r="234" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
-      <c r="B234" s="20"/>
-      <c r="C234" s="20"/>
-      <c r="D234" s="20"/>
-      <c r="E234" s="20"/>
-      <c r="F234" s="20"/>
-      <c r="G234" s="20"/>
-      <c r="H234" s="20"/>
-      <c r="I234" s="20"/>
-      <c r="J234" s="20"/>
-      <c r="K234" s="20"/>
-      <c r="L234" s="20"/>
-      <c r="M234" s="20"/>
+      <c r="B234" s="15"/>
+      <c r="C234" s="15"/>
+      <c r="D234" s="15"/>
+      <c r="E234" s="15"/>
+      <c r="F234" s="15"/>
+      <c r="G234" s="15"/>
+      <c r="H234" s="15"/>
+      <c r="I234" s="15"/>
+      <c r="J234" s="15"/>
+      <c r="K234" s="15"/>
+      <c r="L234" s="15"/>
+      <c r="M234" s="15"/>
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
       <c r="P234" s="1"/>
@@ -10915,18 +10929,18 @@
     </row>
     <row r="235" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
-      <c r="B235" s="20"/>
-      <c r="C235" s="20"/>
-      <c r="D235" s="20"/>
-      <c r="E235" s="20"/>
-      <c r="F235" s="20"/>
-      <c r="G235" s="20"/>
-      <c r="H235" s="20"/>
-      <c r="I235" s="20"/>
-      <c r="J235" s="20"/>
-      <c r="K235" s="20"/>
-      <c r="L235" s="20"/>
-      <c r="M235" s="20"/>
+      <c r="B235" s="15"/>
+      <c r="C235" s="15"/>
+      <c r="D235" s="15"/>
+      <c r="E235" s="15"/>
+      <c r="F235" s="15"/>
+      <c r="G235" s="15"/>
+      <c r="H235" s="15"/>
+      <c r="I235" s="15"/>
+      <c r="J235" s="15"/>
+      <c r="K235" s="15"/>
+      <c r="L235" s="15"/>
+      <c r="M235" s="15"/>
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
       <c r="P235" s="1"/>
@@ -10959,18 +10973,18 @@
     </row>
     <row r="236" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
-      <c r="B236" s="20"/>
-      <c r="C236" s="20"/>
-      <c r="D236" s="20"/>
-      <c r="E236" s="20"/>
-      <c r="F236" s="20"/>
-      <c r="G236" s="20"/>
-      <c r="H236" s="20"/>
-      <c r="I236" s="20"/>
-      <c r="J236" s="20"/>
-      <c r="K236" s="20"/>
-      <c r="L236" s="20"/>
-      <c r="M236" s="20"/>
+      <c r="B236" s="15"/>
+      <c r="C236" s="15"/>
+      <c r="D236" s="15"/>
+      <c r="E236" s="15"/>
+      <c r="F236" s="15"/>
+      <c r="G236" s="15"/>
+      <c r="H236" s="15"/>
+      <c r="I236" s="15"/>
+      <c r="J236" s="15"/>
+      <c r="K236" s="15"/>
+      <c r="L236" s="15"/>
+      <c r="M236" s="15"/>
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
       <c r="P236" s="1"/>
@@ -11003,18 +11017,18 @@
     </row>
     <row r="237" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
-      <c r="B237" s="20"/>
-      <c r="C237" s="20"/>
-      <c r="D237" s="20"/>
-      <c r="E237" s="20"/>
-      <c r="F237" s="20"/>
-      <c r="G237" s="20"/>
-      <c r="H237" s="20"/>
-      <c r="I237" s="20"/>
-      <c r="J237" s="20"/>
-      <c r="K237" s="20"/>
-      <c r="L237" s="20"/>
-      <c r="M237" s="20"/>
+      <c r="B237" s="15"/>
+      <c r="C237" s="15"/>
+      <c r="D237" s="15"/>
+      <c r="E237" s="15"/>
+      <c r="F237" s="15"/>
+      <c r="G237" s="15"/>
+      <c r="H237" s="15"/>
+      <c r="I237" s="15"/>
+      <c r="J237" s="15"/>
+      <c r="K237" s="15"/>
+      <c r="L237" s="15"/>
+      <c r="M237" s="15"/>
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
       <c r="P237" s="1"/>
@@ -11047,18 +11061,18 @@
     </row>
     <row r="238" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
-      <c r="D238" s="20"/>
-      <c r="E238" s="20"/>
-      <c r="F238" s="20"/>
-      <c r="G238" s="20"/>
-      <c r="H238" s="20"/>
-      <c r="I238" s="20"/>
-      <c r="J238" s="20"/>
-      <c r="K238" s="20"/>
-      <c r="L238" s="20"/>
-      <c r="M238" s="20"/>
+      <c r="B238" s="15"/>
+      <c r="C238" s="15"/>
+      <c r="D238" s="15"/>
+      <c r="E238" s="15"/>
+      <c r="F238" s="15"/>
+      <c r="G238" s="15"/>
+      <c r="H238" s="15"/>
+      <c r="I238" s="15"/>
+      <c r="J238" s="15"/>
+      <c r="K238" s="15"/>
+      <c r="L238" s="15"/>
+      <c r="M238" s="15"/>
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
       <c r="P238" s="1"/>
@@ -11091,18 +11105,18 @@
     </row>
     <row r="239" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
-      <c r="B239" s="20"/>
-      <c r="C239" s="20"/>
-      <c r="D239" s="20"/>
-      <c r="E239" s="20"/>
-      <c r="F239" s="20"/>
-      <c r="G239" s="20"/>
-      <c r="H239" s="20"/>
-      <c r="I239" s="20"/>
-      <c r="J239" s="20"/>
-      <c r="K239" s="20"/>
-      <c r="L239" s="20"/>
-      <c r="M239" s="20"/>
+      <c r="B239" s="15"/>
+      <c r="C239" s="15"/>
+      <c r="D239" s="15"/>
+      <c r="E239" s="15"/>
+      <c r="F239" s="15"/>
+      <c r="G239" s="15"/>
+      <c r="H239" s="15"/>
+      <c r="I239" s="15"/>
+      <c r="J239" s="15"/>
+      <c r="K239" s="15"/>
+      <c r="L239" s="15"/>
+      <c r="M239" s="15"/>
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
       <c r="P239" s="1"/>
@@ -11135,18 +11149,18 @@
     </row>
     <row r="240" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
-      <c r="B240" s="20"/>
-      <c r="C240" s="20"/>
-      <c r="D240" s="20"/>
-      <c r="E240" s="20"/>
-      <c r="F240" s="20"/>
-      <c r="G240" s="20"/>
-      <c r="H240" s="20"/>
-      <c r="I240" s="20"/>
-      <c r="J240" s="20"/>
-      <c r="K240" s="20"/>
-      <c r="L240" s="20"/>
-      <c r="M240" s="20"/>
+      <c r="B240" s="15"/>
+      <c r="C240" s="15"/>
+      <c r="D240" s="15"/>
+      <c r="E240" s="15"/>
+      <c r="F240" s="15"/>
+      <c r="G240" s="15"/>
+      <c r="H240" s="15"/>
+      <c r="I240" s="15"/>
+      <c r="J240" s="15"/>
+      <c r="K240" s="15"/>
+      <c r="L240" s="15"/>
+      <c r="M240" s="15"/>
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
       <c r="P240" s="1"/>
@@ -11179,18 +11193,18 @@
     </row>
     <row r="241" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
-      <c r="B241" s="20"/>
-      <c r="C241" s="20"/>
-      <c r="D241" s="20"/>
-      <c r="E241" s="20"/>
-      <c r="F241" s="20"/>
-      <c r="G241" s="20"/>
-      <c r="H241" s="20"/>
-      <c r="I241" s="20"/>
-      <c r="J241" s="20"/>
-      <c r="K241" s="20"/>
-      <c r="L241" s="20"/>
-      <c r="M241" s="20"/>
+      <c r="B241" s="15"/>
+      <c r="C241" s="15"/>
+      <c r="D241" s="15"/>
+      <c r="E241" s="15"/>
+      <c r="F241" s="15"/>
+      <c r="G241" s="15"/>
+      <c r="H241" s="15"/>
+      <c r="I241" s="15"/>
+      <c r="J241" s="15"/>
+      <c r="K241" s="15"/>
+      <c r="L241" s="15"/>
+      <c r="M241" s="15"/>
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
       <c r="P241" s="1"/>
@@ -11223,18 +11237,18 @@
     </row>
     <row r="242" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
-      <c r="B242" s="20"/>
-      <c r="C242" s="20"/>
-      <c r="D242" s="20"/>
-      <c r="E242" s="20"/>
-      <c r="F242" s="20"/>
-      <c r="G242" s="20"/>
-      <c r="H242" s="20"/>
-      <c r="I242" s="20"/>
-      <c r="J242" s="20"/>
-      <c r="K242" s="20"/>
-      <c r="L242" s="20"/>
-      <c r="M242" s="20"/>
+      <c r="B242" s="15"/>
+      <c r="C242" s="15"/>
+      <c r="D242" s="15"/>
+      <c r="E242" s="15"/>
+      <c r="F242" s="15"/>
+      <c r="G242" s="15"/>
+      <c r="H242" s="15"/>
+      <c r="I242" s="15"/>
+      <c r="J242" s="15"/>
+      <c r="K242" s="15"/>
+      <c r="L242" s="15"/>
+      <c r="M242" s="15"/>
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
       <c r="P242" s="1"/>
@@ -11267,18 +11281,18 @@
     </row>
     <row r="243" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
-      <c r="B243" s="20"/>
-      <c r="C243" s="20"/>
-      <c r="D243" s="20"/>
-      <c r="E243" s="20"/>
-      <c r="F243" s="20"/>
-      <c r="G243" s="20"/>
-      <c r="H243" s="20"/>
-      <c r="I243" s="20"/>
-      <c r="J243" s="20"/>
-      <c r="K243" s="20"/>
-      <c r="L243" s="20"/>
-      <c r="M243" s="20"/>
+      <c r="B243" s="15"/>
+      <c r="C243" s="15"/>
+      <c r="D243" s="15"/>
+      <c r="E243" s="15"/>
+      <c r="F243" s="15"/>
+      <c r="G243" s="15"/>
+      <c r="H243" s="15"/>
+      <c r="I243" s="15"/>
+      <c r="J243" s="15"/>
+      <c r="K243" s="15"/>
+      <c r="L243" s="15"/>
+      <c r="M243" s="15"/>
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
       <c r="P243" s="1"/>
@@ -11311,18 +11325,18 @@
     </row>
     <row r="244" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
-      <c r="B244" s="20"/>
-      <c r="C244" s="20"/>
-      <c r="D244" s="20"/>
-      <c r="E244" s="20"/>
-      <c r="F244" s="20"/>
-      <c r="G244" s="20"/>
-      <c r="H244" s="20"/>
-      <c r="I244" s="20"/>
-      <c r="J244" s="20"/>
-      <c r="K244" s="20"/>
-      <c r="L244" s="20"/>
-      <c r="M244" s="20"/>
+      <c r="B244" s="15"/>
+      <c r="C244" s="15"/>
+      <c r="D244" s="15"/>
+      <c r="E244" s="15"/>
+      <c r="F244" s="15"/>
+      <c r="G244" s="15"/>
+      <c r="H244" s="15"/>
+      <c r="I244" s="15"/>
+      <c r="J244" s="15"/>
+      <c r="K244" s="15"/>
+      <c r="L244" s="15"/>
+      <c r="M244" s="15"/>
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
       <c r="P244" s="1"/>
@@ -11355,18 +11369,18 @@
     </row>
     <row r="245" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
-      <c r="B245" s="20"/>
-      <c r="C245" s="20"/>
-      <c r="D245" s="20"/>
-      <c r="E245" s="20"/>
-      <c r="F245" s="20"/>
-      <c r="G245" s="20"/>
-      <c r="H245" s="20"/>
-      <c r="I245" s="20"/>
-      <c r="J245" s="20"/>
-      <c r="K245" s="20"/>
-      <c r="L245" s="20"/>
-      <c r="M245" s="20"/>
+      <c r="B245" s="15"/>
+      <c r="C245" s="15"/>
+      <c r="D245" s="15"/>
+      <c r="E245" s="15"/>
+      <c r="F245" s="15"/>
+      <c r="G245" s="15"/>
+      <c r="H245" s="15"/>
+      <c r="I245" s="15"/>
+      <c r="J245" s="15"/>
+      <c r="K245" s="15"/>
+      <c r="L245" s="15"/>
+      <c r="M245" s="15"/>
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
       <c r="P245" s="1"/>
@@ -11399,18 +11413,18 @@
     </row>
     <row r="246" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
-      <c r="B246" s="20"/>
-      <c r="C246" s="20"/>
-      <c r="D246" s="20"/>
-      <c r="E246" s="20"/>
-      <c r="F246" s="20"/>
-      <c r="G246" s="20"/>
-      <c r="H246" s="20"/>
-      <c r="I246" s="20"/>
-      <c r="J246" s="20"/>
-      <c r="K246" s="20"/>
-      <c r="L246" s="20"/>
-      <c r="M246" s="20"/>
+      <c r="B246" s="15"/>
+      <c r="C246" s="15"/>
+      <c r="D246" s="15"/>
+      <c r="E246" s="15"/>
+      <c r="F246" s="15"/>
+      <c r="G246" s="15"/>
+      <c r="H246" s="15"/>
+      <c r="I246" s="15"/>
+      <c r="J246" s="15"/>
+      <c r="K246" s="15"/>
+      <c r="L246" s="15"/>
+      <c r="M246" s="15"/>
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
       <c r="P246" s="1"/>
@@ -11443,18 +11457,18 @@
     </row>
     <row r="247" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
-      <c r="B247" s="20"/>
-      <c r="C247" s="20"/>
-      <c r="D247" s="20"/>
-      <c r="E247" s="20"/>
-      <c r="F247" s="20"/>
-      <c r="G247" s="20"/>
-      <c r="H247" s="20"/>
-      <c r="I247" s="20"/>
-      <c r="J247" s="20"/>
-      <c r="K247" s="20"/>
-      <c r="L247" s="20"/>
-      <c r="M247" s="20"/>
+      <c r="B247" s="15"/>
+      <c r="C247" s="15"/>
+      <c r="D247" s="15"/>
+      <c r="E247" s="15"/>
+      <c r="F247" s="15"/>
+      <c r="G247" s="15"/>
+      <c r="H247" s="15"/>
+      <c r="I247" s="15"/>
+      <c r="J247" s="15"/>
+      <c r="K247" s="15"/>
+      <c r="L247" s="15"/>
+      <c r="M247" s="15"/>
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
       <c r="P247" s="1"/>
@@ -11487,18 +11501,18 @@
     </row>
     <row r="248" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
-      <c r="B248" s="20"/>
-      <c r="C248" s="20"/>
-      <c r="D248" s="20"/>
-      <c r="E248" s="20"/>
-      <c r="F248" s="20"/>
-      <c r="G248" s="20"/>
-      <c r="H248" s="20"/>
-      <c r="I248" s="20"/>
-      <c r="J248" s="20"/>
-      <c r="K248" s="20"/>
-      <c r="L248" s="20"/>
-      <c r="M248" s="20"/>
+      <c r="B248" s="15"/>
+      <c r="C248" s="15"/>
+      <c r="D248" s="15"/>
+      <c r="E248" s="15"/>
+      <c r="F248" s="15"/>
+      <c r="G248" s="15"/>
+      <c r="H248" s="15"/>
+      <c r="I248" s="15"/>
+      <c r="J248" s="15"/>
+      <c r="K248" s="15"/>
+      <c r="L248" s="15"/>
+      <c r="M248" s="15"/>
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
       <c r="P248" s="1"/>
@@ -11531,18 +11545,18 @@
     </row>
     <row r="249" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
-      <c r="B249" s="20"/>
-      <c r="C249" s="20"/>
-      <c r="D249" s="20"/>
-      <c r="E249" s="20"/>
-      <c r="F249" s="20"/>
-      <c r="G249" s="20"/>
-      <c r="H249" s="20"/>
-      <c r="I249" s="20"/>
-      <c r="J249" s="20"/>
-      <c r="K249" s="20"/>
-      <c r="L249" s="20"/>
-      <c r="M249" s="20"/>
+      <c r="B249" s="15"/>
+      <c r="C249" s="15"/>
+      <c r="D249" s="15"/>
+      <c r="E249" s="15"/>
+      <c r="F249" s="15"/>
+      <c r="G249" s="15"/>
+      <c r="H249" s="15"/>
+      <c r="I249" s="15"/>
+      <c r="J249" s="15"/>
+      <c r="K249" s="15"/>
+      <c r="L249" s="15"/>
+      <c r="M249" s="15"/>
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
       <c r="P249" s="1"/>
@@ -11575,18 +11589,18 @@
     </row>
     <row r="250" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
-      <c r="B250" s="20"/>
-      <c r="C250" s="20"/>
-      <c r="D250" s="20"/>
-      <c r="E250" s="20"/>
-      <c r="F250" s="20"/>
-      <c r="G250" s="20"/>
-      <c r="H250" s="20"/>
-      <c r="I250" s="20"/>
-      <c r="J250" s="20"/>
-      <c r="K250" s="20"/>
-      <c r="L250" s="20"/>
-      <c r="M250" s="20"/>
+      <c r="B250" s="15"/>
+      <c r="C250" s="15"/>
+      <c r="D250" s="15"/>
+      <c r="E250" s="15"/>
+      <c r="F250" s="15"/>
+      <c r="G250" s="15"/>
+      <c r="H250" s="15"/>
+      <c r="I250" s="15"/>
+      <c r="J250" s="15"/>
+      <c r="K250" s="15"/>
+      <c r="L250" s="15"/>
+      <c r="M250" s="15"/>
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
       <c r="P250" s="1"/>
@@ -11619,18 +11633,18 @@
     </row>
     <row r="251" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
-      <c r="B251" s="20"/>
-      <c r="C251" s="20"/>
-      <c r="D251" s="20"/>
-      <c r="E251" s="20"/>
-      <c r="F251" s="20"/>
-      <c r="G251" s="20"/>
-      <c r="H251" s="20"/>
-      <c r="I251" s="20"/>
-      <c r="J251" s="20"/>
-      <c r="K251" s="20"/>
-      <c r="L251" s="20"/>
-      <c r="M251" s="20"/>
+      <c r="B251" s="15"/>
+      <c r="C251" s="15"/>
+      <c r="D251" s="15"/>
+      <c r="E251" s="15"/>
+      <c r="F251" s="15"/>
+      <c r="G251" s="15"/>
+      <c r="H251" s="15"/>
+      <c r="I251" s="15"/>
+      <c r="J251" s="15"/>
+      <c r="K251" s="15"/>
+      <c r="L251" s="15"/>
+      <c r="M251" s="15"/>
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
       <c r="P251" s="1"/>
@@ -11663,18 +11677,18 @@
     </row>
     <row r="252" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
-      <c r="B252" s="20"/>
-      <c r="C252" s="20"/>
-      <c r="D252" s="20"/>
-      <c r="E252" s="20"/>
-      <c r="F252" s="20"/>
-      <c r="G252" s="20"/>
-      <c r="H252" s="20"/>
-      <c r="I252" s="20"/>
-      <c r="J252" s="20"/>
-      <c r="K252" s="20"/>
-      <c r="L252" s="20"/>
-      <c r="M252" s="20"/>
+      <c r="B252" s="15"/>
+      <c r="C252" s="15"/>
+      <c r="D252" s="15"/>
+      <c r="E252" s="15"/>
+      <c r="F252" s="15"/>
+      <c r="G252" s="15"/>
+      <c r="H252" s="15"/>
+      <c r="I252" s="15"/>
+      <c r="J252" s="15"/>
+      <c r="K252" s="15"/>
+      <c r="L252" s="15"/>
+      <c r="M252" s="15"/>
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
       <c r="P252" s="1"/>
@@ -11707,18 +11721,18 @@
     </row>
     <row r="253" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
-      <c r="B253" s="20"/>
-      <c r="C253" s="20"/>
-      <c r="D253" s="20"/>
-      <c r="E253" s="20"/>
-      <c r="F253" s="20"/>
-      <c r="G253" s="20"/>
-      <c r="H253" s="20"/>
-      <c r="I253" s="20"/>
-      <c r="J253" s="20"/>
-      <c r="K253" s="20"/>
-      <c r="L253" s="20"/>
-      <c r="M253" s="20"/>
+      <c r="B253" s="15"/>
+      <c r="C253" s="15"/>
+      <c r="D253" s="15"/>
+      <c r="E253" s="15"/>
+      <c r="F253" s="15"/>
+      <c r="G253" s="15"/>
+      <c r="H253" s="15"/>
+      <c r="I253" s="15"/>
+      <c r="J253" s="15"/>
+      <c r="K253" s="15"/>
+      <c r="L253" s="15"/>
+      <c r="M253" s="15"/>
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
       <c r="P253" s="1"/>
@@ -11751,18 +11765,18 @@
     </row>
     <row r="254" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
-      <c r="B254" s="20"/>
-      <c r="C254" s="20"/>
-      <c r="D254" s="20"/>
-      <c r="E254" s="20"/>
-      <c r="F254" s="20"/>
-      <c r="G254" s="20"/>
-      <c r="H254" s="20"/>
-      <c r="I254" s="20"/>
-      <c r="J254" s="20"/>
-      <c r="K254" s="20"/>
-      <c r="L254" s="20"/>
-      <c r="M254" s="20"/>
+      <c r="B254" s="15"/>
+      <c r="C254" s="15"/>
+      <c r="D254" s="15"/>
+      <c r="E254" s="15"/>
+      <c r="F254" s="15"/>
+      <c r="G254" s="15"/>
+      <c r="H254" s="15"/>
+      <c r="I254" s="15"/>
+      <c r="J254" s="15"/>
+      <c r="K254" s="15"/>
+      <c r="L254" s="15"/>
+      <c r="M254" s="15"/>
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
       <c r="P254" s="1"/>
@@ -11795,18 +11809,18 @@
     </row>
     <row r="255" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
-      <c r="B255" s="20"/>
-      <c r="C255" s="20"/>
-      <c r="D255" s="20"/>
-      <c r="E255" s="20"/>
-      <c r="F255" s="20"/>
-      <c r="G255" s="20"/>
-      <c r="H255" s="20"/>
-      <c r="I255" s="20"/>
-      <c r="J255" s="20"/>
-      <c r="K255" s="20"/>
-      <c r="L255" s="20"/>
-      <c r="M255" s="20"/>
+      <c r="B255" s="15"/>
+      <c r="C255" s="15"/>
+      <c r="D255" s="15"/>
+      <c r="E255" s="15"/>
+      <c r="F255" s="15"/>
+      <c r="G255" s="15"/>
+      <c r="H255" s="15"/>
+      <c r="I255" s="15"/>
+      <c r="J255" s="15"/>
+      <c r="K255" s="15"/>
+      <c r="L255" s="15"/>
+      <c r="M255" s="15"/>
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
       <c r="P255" s="1"/>
@@ -11839,18 +11853,18 @@
     </row>
     <row r="256" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
-      <c r="B256" s="20"/>
-      <c r="C256" s="20"/>
-      <c r="D256" s="20"/>
-      <c r="E256" s="20"/>
-      <c r="F256" s="20"/>
-      <c r="G256" s="20"/>
-      <c r="H256" s="20"/>
-      <c r="I256" s="20"/>
-      <c r="J256" s="20"/>
-      <c r="K256" s="20"/>
-      <c r="L256" s="20"/>
-      <c r="M256" s="20"/>
+      <c r="B256" s="15"/>
+      <c r="C256" s="15"/>
+      <c r="D256" s="15"/>
+      <c r="E256" s="15"/>
+      <c r="F256" s="15"/>
+      <c r="G256" s="15"/>
+      <c r="H256" s="15"/>
+      <c r="I256" s="15"/>
+      <c r="J256" s="15"/>
+      <c r="K256" s="15"/>
+      <c r="L256" s="15"/>
+      <c r="M256" s="15"/>
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
       <c r="P256" s="1"/>
@@ -11883,18 +11897,18 @@
     </row>
     <row r="257" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
-      <c r="B257" s="20"/>
-      <c r="C257" s="20"/>
-      <c r="D257" s="20"/>
-      <c r="E257" s="20"/>
-      <c r="F257" s="20"/>
-      <c r="G257" s="20"/>
-      <c r="H257" s="20"/>
-      <c r="I257" s="20"/>
-      <c r="J257" s="20"/>
-      <c r="K257" s="20"/>
-      <c r="L257" s="20"/>
-      <c r="M257" s="20"/>
+      <c r="B257" s="15"/>
+      <c r="C257" s="15"/>
+      <c r="D257" s="15"/>
+      <c r="E257" s="15"/>
+      <c r="F257" s="15"/>
+      <c r="G257" s="15"/>
+      <c r="H257" s="15"/>
+      <c r="I257" s="15"/>
+      <c r="J257" s="15"/>
+      <c r="K257" s="15"/>
+      <c r="L257" s="15"/>
+      <c r="M257" s="15"/>
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
       <c r="P257" s="1"/>
@@ -11927,18 +11941,18 @@
     </row>
     <row r="258" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
-      <c r="B258" s="20"/>
-      <c r="C258" s="20"/>
-      <c r="D258" s="20"/>
-      <c r="E258" s="20"/>
-      <c r="F258" s="20"/>
-      <c r="G258" s="20"/>
-      <c r="H258" s="20"/>
-      <c r="I258" s="20"/>
-      <c r="J258" s="20"/>
-      <c r="K258" s="20"/>
-      <c r="L258" s="20"/>
-      <c r="M258" s="20"/>
+      <c r="B258" s="15"/>
+      <c r="C258" s="15"/>
+      <c r="D258" s="15"/>
+      <c r="E258" s="15"/>
+      <c r="F258" s="15"/>
+      <c r="G258" s="15"/>
+      <c r="H258" s="15"/>
+      <c r="I258" s="15"/>
+      <c r="J258" s="15"/>
+      <c r="K258" s="15"/>
+      <c r="L258" s="15"/>
+      <c r="M258" s="15"/>
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
       <c r="P258" s="1"/>
@@ -11971,18 +11985,18 @@
     </row>
     <row r="259" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
-      <c r="B259" s="20"/>
-      <c r="C259" s="20"/>
-      <c r="D259" s="20"/>
-      <c r="E259" s="20"/>
-      <c r="F259" s="20"/>
-      <c r="G259" s="20"/>
-      <c r="H259" s="20"/>
-      <c r="I259" s="20"/>
-      <c r="J259" s="20"/>
-      <c r="K259" s="20"/>
-      <c r="L259" s="20"/>
-      <c r="M259" s="20"/>
+      <c r="B259" s="15"/>
+      <c r="C259" s="15"/>
+      <c r="D259" s="15"/>
+      <c r="E259" s="15"/>
+      <c r="F259" s="15"/>
+      <c r="G259" s="15"/>
+      <c r="H259" s="15"/>
+      <c r="I259" s="15"/>
+      <c r="J259" s="15"/>
+      <c r="K259" s="15"/>
+      <c r="L259" s="15"/>
+      <c r="M259" s="15"/>
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
       <c r="P259" s="1"/>
@@ -12015,18 +12029,18 @@
     </row>
     <row r="260" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
-      <c r="B260" s="20"/>
-      <c r="C260" s="20"/>
-      <c r="D260" s="20"/>
-      <c r="E260" s="20"/>
-      <c r="F260" s="20"/>
-      <c r="G260" s="20"/>
-      <c r="H260" s="20"/>
-      <c r="I260" s="20"/>
-      <c r="J260" s="20"/>
-      <c r="K260" s="20"/>
-      <c r="L260" s="20"/>
-      <c r="M260" s="20"/>
+      <c r="B260" s="15"/>
+      <c r="C260" s="15"/>
+      <c r="D260" s="15"/>
+      <c r="E260" s="15"/>
+      <c r="F260" s="15"/>
+      <c r="G260" s="15"/>
+      <c r="H260" s="15"/>
+      <c r="I260" s="15"/>
+      <c r="J260" s="15"/>
+      <c r="K260" s="15"/>
+      <c r="L260" s="15"/>
+      <c r="M260" s="15"/>
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
       <c r="P260" s="1"/>
@@ -12059,18 +12073,18 @@
     </row>
     <row r="261" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
-      <c r="B261" s="20"/>
-      <c r="C261" s="20"/>
-      <c r="D261" s="20"/>
-      <c r="E261" s="20"/>
-      <c r="F261" s="20"/>
-      <c r="G261" s="20"/>
-      <c r="H261" s="20"/>
-      <c r="I261" s="20"/>
-      <c r="J261" s="20"/>
-      <c r="K261" s="20"/>
-      <c r="L261" s="20"/>
-      <c r="M261" s="20"/>
+      <c r="B261" s="15"/>
+      <c r="C261" s="15"/>
+      <c r="D261" s="15"/>
+      <c r="E261" s="15"/>
+      <c r="F261" s="15"/>
+      <c r="G261" s="15"/>
+      <c r="H261" s="15"/>
+      <c r="I261" s="15"/>
+      <c r="J261" s="15"/>
+      <c r="K261" s="15"/>
+      <c r="L261" s="15"/>
+      <c r="M261" s="15"/>
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
       <c r="P261" s="1"/>
@@ -12103,18 +12117,18 @@
     </row>
     <row r="262" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
-      <c r="B262" s="20"/>
-      <c r="C262" s="20"/>
-      <c r="D262" s="20"/>
-      <c r="E262" s="20"/>
-      <c r="F262" s="20"/>
-      <c r="G262" s="20"/>
-      <c r="H262" s="20"/>
-      <c r="I262" s="20"/>
-      <c r="J262" s="20"/>
-      <c r="K262" s="20"/>
-      <c r="L262" s="20"/>
-      <c r="M262" s="20"/>
+      <c r="B262" s="15"/>
+      <c r="C262" s="15"/>
+      <c r="D262" s="15"/>
+      <c r="E262" s="15"/>
+      <c r="F262" s="15"/>
+      <c r="G262" s="15"/>
+      <c r="H262" s="15"/>
+      <c r="I262" s="15"/>
+      <c r="J262" s="15"/>
+      <c r="K262" s="15"/>
+      <c r="L262" s="15"/>
+      <c r="M262" s="15"/>
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
       <c r="P262" s="1"/>
@@ -12147,18 +12161,18 @@
     </row>
     <row r="263" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
-      <c r="B263" s="20"/>
-      <c r="C263" s="20"/>
-      <c r="D263" s="20"/>
-      <c r="E263" s="20"/>
-      <c r="F263" s="20"/>
-      <c r="G263" s="20"/>
-      <c r="H263" s="20"/>
-      <c r="I263" s="20"/>
-      <c r="J263" s="20"/>
-      <c r="K263" s="20"/>
-      <c r="L263" s="20"/>
-      <c r="M263" s="20"/>
+      <c r="B263" s="15"/>
+      <c r="C263" s="15"/>
+      <c r="D263" s="15"/>
+      <c r="E263" s="15"/>
+      <c r="F263" s="15"/>
+      <c r="G263" s="15"/>
+      <c r="H263" s="15"/>
+      <c r="I263" s="15"/>
+      <c r="J263" s="15"/>
+      <c r="K263" s="15"/>
+      <c r="L263" s="15"/>
+      <c r="M263" s="15"/>
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
       <c r="P263" s="1"/>
@@ -12191,18 +12205,18 @@
     </row>
     <row r="264" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
-      <c r="B264" s="20"/>
-      <c r="C264" s="20"/>
-      <c r="D264" s="20"/>
-      <c r="E264" s="20"/>
-      <c r="F264" s="20"/>
-      <c r="G264" s="20"/>
-      <c r="H264" s="20"/>
-      <c r="I264" s="20"/>
-      <c r="J264" s="20"/>
-      <c r="K264" s="20"/>
-      <c r="L264" s="20"/>
-      <c r="M264" s="20"/>
+      <c r="B264" s="15"/>
+      <c r="C264" s="15"/>
+      <c r="D264" s="15"/>
+      <c r="E264" s="15"/>
+      <c r="F264" s="15"/>
+      <c r="G264" s="15"/>
+      <c r="H264" s="15"/>
+      <c r="I264" s="15"/>
+      <c r="J264" s="15"/>
+      <c r="K264" s="15"/>
+      <c r="L264" s="15"/>
+      <c r="M264" s="15"/>
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
       <c r="P264" s="1"/>
@@ -12235,18 +12249,18 @@
     </row>
     <row r="265" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
-      <c r="B265" s="20"/>
-      <c r="C265" s="20"/>
-      <c r="D265" s="20"/>
-      <c r="E265" s="20"/>
-      <c r="F265" s="20"/>
-      <c r="G265" s="20"/>
-      <c r="H265" s="20"/>
-      <c r="I265" s="20"/>
-      <c r="J265" s="20"/>
-      <c r="K265" s="20"/>
-      <c r="L265" s="20"/>
-      <c r="M265" s="20"/>
+      <c r="B265" s="15"/>
+      <c r="C265" s="15"/>
+      <c r="D265" s="15"/>
+      <c r="E265" s="15"/>
+      <c r="F265" s="15"/>
+      <c r="G265" s="15"/>
+      <c r="H265" s="15"/>
+      <c r="I265" s="15"/>
+      <c r="J265" s="15"/>
+      <c r="K265" s="15"/>
+      <c r="L265" s="15"/>
+      <c r="M265" s="15"/>
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
       <c r="P265" s="1"/>
@@ -12279,18 +12293,18 @@
     </row>
     <row r="266" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
-      <c r="B266" s="20"/>
-      <c r="C266" s="20"/>
-      <c r="D266" s="20"/>
-      <c r="E266" s="20"/>
-      <c r="F266" s="20"/>
-      <c r="G266" s="20"/>
-      <c r="H266" s="20"/>
-      <c r="I266" s="20"/>
-      <c r="J266" s="20"/>
-      <c r="K266" s="20"/>
-      <c r="L266" s="20"/>
-      <c r="M266" s="20"/>
+      <c r="B266" s="15"/>
+      <c r="C266" s="15"/>
+      <c r="D266" s="15"/>
+      <c r="E266" s="15"/>
+      <c r="F266" s="15"/>
+      <c r="G266" s="15"/>
+      <c r="H266" s="15"/>
+      <c r="I266" s="15"/>
+      <c r="J266" s="15"/>
+      <c r="K266" s="15"/>
+      <c r="L266" s="15"/>
+      <c r="M266" s="15"/>
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
       <c r="P266" s="1"/>
@@ -12323,18 +12337,18 @@
     </row>
     <row r="267" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
-      <c r="B267" s="20"/>
-      <c r="C267" s="20"/>
-      <c r="D267" s="20"/>
-      <c r="E267" s="20"/>
-      <c r="F267" s="20"/>
-      <c r="G267" s="20"/>
-      <c r="H267" s="20"/>
-      <c r="I267" s="20"/>
-      <c r="J267" s="20"/>
-      <c r="K267" s="20"/>
-      <c r="L267" s="20"/>
-      <c r="M267" s="20"/>
+      <c r="B267" s="15"/>
+      <c r="C267" s="15"/>
+      <c r="D267" s="15"/>
+      <c r="E267" s="15"/>
+      <c r="F267" s="15"/>
+      <c r="G267" s="15"/>
+      <c r="H267" s="15"/>
+      <c r="I267" s="15"/>
+      <c r="J267" s="15"/>
+      <c r="K267" s="15"/>
+      <c r="L267" s="15"/>
+      <c r="M267" s="15"/>
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
       <c r="P267" s="1"/>
@@ -12367,18 +12381,18 @@
     </row>
     <row r="268" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
-      <c r="B268" s="20"/>
-      <c r="C268" s="20"/>
-      <c r="D268" s="20"/>
-      <c r="E268" s="20"/>
-      <c r="F268" s="20"/>
-      <c r="G268" s="20"/>
-      <c r="H268" s="20"/>
-      <c r="I268" s="20"/>
-      <c r="J268" s="20"/>
-      <c r="K268" s="20"/>
-      <c r="L268" s="20"/>
-      <c r="M268" s="20"/>
+      <c r="B268" s="15"/>
+      <c r="C268" s="15"/>
+      <c r="D268" s="15"/>
+      <c r="E268" s="15"/>
+      <c r="F268" s="15"/>
+      <c r="G268" s="15"/>
+      <c r="H268" s="15"/>
+      <c r="I268" s="15"/>
+      <c r="J268" s="15"/>
+      <c r="K268" s="15"/>
+      <c r="L268" s="15"/>
+      <c r="M268" s="15"/>
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
       <c r="P268" s="1"/>
@@ -12411,18 +12425,18 @@
     </row>
     <row r="269" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
-      <c r="B269" s="20"/>
-      <c r="C269" s="20"/>
-      <c r="D269" s="20"/>
-      <c r="E269" s="20"/>
-      <c r="F269" s="20"/>
-      <c r="G269" s="20"/>
-      <c r="H269" s="20"/>
-      <c r="I269" s="20"/>
-      <c r="J269" s="20"/>
-      <c r="K269" s="20"/>
-      <c r="L269" s="20"/>
-      <c r="M269" s="20"/>
+      <c r="B269" s="15"/>
+      <c r="C269" s="15"/>
+      <c r="D269" s="15"/>
+      <c r="E269" s="15"/>
+      <c r="F269" s="15"/>
+      <c r="G269" s="15"/>
+      <c r="H269" s="15"/>
+      <c r="I269" s="15"/>
+      <c r="J269" s="15"/>
+      <c r="K269" s="15"/>
+      <c r="L269" s="15"/>
+      <c r="M269" s="15"/>
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
       <c r="P269" s="1"/>
@@ -12455,18 +12469,18 @@
     </row>
     <row r="270" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
-      <c r="B270" s="20"/>
-      <c r="C270" s="20"/>
-      <c r="D270" s="20"/>
-      <c r="E270" s="20"/>
-      <c r="F270" s="20"/>
-      <c r="G270" s="20"/>
-      <c r="H270" s="20"/>
-      <c r="I270" s="20"/>
-      <c r="J270" s="20"/>
-      <c r="K270" s="20"/>
-      <c r="L270" s="20"/>
-      <c r="M270" s="20"/>
+      <c r="B270" s="15"/>
+      <c r="C270" s="15"/>
+      <c r="D270" s="15"/>
+      <c r="E270" s="15"/>
+      <c r="F270" s="15"/>
+      <c r="G270" s="15"/>
+      <c r="H270" s="15"/>
+      <c r="I270" s="15"/>
+      <c r="J270" s="15"/>
+      <c r="K270" s="15"/>
+      <c r="L270" s="15"/>
+      <c r="M270" s="15"/>
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
       <c r="P270" s="1"/>
@@ -12499,18 +12513,18 @@
     </row>
     <row r="271" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
-      <c r="B271" s="20"/>
-      <c r="C271" s="20"/>
-      <c r="D271" s="20"/>
-      <c r="E271" s="20"/>
-      <c r="F271" s="20"/>
-      <c r="G271" s="20"/>
-      <c r="H271" s="20"/>
-      <c r="I271" s="20"/>
-      <c r="J271" s="20"/>
-      <c r="K271" s="20"/>
-      <c r="L271" s="20"/>
-      <c r="M271" s="20"/>
+      <c r="B271" s="15"/>
+      <c r="C271" s="15"/>
+      <c r="D271" s="15"/>
+      <c r="E271" s="15"/>
+      <c r="F271" s="15"/>
+      <c r="G271" s="15"/>
+      <c r="H271" s="15"/>
+      <c r="I271" s="15"/>
+      <c r="J271" s="15"/>
+      <c r="K271" s="15"/>
+      <c r="L271" s="15"/>
+      <c r="M271" s="15"/>
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
       <c r="P271" s="1"/>
@@ -12543,18 +12557,18 @@
     </row>
     <row r="272" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
-      <c r="B272" s="20"/>
-      <c r="C272" s="20"/>
-      <c r="D272" s="20"/>
-      <c r="E272" s="20"/>
-      <c r="F272" s="20"/>
-      <c r="G272" s="20"/>
-      <c r="H272" s="20"/>
-      <c r="I272" s="20"/>
-      <c r="J272" s="20"/>
-      <c r="K272" s="20"/>
-      <c r="L272" s="20"/>
-      <c r="M272" s="20"/>
+      <c r="B272" s="15"/>
+      <c r="C272" s="15"/>
+      <c r="D272" s="15"/>
+      <c r="E272" s="15"/>
+      <c r="F272" s="15"/>
+      <c r="G272" s="15"/>
+      <c r="H272" s="15"/>
+      <c r="I272" s="15"/>
+      <c r="J272" s="15"/>
+      <c r="K272" s="15"/>
+      <c r="L272" s="15"/>
+      <c r="M272" s="15"/>
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
       <c r="P272" s="1"/>
@@ -12587,18 +12601,18 @@
     </row>
     <row r="273" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
-      <c r="B273" s="20"/>
-      <c r="C273" s="20"/>
-      <c r="D273" s="20"/>
-      <c r="E273" s="20"/>
-      <c r="F273" s="20"/>
-      <c r="G273" s="20"/>
-      <c r="H273" s="20"/>
-      <c r="I273" s="20"/>
-      <c r="J273" s="20"/>
-      <c r="K273" s="20"/>
-      <c r="L273" s="20"/>
-      <c r="M273" s="20"/>
+      <c r="B273" s="15"/>
+      <c r="C273" s="15"/>
+      <c r="D273" s="15"/>
+      <c r="E273" s="15"/>
+      <c r="F273" s="15"/>
+      <c r="G273" s="15"/>
+      <c r="H273" s="15"/>
+      <c r="I273" s="15"/>
+      <c r="J273" s="15"/>
+      <c r="K273" s="15"/>
+      <c r="L273" s="15"/>
+      <c r="M273" s="15"/>
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
       <c r="P273" s="1"/>
